--- a/manual/output_1190_chunk_3.xlsx
+++ b/manual/output_1190_chunk_3.xlsx
@@ -7017,7 +7017,7 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>138.3607099249381</v>
+        <v>138.2617241049468</v>
       </c>
       <c r="E32" t="s">
         <v>2031</v>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>830.1642595496285</v>
+        <v>829.5703446296809</v>
       </c>
       <c r="E33" t="s">
         <v>2030</v>
@@ -12100,7 +12100,7 @@
         <v>2</v>
       </c>
       <c r="D331">
-        <v>976.5</v>
+        <v>979.75</v>
       </c>
       <c r="E331" t="s">
         <v>2030</v>
@@ -13715,7 +13715,7 @@
         <v>2</v>
       </c>
       <c r="D426">
-        <v>95.25</v>
+        <v>95.5</v>
       </c>
       <c r="E426" t="s">
         <v>2031</v>
@@ -13732,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="D427">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E427" t="s">
         <v>2030</v>
@@ -13749,7 +13749,7 @@
         <v>2</v>
       </c>
       <c r="D428">
-        <v>95.25</v>
+        <v>95.5</v>
       </c>
       <c r="E428" t="s">
         <v>2031</v>
@@ -13766,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="D429">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E429" t="s">
         <v>2030</v>
@@ -14412,7 +14412,7 @@
         <v>3</v>
       </c>
       <c r="D467">
-        <v>23.51722686460421</v>
+        <v>23.06397645435496</v>
       </c>
       <c r="E467" t="s">
         <v>2031</v>
@@ -14429,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>282.2067223752505</v>
+        <v>276.7677174522595</v>
       </c>
       <c r="E468" t="s">
         <v>2030</v>
@@ -15058,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="D505">
-        <v>178.25</v>
+        <v>178</v>
       </c>
       <c r="E505" t="s">
         <v>2030</v>
@@ -17217,7 +17217,7 @@
         <v>1</v>
       </c>
       <c r="D632">
-        <v>192.75</v>
+        <v>193.25</v>
       </c>
       <c r="E632" t="s">
         <v>2030</v>
@@ -17234,7 +17234,7 @@
         <v>1</v>
       </c>
       <c r="D633">
-        <v>170.25</v>
+        <v>171.25</v>
       </c>
       <c r="E633" t="s">
         <v>2030</v>
@@ -18645,7 +18645,7 @@
         <v>2</v>
       </c>
       <c r="D716">
-        <v>99.49284537296529</v>
+        <v>99.5338770164918</v>
       </c>
       <c r="E716" t="s">
         <v>2030</v>
@@ -18662,7 +18662,7 @@
         <v>2</v>
       </c>
       <c r="D717">
-        <v>99.49268570912022</v>
+        <v>99.53371736201503</v>
       </c>
       <c r="E717" t="s">
         <v>2030</v>
@@ -18679,7 +18679,7 @@
         <v>2</v>
       </c>
       <c r="D718">
-        <v>99.49312649359408</v>
+        <v>99.53415812062583</v>
       </c>
       <c r="E718" t="s">
         <v>2030</v>
@@ -18696,7 +18696,7 @@
         <v>2</v>
       </c>
       <c r="D719">
-        <v>99.49278958982451</v>
+        <v>99.53382123662412</v>
       </c>
       <c r="E719" t="s">
         <v>2030</v>
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="D720">
-        <v>104.624144178449</v>
+        <v>104.6695082541922</v>
       </c>
       <c r="E720" t="s">
         <v>2030</v>
@@ -18730,7 +18730,7 @@
         <v>2</v>
       </c>
       <c r="D721">
-        <v>104.6240165152991</v>
+        <v>104.6687220902745</v>
       </c>
       <c r="E721" t="s">
         <v>2030</v>
@@ -18815,7 +18815,7 @@
         <v>1</v>
       </c>
       <c r="D726">
-        <v>590.25</v>
+        <v>589.75</v>
       </c>
       <c r="E726" t="s">
         <v>2030</v>
@@ -19036,7 +19036,7 @@
         <v>68</v>
       </c>
       <c r="D739">
-        <v>419</v>
+        <v>419.25</v>
       </c>
       <c r="E739" t="s">
         <v>2031</v>
@@ -19053,7 +19053,7 @@
         <v>3</v>
       </c>
       <c r="D740">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E740" t="s">
         <v>2030</v>
@@ -19070,7 +19070,7 @@
         <v>1</v>
       </c>
       <c r="D741">
-        <v>10056</v>
+        <v>10062</v>
       </c>
       <c r="E741" t="s">
         <v>2030</v>
@@ -20294,7 +20294,7 @@
         <v>2</v>
       </c>
       <c r="D813">
-        <v>269.25</v>
+        <v>267.75</v>
       </c>
       <c r="E813" t="s">
         <v>2031</v>
@@ -20311,7 +20311,7 @@
         <v>1</v>
       </c>
       <c r="D814">
-        <v>1615.5</v>
+        <v>1606.5</v>
       </c>
       <c r="E814" t="s">
         <v>2030</v>
@@ -25071,7 +25071,7 @@
         <v>2</v>
       </c>
       <c r="D1094">
-        <v>879</v>
+        <v>881.75</v>
       </c>
       <c r="E1094" t="s">
         <v>2030</v>
@@ -25887,7 +25887,7 @@
         <v>2</v>
       </c>
       <c r="D1142">
-        <v>905</v>
+        <v>905.25</v>
       </c>
       <c r="E1142" t="s">
         <v>2031</v>
@@ -25904,7 +25904,7 @@
         <v>1</v>
       </c>
       <c r="D1143">
-        <v>5430</v>
+        <v>5431.5</v>
       </c>
       <c r="E1143" t="s">
         <v>2030</v>
@@ -27077,7 +27077,7 @@
         <v>1</v>
       </c>
       <c r="D1212">
-        <v>234.5</v>
+        <v>235</v>
       </c>
       <c r="E1212" t="s">
         <v>2030</v>
@@ -30681,7 +30681,7 @@
         <v>21</v>
       </c>
       <c r="D1424">
-        <v>146.75</v>
+        <v>147.25</v>
       </c>
       <c r="E1424" t="s">
         <v>2031</v>
@@ -30698,7 +30698,7 @@
         <v>1</v>
       </c>
       <c r="D1425">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E1425" t="s">
         <v>2030</v>
@@ -33282,7 +33282,7 @@
         <v>3</v>
       </c>
       <c r="D1577">
-        <v>23.52105422619243</v>
+        <v>23.06765769565973</v>
       </c>
       <c r="E1577" t="s">
         <v>2031</v>
@@ -33299,7 +33299,7 @@
         <v>1</v>
       </c>
       <c r="D1578">
-        <v>282.2526507143091</v>
+        <v>276.8118923479167</v>
       </c>
       <c r="E1578" t="s">
         <v>2030</v>
@@ -37668,7 +37668,7 @@
         <v>2</v>
       </c>
       <c r="D1835">
-        <v>98.25</v>
+        <v>98.5</v>
       </c>
       <c r="E1835" t="s">
         <v>2030</v>
@@ -39436,7 +39436,7 @@
         <v>3</v>
       </c>
       <c r="D1939">
-        <v>43.5</v>
+        <v>43.75</v>
       </c>
       <c r="E1939" t="s">
         <v>2031</v>
@@ -39453,7 +39453,7 @@
         <v>1</v>
       </c>
       <c r="D1940">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E1940" t="s">
         <v>2030</v>
@@ -39946,7 +39946,7 @@
         <v>1</v>
       </c>
       <c r="D1969">
-        <v>369</v>
+        <v>368.25</v>
       </c>
       <c r="E1969" t="s">
         <v>2030</v>
@@ -42241,7 +42241,7 @@
         <v>23</v>
       </c>
       <c r="D2104">
-        <v>33.2336866097328</v>
+        <v>33.30786321413805</v>
       </c>
       <c r="E2104" t="s">
         <v>2031</v>
@@ -42258,7 +42258,7 @@
         <v>1</v>
       </c>
       <c r="D2105">
-        <v>1595.216957267174</v>
+        <v>1598.777434278626</v>
       </c>
       <c r="E2105" t="s">
         <v>2030</v>
@@ -43380,7 +43380,7 @@
         <v>1</v>
       </c>
       <c r="D2171">
-        <v>812.5</v>
+        <v>811.75</v>
       </c>
       <c r="E2171" t="s">
         <v>2030</v>
@@ -45335,7 +45335,7 @@
         <v>2</v>
       </c>
       <c r="D2286">
-        <v>308.5</v>
+        <v>308</v>
       </c>
       <c r="E2286" t="s">
         <v>2030</v>
@@ -45352,7 +45352,7 @@
         <v>1</v>
       </c>
       <c r="D2287">
-        <v>481.5</v>
+        <v>477.25</v>
       </c>
       <c r="E2287" t="s">
         <v>2030</v>
@@ -48616,7 +48616,7 @@
         <v>3</v>
       </c>
       <c r="D2479">
-        <v>23.52155760789295</v>
+        <v>23.06814185763096</v>
       </c>
       <c r="E2479" t="s">
         <v>2031</v>
@@ -48633,7 +48633,7 @@
         <v>1</v>
       </c>
       <c r="D2480">
-        <v>282.2586912947154</v>
+        <v>276.8177022915715</v>
       </c>
       <c r="E2480" t="s">
         <v>2030</v>
@@ -48650,7 +48650,7 @@
         <v>3</v>
       </c>
       <c r="D2481">
-        <v>23.52141101411696</v>
+        <v>23.06800086102595</v>
       </c>
       <c r="E2481" t="s">
         <v>2031</v>
@@ -48667,7 +48667,7 @@
         <v>1</v>
       </c>
       <c r="D2482">
-        <v>282.2569321694036</v>
+        <v>276.8160103323115</v>
       </c>
       <c r="E2482" t="s">
         <v>2030</v>
@@ -48718,7 +48718,7 @@
         <v>3</v>
       </c>
       <c r="D2485">
-        <v>23.31846587373549</v>
+        <v>23.27713382507903</v>
       </c>
       <c r="E2485" t="s">
         <v>2031</v>
@@ -48735,7 +48735,7 @@
         <v>1</v>
       </c>
       <c r="D2486">
-        <v>279.8215904848258</v>
+        <v>279.3256059009483</v>
       </c>
       <c r="E2486" t="s">
         <v>2030</v>
@@ -48786,7 +48786,7 @@
         <v>3</v>
       </c>
       <c r="D2489">
-        <v>23.31846587373549</v>
+        <v>23.27713382507903</v>
       </c>
       <c r="E2489" t="s">
         <v>2031</v>
@@ -48803,7 +48803,7 @@
         <v>1</v>
       </c>
       <c r="D2490">
-        <v>279.8215904848258</v>
+        <v>279.3256059009483</v>
       </c>
       <c r="E2490" t="s">
         <v>2030</v>
@@ -48854,7 +48854,7 @@
         <v>3</v>
       </c>
       <c r="D2493">
-        <v>23.50802654941563</v>
+        <v>23.05512729257275</v>
       </c>
       <c r="E2493" t="s">
         <v>2031</v>
@@ -48871,7 +48871,7 @@
         <v>1</v>
       </c>
       <c r="D2494">
-        <v>282.0963185929875</v>
+        <v>276.661527510873</v>
       </c>
       <c r="E2494" t="s">
         <v>2030</v>
@@ -48888,7 +48888,7 @@
         <v>3</v>
       </c>
       <c r="D2495">
-        <v>23.31421485334307</v>
+        <v>23.27289785985416</v>
       </c>
       <c r="E2495" t="s">
         <v>2031</v>
@@ -48905,7 +48905,7 @@
         <v>1</v>
       </c>
       <c r="D2496">
-        <v>279.7705782401168</v>
+        <v>279.2747743182499</v>
       </c>
       <c r="E2496" t="s">
         <v>2030</v>
@@ -49262,7 +49262,7 @@
         <v>3</v>
       </c>
       <c r="D2517">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E2517" t="s">
         <v>2031</v>
@@ -49279,7 +49279,7 @@
         <v>1</v>
       </c>
       <c r="D2518">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="E2518" t="s">
         <v>2030</v>
@@ -49330,7 +49330,7 @@
         <v>3</v>
       </c>
       <c r="D2521">
-        <v>47.25</v>
+        <v>47.5</v>
       </c>
       <c r="E2521" t="s">
         <v>2031</v>
@@ -49347,7 +49347,7 @@
         <v>1</v>
       </c>
       <c r="D2522">
-        <v>1417.5</v>
+        <v>1425</v>
       </c>
       <c r="E2522" t="s">
         <v>2030</v>
@@ -50333,7 +50333,7 @@
         <v>10</v>
       </c>
       <c r="D2580">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="E2580" t="s">
         <v>2031</v>
@@ -50350,7 +50350,7 @@
         <v>1</v>
       </c>
       <c r="D2581">
-        <v>3366</v>
+        <v>3348</v>
       </c>
       <c r="E2581" t="s">
         <v>2030</v>
@@ -51200,7 +51200,7 @@
         <v>1</v>
       </c>
       <c r="D2631">
-        <v>326.25</v>
+        <v>322.75</v>
       </c>
       <c r="E2631" t="s">
         <v>2030</v>
@@ -51574,7 +51574,7 @@
         <v>2</v>
       </c>
       <c r="D2653">
-        <v>1061.75</v>
+        <v>1050.75</v>
       </c>
       <c r="E2653" t="s">
         <v>2031</v>
@@ -51591,7 +51591,7 @@
         <v>1</v>
       </c>
       <c r="D2654">
-        <v>3185.25</v>
+        <v>3152.25</v>
       </c>
       <c r="E2654" t="s">
         <v>2030</v>
@@ -53903,7 +53903,7 @@
         <v>1</v>
       </c>
       <c r="D2790">
-        <v>860</v>
+        <v>859.25</v>
       </c>
       <c r="E2790" t="s">
         <v>2030</v>
@@ -59411,7 +59411,7 @@
         <v>2</v>
       </c>
       <c r="D3114">
-        <v>1202.75</v>
+        <v>1206.75</v>
       </c>
       <c r="E3114" t="s">
         <v>2030</v>

--- a/manual/output_1190_chunk_3.xlsx
+++ b/manual/output_1190_chunk_3.xlsx
@@ -6643,7 +6643,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>53.78798589303619</v>
+        <v>53.78865676420809</v>
       </c>
       <c r="E10" t="s">
         <v>2031</v>
@@ -6660,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>322.7279153582172</v>
+        <v>322.7319405852485</v>
       </c>
       <c r="E11" t="s">
         <v>2030</v>
@@ -8989,7 +8989,7 @@
         <v>3</v>
       </c>
       <c r="D148">
-        <v>251.4132628319099</v>
+        <v>251.2802240687781</v>
       </c>
       <c r="E148" t="s">
         <v>2031</v>
@@ -9006,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>2011.30610265528</v>
+        <v>2010.241792550225</v>
       </c>
       <c r="E149" t="s">
         <v>2030</v>
@@ -9023,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="D150">
-        <v>251.1549118762522</v>
+        <v>251.1106481976067</v>
       </c>
       <c r="E150" t="s">
         <v>2031</v>
@@ -9040,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2009.239295010017</v>
+        <v>2008.885185580854</v>
       </c>
       <c r="E151" t="s">
         <v>2030</v>
@@ -9057,7 +9057,7 @@
         <v>7</v>
       </c>
       <c r="D152">
-        <v>104.936481304071</v>
+        <v>104.8024828164972</v>
       </c>
       <c r="E152" t="s">
         <v>2031</v>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1259.237775648852</v>
+        <v>1257.629793797966</v>
       </c>
       <c r="E153" t="s">
         <v>2030</v>
@@ -9822,7 +9822,7 @@
         <v>3</v>
       </c>
       <c r="D197">
-        <v>54.25</v>
+        <v>54.5</v>
       </c>
       <c r="E197" t="s">
         <v>2031</v>
@@ -9839,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E198" t="s">
         <v>2030</v>
@@ -14412,7 +14412,7 @@
         <v>3</v>
       </c>
       <c r="D467">
-        <v>23.06397645435496</v>
+        <v>23.06419903526522</v>
       </c>
       <c r="E467" t="s">
         <v>2031</v>
@@ -14429,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>276.7677174522595</v>
+        <v>276.7703884231826</v>
       </c>
       <c r="E468" t="s">
         <v>2030</v>
@@ -15041,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="D504">
-        <v>86.5</v>
+        <v>87.25</v>
       </c>
       <c r="E504" t="s">
         <v>2030</v>
@@ -16792,7 +16792,7 @@
         <v>2</v>
       </c>
       <c r="D607">
-        <v>309.7413553526497</v>
+        <v>309.8432338830805</v>
       </c>
       <c r="E607" t="s">
         <v>2030</v>
@@ -16809,7 +16809,7 @@
         <v>2</v>
       </c>
       <c r="D608">
-        <v>308.5842444886508</v>
+        <v>309.131273372079</v>
       </c>
       <c r="E608" t="s">
         <v>2030</v>
@@ -16826,7 +16826,7 @@
         <v>2</v>
       </c>
       <c r="D609">
-        <v>309.7741750355979</v>
+        <v>309.84188988782</v>
       </c>
       <c r="E609" t="s">
         <v>2030</v>
@@ -16860,7 +16860,7 @@
         <v>332</v>
       </c>
       <c r="D611">
-        <v>70.75</v>
+        <v>70.5</v>
       </c>
       <c r="E611" t="s">
         <v>2031</v>
@@ -16877,7 +16877,7 @@
         <v>1</v>
       </c>
       <c r="D612">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="E612" t="s">
         <v>2030</v>
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
       <c r="D668">
-        <v>667.5</v>
+        <v>666.75</v>
       </c>
       <c r="E668" t="s">
         <v>2030</v>
@@ -18560,7 +18560,7 @@
         <v>2</v>
       </c>
       <c r="D711">
-        <v>97.39515997576143</v>
+        <v>97.39515582152109</v>
       </c>
       <c r="E711" t="s">
         <v>2030</v>
@@ -18628,7 +18628,7 @@
         <v>2</v>
       </c>
       <c r="D715">
-        <v>99.75889218309607</v>
+        <v>99.75849471465405</v>
       </c>
       <c r="E715" t="s">
         <v>2030</v>
@@ -18645,7 +18645,7 @@
         <v>2</v>
       </c>
       <c r="D716">
-        <v>99.5338770164918</v>
+        <v>99.53385855804859</v>
       </c>
       <c r="E716" t="s">
         <v>2030</v>
@@ -18662,7 +18662,7 @@
         <v>2</v>
       </c>
       <c r="D717">
-        <v>99.53371736201503</v>
+        <v>99.53371051884405</v>
       </c>
       <c r="E717" t="s">
         <v>2030</v>
@@ -18679,7 +18679,7 @@
         <v>2</v>
       </c>
       <c r="D718">
-        <v>99.53415812062583</v>
+        <v>99.53413789808462</v>
       </c>
       <c r="E718" t="s">
         <v>2030</v>
@@ -18696,7 +18696,7 @@
         <v>2</v>
       </c>
       <c r="D719">
-        <v>99.53382123662412</v>
+        <v>99.53379872265795</v>
       </c>
       <c r="E719" t="s">
         <v>2030</v>
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="D720">
-        <v>104.6695082541922</v>
+        <v>104.6693708502656</v>
       </c>
       <c r="E720" t="s">
         <v>2030</v>
@@ -18917,7 +18917,7 @@
         <v>2</v>
       </c>
       <c r="D732">
-        <v>50.88665412018911</v>
+        <v>50.88664660436452</v>
       </c>
       <c r="E732" t="s">
         <v>2030</v>
@@ -18934,7 +18934,7 @@
         <v>2</v>
       </c>
       <c r="D733">
-        <v>50.88655291764792</v>
+        <v>50.886552812907</v>
       </c>
       <c r="E733" t="s">
         <v>2030</v>
@@ -18951,7 +18951,7 @@
         <v>2</v>
       </c>
       <c r="D734">
-        <v>50.88655332297138</v>
+        <v>50.88655325480647</v>
       </c>
       <c r="E734" t="s">
         <v>2030</v>
@@ -20498,7 +20498,7 @@
         <v>3</v>
       </c>
       <c r="D825">
-        <v>177.3653650587916</v>
+        <v>177.3653651567094</v>
       </c>
       <c r="E825" t="s">
         <v>2031</v>
@@ -20515,7 +20515,7 @@
         <v>1</v>
       </c>
       <c r="D826">
-        <v>709.4614602351664</v>
+        <v>709.4614606268375</v>
       </c>
       <c r="E826" t="s">
         <v>2030</v>
@@ -20532,7 +20532,7 @@
         <v>3</v>
       </c>
       <c r="D827">
-        <v>177.3652090515602</v>
+        <v>177.36521824309</v>
       </c>
       <c r="E827" t="s">
         <v>2031</v>
@@ -20549,7 +20549,7 @@
         <v>1</v>
       </c>
       <c r="D828">
-        <v>709.4608362062407</v>
+        <v>709.4608729723599</v>
       </c>
       <c r="E828" t="s">
         <v>2030</v>
@@ -25326,7 +25326,7 @@
         <v>3</v>
       </c>
       <c r="D1109">
-        <v>48.49846281428176</v>
+        <v>48.46463743628931</v>
       </c>
       <c r="E1109" t="s">
         <v>2031</v>
@@ -25343,7 +25343,7 @@
         <v>1</v>
       </c>
       <c r="D1110">
-        <v>484.9846281428176</v>
+        <v>484.6463743628931</v>
       </c>
       <c r="E1110" t="s">
         <v>2030</v>
@@ -25360,7 +25360,7 @@
         <v>3</v>
       </c>
       <c r="D1111">
-        <v>48.59570753613102</v>
+        <v>48.53053199107283</v>
       </c>
       <c r="E1111" t="s">
         <v>2031</v>
@@ -25377,7 +25377,7 @@
         <v>1</v>
       </c>
       <c r="D1112">
-        <v>485.9570753613102</v>
+        <v>485.3053199107284</v>
       </c>
       <c r="E1112" t="s">
         <v>2030</v>
@@ -25513,7 +25513,7 @@
         <v>1</v>
       </c>
       <c r="D1120">
-        <v>74.25</v>
+        <v>74.75</v>
       </c>
       <c r="E1120" t="s">
         <v>2030</v>
@@ -27009,7 +27009,7 @@
         <v>1</v>
       </c>
       <c r="D1208">
-        <v>459.25</v>
+        <v>459.5</v>
       </c>
       <c r="E1208" t="s">
         <v>2030</v>
@@ -27400,7 +27400,7 @@
         <v>1</v>
       </c>
       <c r="D1231">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1231" t="s">
         <v>2030</v>
@@ -32092,7 +32092,7 @@
         <v>3</v>
       </c>
       <c r="D1507">
-        <v>48.19684414957693</v>
+        <v>48.19688748299689</v>
       </c>
       <c r="E1507" t="s">
         <v>2031</v>
@@ -32109,7 +32109,7 @@
         <v>1</v>
       </c>
       <c r="D1508">
-        <v>578.3621297949232</v>
+        <v>578.3626497959627</v>
       </c>
       <c r="E1508" t="s">
         <v>2030</v>
@@ -33418,7 +33418,7 @@
         <v>1</v>
       </c>
       <c r="D1585">
-        <v>762.8160297247239</v>
+        <v>763.1452507135721</v>
       </c>
       <c r="E1585" t="s">
         <v>2030</v>
@@ -33435,7 +33435,7 @@
         <v>1</v>
       </c>
       <c r="D1586">
-        <v>603.25</v>
+        <v>603.75</v>
       </c>
       <c r="E1586" t="s">
         <v>2030</v>
@@ -35696,7 +35696,7 @@
         <v>3</v>
       </c>
       <c r="D1719">
-        <v>48.55125235220626</v>
+        <v>48.52025755041205</v>
       </c>
       <c r="E1719" t="s">
         <v>2031</v>
@@ -35713,7 +35713,7 @@
         <v>1</v>
       </c>
       <c r="D1720">
-        <v>485.5125235220626</v>
+        <v>485.2025755041205</v>
       </c>
       <c r="E1720" t="s">
         <v>2030</v>
@@ -43992,7 +43992,7 @@
         <v>25</v>
       </c>
       <c r="D2207">
-        <v>307.25</v>
+        <v>306.5</v>
       </c>
       <c r="E2207" t="s">
         <v>2031</v>
@@ -44009,7 +44009,7 @@
         <v>29</v>
       </c>
       <c r="D2208">
-        <v>921.75</v>
+        <v>919.5</v>
       </c>
       <c r="E2208" t="s">
         <v>2030</v>
@@ -45539,7 +45539,7 @@
         <v>23</v>
       </c>
       <c r="D2298">
-        <v>20.15345868947542</v>
+        <v>20.1537958134885</v>
       </c>
       <c r="E2298" t="s">
         <v>2031</v>
@@ -45556,7 +45556,7 @@
         <v>1</v>
       </c>
       <c r="D2299">
-        <v>362.7622564105575</v>
+        <v>362.7683246427931</v>
       </c>
       <c r="E2299" t="s">
         <v>2030</v>
@@ -45743,7 +45743,7 @@
         <v>3</v>
       </c>
       <c r="D2310">
-        <v>47.44259054134993</v>
+        <v>47.4425905702025</v>
       </c>
       <c r="E2310" t="s">
         <v>2031</v>
@@ -45760,7 +45760,7 @@
         <v>1</v>
       </c>
       <c r="D2311">
-        <v>284.6555432480995</v>
+        <v>284.655543421215</v>
       </c>
       <c r="E2311" t="s">
         <v>2030</v>
@@ -46389,7 +46389,7 @@
         <v>3</v>
       </c>
       <c r="D2348">
-        <v>53</v>
+        <v>52.75</v>
       </c>
       <c r="E2348" t="s">
         <v>2031</v>
@@ -46406,7 +46406,7 @@
         <v>1</v>
       </c>
       <c r="D2349">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E2349" t="s">
         <v>2030</v>
@@ -47698,7 +47698,7 @@
         <v>3</v>
       </c>
       <c r="D2425">
-        <v>53.11724118498214</v>
+        <v>53.11724118498213</v>
       </c>
       <c r="E2425" t="s">
         <v>2031</v>
@@ -47715,7 +47715,7 @@
         <v>1</v>
       </c>
       <c r="D2426">
-        <v>637.4068942197857</v>
+        <v>637.4068942197855</v>
       </c>
       <c r="E2426" t="s">
         <v>2030</v>
@@ -48616,7 +48616,7 @@
         <v>3</v>
       </c>
       <c r="D2479">
-        <v>23.06814185763096</v>
+        <v>23.06815450645873</v>
       </c>
       <c r="E2479" t="s">
         <v>2031</v>
@@ -48633,7 +48633,7 @@
         <v>1</v>
       </c>
       <c r="D2480">
-        <v>276.8177022915715</v>
+        <v>276.8178540775047</v>
       </c>
       <c r="E2480" t="s">
         <v>2030</v>
@@ -48650,7 +48650,7 @@
         <v>3</v>
       </c>
       <c r="D2481">
-        <v>23.06800086102595</v>
+        <v>23.06802640855765</v>
       </c>
       <c r="E2481" t="s">
         <v>2031</v>
@@ -48667,7 +48667,7 @@
         <v>1</v>
       </c>
       <c r="D2482">
-        <v>276.8160103323115</v>
+        <v>276.8163169026918</v>
       </c>
       <c r="E2482" t="s">
         <v>2030</v>
@@ -48888,7 +48888,7 @@
         <v>3</v>
       </c>
       <c r="D2495">
-        <v>23.27289785985416</v>
+        <v>23.27312550284328</v>
       </c>
       <c r="E2495" t="s">
         <v>2031</v>
@@ -48905,7 +48905,7 @@
         <v>1</v>
       </c>
       <c r="D2496">
-        <v>279.2747743182499</v>
+        <v>279.2775060341194</v>
       </c>
       <c r="E2496" t="s">
         <v>2030</v>
@@ -51183,7 +51183,7 @@
         <v>1</v>
       </c>
       <c r="D2630">
-        <v>684.25</v>
+        <v>683.75</v>
       </c>
       <c r="E2630" t="s">
         <v>2030</v>
@@ -54702,7 +54702,7 @@
         <v>3</v>
       </c>
       <c r="D2837">
-        <v>48</v>
+        <v>48.25</v>
       </c>
       <c r="E2837" t="s">
         <v>2031</v>
@@ -54719,7 +54719,7 @@
         <v>1</v>
       </c>
       <c r="D2838">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E2838" t="s">
         <v>2030</v>
@@ -54736,7 +54736,7 @@
         <v>3</v>
       </c>
       <c r="D2839">
-        <v>48</v>
+        <v>48.25</v>
       </c>
       <c r="E2839" t="s">
         <v>2031</v>
@@ -54753,7 +54753,7 @@
         <v>1</v>
       </c>
       <c r="D2840">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E2840" t="s">
         <v>2030</v>
@@ -55569,7 +55569,7 @@
         <v>1</v>
       </c>
       <c r="D2888">
-        <v>762.0773964564687</v>
+        <v>762.5471024505758</v>
       </c>
       <c r="E2888" t="s">
         <v>2030</v>
@@ -55586,7 +55586,7 @@
         <v>1</v>
       </c>
       <c r="D2889">
-        <v>596.5</v>
+        <v>596.75</v>
       </c>
       <c r="E2889" t="s">
         <v>2030</v>
@@ -56045,7 +56045,7 @@
         <v>2</v>
       </c>
       <c r="D2916">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="E2916" t="s">
         <v>2031</v>
@@ -56062,7 +56062,7 @@
         <v>1</v>
       </c>
       <c r="D2917">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E2917" t="s">
         <v>2030</v>
@@ -56504,7 +56504,7 @@
         <v>3</v>
       </c>
       <c r="D2943">
-        <v>136.1977421192229</v>
+        <v>136.2015968659649</v>
       </c>
       <c r="E2943" t="s">
         <v>2031</v>
@@ -56521,7 +56521,7 @@
         <v>1</v>
       </c>
       <c r="D2944">
-        <v>3268.74581086135</v>
+        <v>3268.838324783158</v>
       </c>
       <c r="E2944" t="s">
         <v>2030</v>

--- a/manual/output_1190_chunk_3.xlsx
+++ b/manual/output_1190_chunk_3.xlsx
@@ -6896,7 +6896,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>53.75</v>
+        <v>52.5</v>
       </c>
       <c r="E21" t="s">
         <v>2053</v>
@@ -6913,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="E22" t="s">
         <v>2052</v>
@@ -6930,7 +6930,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>54.86294650178549</v>
+        <v>54.04187554090942</v>
       </c>
       <c r="E23" t="s">
         <v>2053</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>658.3553580214259</v>
+        <v>648.5025064909131</v>
       </c>
       <c r="E24" t="s">
         <v>2052</v>
@@ -6964,7 +6964,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>53.25</v>
+        <v>51.75</v>
       </c>
       <c r="E25" t="s">
         <v>2053</v>
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="E26" t="s">
         <v>2052</v>
@@ -6998,7 +6998,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>65.25</v>
+        <v>64.75</v>
       </c>
       <c r="E27" t="s">
         <v>2053</v>
@@ -7015,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>391.5</v>
+        <v>388.5</v>
       </c>
       <c r="E28" t="s">
         <v>2052</v>
@@ -7032,7 +7032,7 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>66.5</v>
+        <v>65.5</v>
       </c>
       <c r="E29" t="s">
         <v>2053</v>
@@ -7049,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E30" t="s">
         <v>2052</v>
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>637.5</v>
+        <v>626.25</v>
       </c>
       <c r="E44" t="s">
         <v>2052</v>
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>618.5</v>
+        <v>609.25</v>
       </c>
       <c r="E45" t="s">
         <v>2052</v>
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>625.75</v>
+        <v>616.25</v>
       </c>
       <c r="E46" t="s">
         <v>2052</v>
@@ -7338,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>632.5</v>
+        <v>623</v>
       </c>
       <c r="E47" t="s">
         <v>2052</v>
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>475</v>
+        <v>468.25</v>
       </c>
       <c r="E48" t="s">
         <v>2052</v>
@@ -7372,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>491.25</v>
+        <v>478.5</v>
       </c>
       <c r="E49" t="s">
         <v>2052</v>
@@ -7389,7 +7389,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>164.75</v>
+        <v>163.25</v>
       </c>
       <c r="E50" t="s">
         <v>2052</v>
@@ -7406,7 +7406,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>235.75</v>
+        <v>233.5</v>
       </c>
       <c r="E51" t="s">
         <v>2052</v>
@@ -7423,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>259.75</v>
+        <v>257.25</v>
       </c>
       <c r="E52" t="s">
         <v>2052</v>
@@ -7644,7 +7644,7 @@
         <v>3</v>
       </c>
       <c r="D65">
-        <v>759.75</v>
+        <v>751.25</v>
       </c>
       <c r="E65" t="s">
         <v>2053</v>
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>7597.5</v>
+        <v>7512.5</v>
       </c>
       <c r="E66" t="s">
         <v>2052</v>
@@ -7678,7 +7678,7 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>72.75</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
         <v>2053</v>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E68" t="s">
         <v>2052</v>
@@ -7712,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>52.30613359903914</v>
+        <v>52.30613359903877</v>
       </c>
       <c r="E69" t="s">
         <v>2053</v>
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>627.6736031884698</v>
+        <v>627.6736031884652</v>
       </c>
       <c r="E70" t="s">
         <v>2052</v>
@@ -7746,7 +7746,7 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>52.30613359902354</v>
+        <v>52.30613359902609</v>
       </c>
       <c r="E71" t="s">
         <v>2053</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>627.6736031882824</v>
+        <v>627.6736031883131</v>
       </c>
       <c r="E72" t="s">
         <v>2052</v>
@@ -7780,7 +7780,7 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>52.30613359900313</v>
+        <v>52.30613359902101</v>
       </c>
       <c r="E73" t="s">
         <v>2053</v>
@@ -7797,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>627.6736031880375</v>
+        <v>627.6736031882522</v>
       </c>
       <c r="E74" t="s">
         <v>2052</v>
@@ -7814,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>52.30613359748389</v>
+        <v>52.30613359787426</v>
       </c>
       <c r="E75" t="s">
         <v>2053</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>627.6736031698067</v>
+        <v>627.6736031744912</v>
       </c>
       <c r="E76" t="s">
         <v>2052</v>
@@ -7865,7 +7865,7 @@
         <v>3</v>
       </c>
       <c r="D78">
-        <v>145.046001555009</v>
+        <v>143.3946430109359</v>
       </c>
       <c r="E78" t="s">
         <v>2053</v>
@@ -7882,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>870.2760093300542</v>
+        <v>860.3678580656153</v>
       </c>
       <c r="E79" t="s">
         <v>2052</v>
@@ -7899,7 +7899,7 @@
         <v>3</v>
       </c>
       <c r="D80">
-        <v>71.25</v>
+        <v>70.5</v>
       </c>
       <c r="E80" t="s">
         <v>2053</v>
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>427.5</v>
+        <v>423</v>
       </c>
       <c r="E81" t="s">
         <v>2052</v>
@@ -8375,7 +8375,7 @@
         <v>11</v>
       </c>
       <c r="D108">
-        <v>17.5</v>
+        <v>17.25</v>
       </c>
       <c r="E108" t="s">
         <v>2053</v>
@@ -8392,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E109" t="s">
         <v>2052</v>
@@ -8409,7 +8409,7 @@
         <v>11</v>
       </c>
       <c r="D110">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="E110" t="s">
         <v>2053</v>
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
         <v>2052</v>
@@ -8443,7 +8443,7 @@
         <v>11</v>
       </c>
       <c r="D112">
-        <v>17.5</v>
+        <v>17.25</v>
       </c>
       <c r="E112" t="s">
         <v>2053</v>
@@ -8460,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E113" t="s">
         <v>2052</v>
@@ -8477,7 +8477,7 @@
         <v>11</v>
       </c>
       <c r="D114">
-        <v>17.25</v>
+        <v>16.75</v>
       </c>
       <c r="E114" t="s">
         <v>2053</v>
@@ -8494,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E115" t="s">
         <v>2052</v>
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>64</v>
+        <v>63.5</v>
       </c>
       <c r="E116" t="s">
         <v>2052</v>
@@ -8528,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>65.25</v>
+        <v>64.5</v>
       </c>
       <c r="E117" t="s">
         <v>2052</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>328.25</v>
+        <v>324.25</v>
       </c>
       <c r="E134" t="s">
         <v>2052</v>
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>77</v>
+        <v>76.25</v>
       </c>
       <c r="E135" t="s">
         <v>2052</v>
@@ -8851,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E136" t="s">
         <v>2052</v>
@@ -9310,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="D163">
-        <v>117.5588812670915</v>
+        <v>116.6960854322219</v>
       </c>
       <c r="E163" t="s">
         <v>2053</v>
@@ -9327,7 +9327,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1410.706575205098</v>
+        <v>1400.353025186663</v>
       </c>
       <c r="E164" t="s">
         <v>2052</v>
@@ -9344,7 +9344,7 @@
         <v>4</v>
       </c>
       <c r="D165">
-        <v>117.5588812670915</v>
+        <v>116.6960854322219</v>
       </c>
       <c r="E165" t="s">
         <v>2053</v>
@@ -9361,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1410.706575205098</v>
+        <v>1400.353025186663</v>
       </c>
       <c r="E166" t="s">
         <v>2052</v>
@@ -9378,7 +9378,7 @@
         <v>4</v>
       </c>
       <c r="D167">
-        <v>121.25</v>
+        <v>120.25</v>
       </c>
       <c r="E167" t="s">
         <v>2053</v>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="E168" t="s">
         <v>2052</v>
@@ -9939,7 +9939,7 @@
         <v>7</v>
       </c>
       <c r="D200">
-        <v>131.5</v>
+        <v>131.25</v>
       </c>
       <c r="E200" t="s">
         <v>2053</v>
@@ -9956,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E201" t="s">
         <v>2052</v>
@@ -10058,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>95.75</v>
+        <v>94.5</v>
       </c>
       <c r="E207" t="s">
         <v>2052</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>95.75</v>
+        <v>94.5</v>
       </c>
       <c r="E208" t="s">
         <v>2052</v>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>95.75</v>
+        <v>94.5</v>
       </c>
       <c r="E209" t="s">
         <v>2052</v>
@@ -10109,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>64</v>
+        <v>63.5</v>
       </c>
       <c r="E210" t="s">
         <v>2052</v>
@@ -10126,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>97.75</v>
+        <v>96.5</v>
       </c>
       <c r="E211" t="s">
         <v>2052</v>
@@ -10143,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>97.75</v>
+        <v>96.5</v>
       </c>
       <c r="E212" t="s">
         <v>2052</v>
@@ -10330,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="D223">
-        <v>708.5</v>
+        <v>709</v>
       </c>
       <c r="E223" t="s">
         <v>2052</v>
@@ -10432,7 +10432,7 @@
         <v>3</v>
       </c>
       <c r="D229">
-        <v>54.75</v>
+        <v>53.75</v>
       </c>
       <c r="E229" t="s">
         <v>2053</v>
@@ -10449,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="E230" t="s">
         <v>2052</v>
@@ -10466,7 +10466,7 @@
         <v>3</v>
       </c>
       <c r="D231">
-        <v>54.88180007705674</v>
+        <v>54.05570699702952</v>
       </c>
       <c r="E231" t="s">
         <v>2053</v>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>658.5816009246809</v>
+        <v>648.6684839643543</v>
       </c>
       <c r="E232" t="s">
         <v>2052</v>
@@ -10500,7 +10500,7 @@
         <v>3</v>
       </c>
       <c r="D233">
-        <v>54</v>
+        <v>53.75</v>
       </c>
       <c r="E233" t="s">
         <v>2053</v>
@@ -10517,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>324</v>
+        <v>322.5</v>
       </c>
       <c r="E234" t="s">
         <v>2052</v>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="D235">
-        <v>53</v>
+        <v>52.75</v>
       </c>
       <c r="E235" t="s">
         <v>2053</v>
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E236" t="s">
         <v>2052</v>
@@ -10568,7 +10568,7 @@
         <v>3</v>
       </c>
       <c r="D237">
-        <v>54.61478525608751</v>
+        <v>53.79271134262476</v>
       </c>
       <c r="E237" t="s">
         <v>2053</v>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>655.3774230730501</v>
+        <v>645.5125361114972</v>
       </c>
       <c r="E238" t="s">
         <v>2052</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="D239">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E239" t="s">
         <v>2053</v>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E240" t="s">
         <v>2052</v>
@@ -10636,7 +10636,7 @@
         <v>3</v>
       </c>
       <c r="D241">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="E241" t="s">
         <v>2053</v>
@@ -10653,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="E242" t="s">
         <v>2052</v>
@@ -10670,7 +10670,7 @@
         <v>3</v>
       </c>
       <c r="D243">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="E243" t="s">
         <v>2053</v>
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E244" t="s">
         <v>2052</v>
@@ -10704,7 +10704,7 @@
         <v>7</v>
       </c>
       <c r="D245">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E245" t="s">
         <v>2053</v>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E246" t="s">
         <v>2052</v>
@@ -10772,7 +10772,7 @@
         <v>7</v>
       </c>
       <c r="D249">
-        <v>87.5</v>
+        <v>86.25</v>
       </c>
       <c r="E249" t="s">
         <v>2053</v>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>875</v>
+        <v>862.5</v>
       </c>
       <c r="E250" t="s">
         <v>2052</v>
@@ -10806,7 +10806,7 @@
         <v>7</v>
       </c>
       <c r="D251">
-        <v>91</v>
+        <v>88.5</v>
       </c>
       <c r="E251" t="s">
         <v>2053</v>
@@ -10823,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>910</v>
+        <v>885</v>
       </c>
       <c r="E252" t="s">
         <v>2052</v>
@@ -10840,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="D253">
-        <v>100.0626636760514</v>
+        <v>98.79940528240624</v>
       </c>
       <c r="E253" t="s">
         <v>2053</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>1601.002618816822</v>
+        <v>1580.7904845185</v>
       </c>
       <c r="E254" t="s">
         <v>2052</v>
@@ -10874,7 +10874,7 @@
         <v>3</v>
       </c>
       <c r="D255">
-        <v>128.4237913164091</v>
+        <v>128.0970132214564</v>
       </c>
       <c r="E255" t="s">
         <v>2052</v>
@@ -10891,7 +10891,7 @@
         <v>3</v>
       </c>
       <c r="D256">
-        <v>128.4246584219693</v>
+        <v>128.0978975007991</v>
       </c>
       <c r="E256" t="s">
         <v>2052</v>
@@ -10908,7 +10908,7 @@
         <v>3</v>
       </c>
       <c r="D257">
-        <v>132.25</v>
+        <v>132</v>
       </c>
       <c r="E257" t="s">
         <v>2052</v>
@@ -10925,7 +10925,7 @@
         <v>3</v>
       </c>
       <c r="D258">
-        <v>133.5</v>
+        <v>133.25</v>
       </c>
       <c r="E258" t="s">
         <v>2052</v>
@@ -10942,7 +10942,7 @@
         <v>3</v>
       </c>
       <c r="D259">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="E259" t="s">
         <v>2052</v>
@@ -10959,7 +10959,7 @@
         <v>3</v>
       </c>
       <c r="D260">
-        <v>133.75</v>
+        <v>133.25</v>
       </c>
       <c r="E260" t="s">
         <v>2052</v>
@@ -11010,7 +11010,7 @@
         <v>7</v>
       </c>
       <c r="D263">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
       <c r="E263" t="s">
         <v>2053</v>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>215</v>
+        <v>212.5</v>
       </c>
       <c r="E264" t="s">
         <v>2052</v>
@@ -11044,7 +11044,7 @@
         <v>7</v>
       </c>
       <c r="D265">
-        <v>38.75</v>
+        <v>38.5</v>
       </c>
       <c r="E265" t="s">
         <v>2053</v>
@@ -11061,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>387.5</v>
+        <v>385</v>
       </c>
       <c r="E266" t="s">
         <v>2052</v>
@@ -11146,7 +11146,7 @@
         <v>3</v>
       </c>
       <c r="D271">
-        <v>325.6537963988392</v>
+        <v>321.2182889341831</v>
       </c>
       <c r="E271" t="s">
         <v>2052</v>
@@ -11163,7 +11163,7 @@
         <v>3</v>
       </c>
       <c r="D272">
-        <v>325.6348455669704</v>
+        <v>321.099053319611</v>
       </c>
       <c r="E272" t="s">
         <v>2052</v>
@@ -11180,7 +11180,7 @@
         <v>2</v>
       </c>
       <c r="D273">
-        <v>208.25</v>
+        <v>206.25</v>
       </c>
       <c r="E273" t="s">
         <v>2052</v>
@@ -11197,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="D274">
-        <v>225.5</v>
+        <v>223.25</v>
       </c>
       <c r="E274" t="s">
         <v>2052</v>
@@ -11214,7 +11214,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>148.75</v>
+        <v>147.25</v>
       </c>
       <c r="E275" t="s">
         <v>2052</v>
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="D276">
-        <v>83.5</v>
+        <v>82.75</v>
       </c>
       <c r="E276" t="s">
         <v>2052</v>
@@ -11520,7 +11520,7 @@
         <v>2</v>
       </c>
       <c r="D293">
-        <v>313.75</v>
+        <v>317</v>
       </c>
       <c r="E293" t="s">
         <v>2052</v>
@@ -11537,7 +11537,7 @@
         <v>7</v>
       </c>
       <c r="D294">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E294" t="s">
         <v>2053</v>
@@ -11554,7 +11554,7 @@
         <v>2</v>
       </c>
       <c r="D295">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E295" t="s">
         <v>2052</v>
@@ -11571,7 +11571,7 @@
         <v>7</v>
       </c>
       <c r="D296">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="E296" t="s">
         <v>2053</v>
@@ -11588,7 +11588,7 @@
         <v>2</v>
       </c>
       <c r="D297">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E297" t="s">
         <v>2052</v>
@@ -11673,7 +11673,7 @@
         <v>431</v>
       </c>
       <c r="D302">
-        <v>87</v>
+        <v>86.5</v>
       </c>
       <c r="E302" t="s">
         <v>2053</v>
@@ -11690,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="D303">
-        <v>435</v>
+        <v>432.5</v>
       </c>
       <c r="E303" t="s">
         <v>2052</v>
@@ -11724,7 +11724,7 @@
         <v>3</v>
       </c>
       <c r="D305">
-        <v>113.6086489689654</v>
+        <v>112.496096855195</v>
       </c>
       <c r="E305" t="s">
         <v>2053</v>
@@ -11741,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>681.6518938137924</v>
+        <v>674.9765811311698</v>
       </c>
       <c r="E306" t="s">
         <v>2052</v>
@@ -11758,7 +11758,7 @@
         <v>3</v>
       </c>
       <c r="D307">
-        <v>190</v>
+        <v>188.25</v>
       </c>
       <c r="E307" t="s">
         <v>2053</v>
@@ -11775,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>1140</v>
+        <v>1129.5</v>
       </c>
       <c r="E308" t="s">
         <v>2052</v>
@@ -11792,7 +11792,7 @@
         <v>3</v>
       </c>
       <c r="D309">
-        <v>157.25</v>
+        <v>155.5</v>
       </c>
       <c r="E309" t="s">
         <v>2053</v>
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>943.5</v>
+        <v>933</v>
       </c>
       <c r="E310" t="s">
         <v>2052</v>
@@ -12098,7 +12098,7 @@
         <v>3</v>
       </c>
       <c r="D327">
-        <v>45.75</v>
+        <v>45</v>
       </c>
       <c r="E327" t="s">
         <v>2053</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="D328">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E328" t="s">
         <v>2052</v>
@@ -12132,7 +12132,7 @@
         <v>3</v>
       </c>
       <c r="D329">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="E329" t="s">
         <v>2053</v>
@@ -12149,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E330" t="s">
         <v>2052</v>
@@ -12166,7 +12166,7 @@
         <v>3</v>
       </c>
       <c r="D331">
-        <v>45.38689380957639</v>
+        <v>44.74101819295382</v>
       </c>
       <c r="E331" t="s">
         <v>2053</v>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>544.6427257149167</v>
+        <v>536.8922183154459</v>
       </c>
       <c r="E332" t="s">
         <v>2052</v>
@@ -12200,7 +12200,7 @@
         <v>3</v>
       </c>
       <c r="D333">
-        <v>88</v>
+        <v>86.75</v>
       </c>
       <c r="E333" t="s">
         <v>2053</v>
@@ -12217,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>528</v>
+        <v>520.5</v>
       </c>
       <c r="E334" t="s">
         <v>2052</v>
@@ -12421,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>195.25</v>
+        <v>193.5</v>
       </c>
       <c r="E346" t="s">
         <v>2052</v>
@@ -12523,7 +12523,7 @@
         <v>7</v>
       </c>
       <c r="D352">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="E352" t="s">
         <v>2053</v>
@@ -12540,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E353" t="s">
         <v>2052</v>
@@ -12795,7 +12795,7 @@
         <v>2</v>
       </c>
       <c r="D368">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E368" t="s">
         <v>2052</v>
@@ -12812,7 +12812,7 @@
         <v>2</v>
       </c>
       <c r="D369">
-        <v>225.25</v>
+        <v>223</v>
       </c>
       <c r="E369" t="s">
         <v>2052</v>
@@ -12829,7 +12829,7 @@
         <v>2</v>
       </c>
       <c r="D370">
-        <v>219.25</v>
+        <v>217.25</v>
       </c>
       <c r="E370" t="s">
         <v>2052</v>
@@ -13458,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="D407">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="E407" t="s">
         <v>2052</v>
@@ -13475,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="D408">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="E408" t="s">
         <v>2052</v>
@@ -13492,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>63.25</v>
+        <v>62.5</v>
       </c>
       <c r="E409" t="s">
         <v>2052</v>
@@ -13509,7 +13509,7 @@
         <v>1</v>
       </c>
       <c r="D410">
-        <v>92</v>
+        <v>90.75</v>
       </c>
       <c r="E410" t="s">
         <v>2052</v>
@@ -13526,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="D411">
-        <v>104.25</v>
+        <v>103.5</v>
       </c>
       <c r="E411" t="s">
         <v>2052</v>
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="D412">
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
       <c r="E412" t="s">
         <v>2052</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E413" t="s">
         <v>2052</v>
@@ -13577,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="D414">
-        <v>219.75</v>
+        <v>217.25</v>
       </c>
       <c r="E414" t="s">
         <v>2052</v>
@@ -13594,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="D415">
-        <v>219.5</v>
+        <v>217</v>
       </c>
       <c r="E415" t="s">
         <v>2052</v>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="D416">
-        <v>1012.5</v>
+        <v>1000.5</v>
       </c>
       <c r="E416" t="s">
         <v>2052</v>
@@ -13628,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="D417">
-        <v>993.75</v>
+        <v>982</v>
       </c>
       <c r="E417" t="s">
         <v>2052</v>
@@ -13645,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="D418">
-        <v>899.25</v>
+        <v>887.5</v>
       </c>
       <c r="E418" t="s">
         <v>2052</v>
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="D419">
-        <v>898</v>
+        <v>886.25</v>
       </c>
       <c r="E419" t="s">
         <v>2052</v>
@@ -13832,7 +13832,7 @@
         <v>2</v>
       </c>
       <c r="D429">
-        <v>201.75</v>
+        <v>199.75</v>
       </c>
       <c r="E429" t="s">
         <v>2052</v>
@@ -14036,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="D441">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E441" t="s">
         <v>2052</v>
@@ -14053,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E442" t="s">
         <v>2052</v>
@@ -14070,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="D443">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E443" t="s">
         <v>2052</v>
@@ -14121,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="D446">
-        <v>1363.5</v>
+        <v>1348.25</v>
       </c>
       <c r="E446" t="s">
         <v>2052</v>
@@ -14155,7 +14155,7 @@
         <v>1</v>
       </c>
       <c r="D448">
-        <v>805.25</v>
+        <v>799.75</v>
       </c>
       <c r="E448" t="s">
         <v>2052</v>
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="D449">
-        <v>546</v>
+        <v>542.5</v>
       </c>
       <c r="E449" t="s">
         <v>2052</v>
@@ -14206,7 +14206,7 @@
         <v>3</v>
       </c>
       <c r="D451">
-        <v>100.0629524877666</v>
+        <v>98.79969044796806</v>
       </c>
       <c r="E451" t="s">
         <v>2053</v>
@@ -14223,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>2401.510859706399</v>
+        <v>2371.192570751234</v>
       </c>
       <c r="E452" t="s">
         <v>2052</v>
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="D459">
-        <v>89.25</v>
+        <v>88.25</v>
       </c>
       <c r="E459" t="s">
         <v>2052</v>
@@ -14359,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="D460">
-        <v>90.25</v>
+        <v>89</v>
       </c>
       <c r="E460" t="s">
         <v>2052</v>
@@ -14376,7 +14376,7 @@
         <v>1</v>
       </c>
       <c r="D461">
-        <v>141.75</v>
+        <v>140</v>
       </c>
       <c r="E461" t="s">
         <v>2052</v>
@@ -14393,7 +14393,7 @@
         <v>1</v>
       </c>
       <c r="D462">
-        <v>140.1979021972961</v>
+        <v>138.4757711454149</v>
       </c>
       <c r="E462" t="s">
         <v>2052</v>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
       <c r="D463">
-        <v>140.7258394764018</v>
+        <v>138.9972234688433</v>
       </c>
       <c r="E463" t="s">
         <v>2052</v>
@@ -14427,7 +14427,7 @@
         <v>2</v>
       </c>
       <c r="D464">
-        <v>513.75</v>
+        <v>508.75</v>
       </c>
       <c r="E464" t="s">
         <v>2052</v>
@@ -14444,7 +14444,7 @@
         <v>2</v>
       </c>
       <c r="D465">
-        <v>101</v>
+        <v>102.25</v>
       </c>
       <c r="E465" t="s">
         <v>2052</v>
@@ -14461,7 +14461,7 @@
         <v>2</v>
       </c>
       <c r="D466">
-        <v>97.25</v>
+        <v>99.25</v>
       </c>
       <c r="E466" t="s">
         <v>2052</v>
@@ -14495,7 +14495,7 @@
         <v>2</v>
       </c>
       <c r="D468">
-        <v>96.25</v>
+        <v>95.75</v>
       </c>
       <c r="E468" t="s">
         <v>2053</v>
@@ -14512,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="D469">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E469" t="s">
         <v>2052</v>
@@ -14529,7 +14529,7 @@
         <v>2</v>
       </c>
       <c r="D470">
-        <v>86.25</v>
+        <v>85.75</v>
       </c>
       <c r="E470" t="s">
         <v>2053</v>
@@ -14546,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="D471">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E471" t="s">
         <v>2052</v>
@@ -14597,7 +14597,7 @@
         <v>23</v>
       </c>
       <c r="D474">
-        <v>106.25</v>
+        <v>105</v>
       </c>
       <c r="E474" t="s">
         <v>2053</v>
@@ -14614,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>2550</v>
+        <v>2520</v>
       </c>
       <c r="E475" t="s">
         <v>2052</v>
@@ -14631,7 +14631,7 @@
         <v>23</v>
       </c>
       <c r="D476">
-        <v>107.25</v>
+        <v>105</v>
       </c>
       <c r="E476" t="s">
         <v>2053</v>
@@ -14648,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>2574</v>
+        <v>2520</v>
       </c>
       <c r="E477" t="s">
         <v>2052</v>
@@ -14767,7 +14767,7 @@
         <v>3</v>
       </c>
       <c r="D484">
-        <v>48.25</v>
+        <v>47.5</v>
       </c>
       <c r="E484" t="s">
         <v>2053</v>
@@ -14784,7 +14784,7 @@
         <v>1</v>
       </c>
       <c r="D485">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E485" t="s">
         <v>2052</v>
@@ -14801,7 +14801,7 @@
         <v>3</v>
       </c>
       <c r="D486">
-        <v>47.5</v>
+        <v>46.75</v>
       </c>
       <c r="E486" t="s">
         <v>2053</v>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="D487">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E487" t="s">
         <v>2052</v>
@@ -14835,7 +14835,7 @@
         <v>3</v>
       </c>
       <c r="D488">
-        <v>30.75</v>
+        <v>30.5</v>
       </c>
       <c r="E488" t="s">
         <v>2053</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="D489">
-        <v>215.25</v>
+        <v>213.5</v>
       </c>
       <c r="E489" t="s">
         <v>2052</v>
@@ -14903,7 +14903,7 @@
         <v>3</v>
       </c>
       <c r="D492">
-        <v>173.25</v>
+        <v>171.5</v>
       </c>
       <c r="E492" t="s">
         <v>2053</v>
@@ -14920,7 +14920,7 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>2079</v>
+        <v>2058</v>
       </c>
       <c r="E493" t="s">
         <v>2052</v>
@@ -15158,7 +15158,7 @@
         <v>3</v>
       </c>
       <c r="D507">
-        <v>23.48379665240166</v>
+        <v>23.06490160341636</v>
       </c>
       <c r="E507" t="s">
         <v>2053</v>
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="D508">
-        <v>281.8055598288199</v>
+        <v>276.7788192409963</v>
       </c>
       <c r="E508" t="s">
         <v>2052</v>
@@ -15294,7 +15294,7 @@
         <v>3</v>
       </c>
       <c r="D515">
-        <v>118</v>
+        <v>116.25</v>
       </c>
       <c r="E515" t="s">
         <v>2053</v>
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="D516">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="E516" t="s">
         <v>2052</v>
@@ -15328,7 +15328,7 @@
         <v>3</v>
       </c>
       <c r="D517">
-        <v>117</v>
+        <v>115.5</v>
       </c>
       <c r="E517" t="s">
         <v>2053</v>
@@ -15345,7 +15345,7 @@
         <v>1</v>
       </c>
       <c r="D518">
-        <v>1404</v>
+        <v>1386</v>
       </c>
       <c r="E518" t="s">
         <v>2052</v>
@@ -15362,7 +15362,7 @@
         <v>3</v>
       </c>
       <c r="D519">
-        <v>117.75</v>
+        <v>116</v>
       </c>
       <c r="E519" t="s">
         <v>2053</v>
@@ -15379,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="D520">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="E520" t="s">
         <v>2052</v>
@@ -15396,7 +15396,7 @@
         <v>3</v>
       </c>
       <c r="D521">
-        <v>78.75</v>
+        <v>77.5</v>
       </c>
       <c r="E521" t="s">
         <v>2053</v>
@@ -15413,7 +15413,7 @@
         <v>1</v>
       </c>
       <c r="D522">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E522" t="s">
         <v>2052</v>
@@ -15430,7 +15430,7 @@
         <v>3</v>
       </c>
       <c r="D523">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E523" t="s">
         <v>2053</v>
@@ -15447,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="D524">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E524" t="s">
         <v>2052</v>
@@ -15498,7 +15498,7 @@
         <v>3</v>
       </c>
       <c r="D527">
-        <v>74</v>
+        <v>72.75</v>
       </c>
       <c r="E527" t="s">
         <v>2053</v>
@@ -15515,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="D528">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="E528" t="s">
         <v>2052</v>
@@ -15668,7 +15668,7 @@
         <v>2</v>
       </c>
       <c r="D537">
-        <v>86</v>
+        <v>85.5</v>
       </c>
       <c r="E537" t="s">
         <v>2053</v>
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
       <c r="D538">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E538" t="s">
         <v>2052</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="D543">
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="E543" t="s">
         <v>2052</v>
@@ -15787,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="D544">
-        <v>86.5</v>
+        <v>85.25</v>
       </c>
       <c r="E544" t="s">
         <v>2052</v>
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="D545">
-        <v>178.75</v>
+        <v>176.75</v>
       </c>
       <c r="E545" t="s">
         <v>2052</v>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="D546">
-        <v>239.75</v>
+        <v>236.75</v>
       </c>
       <c r="E546" t="s">
         <v>2052</v>
@@ -15838,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="D547">
-        <v>93.5</v>
+        <v>92</v>
       </c>
       <c r="E547" t="s">
         <v>2052</v>
@@ -15957,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="D554">
-        <v>436.5</v>
+        <v>434.5</v>
       </c>
       <c r="E554" t="s">
         <v>2052</v>
@@ -15974,7 +15974,7 @@
         <v>1</v>
       </c>
       <c r="D555">
-        <v>528.5</v>
+        <v>526</v>
       </c>
       <c r="E555" t="s">
         <v>2052</v>
@@ -16195,7 +16195,7 @@
         <v>1</v>
       </c>
       <c r="D568">
-        <v>63.5</v>
+        <v>62.75</v>
       </c>
       <c r="E568" t="s">
         <v>2052</v>
@@ -16212,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="D569">
-        <v>122.25</v>
+        <v>120.75</v>
       </c>
       <c r="E569" t="s">
         <v>2052</v>
@@ -16229,7 +16229,7 @@
         <v>1</v>
       </c>
       <c r="D570">
-        <v>130</v>
+        <v>128.5</v>
       </c>
       <c r="E570" t="s">
         <v>2052</v>
@@ -17300,7 +17300,7 @@
         <v>2</v>
       </c>
       <c r="D633">
-        <v>62.75</v>
+        <v>62.25</v>
       </c>
       <c r="E633" t="s">
         <v>2053</v>
@@ -17317,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="D634">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E634" t="s">
         <v>2052</v>
@@ -17334,7 +17334,7 @@
         <v>2</v>
       </c>
       <c r="D635">
-        <v>62.75</v>
+        <v>62.25</v>
       </c>
       <c r="E635" t="s">
         <v>2053</v>
@@ -17351,7 +17351,7 @@
         <v>1</v>
       </c>
       <c r="D636">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E636" t="s">
         <v>2052</v>
@@ -17368,7 +17368,7 @@
         <v>2</v>
       </c>
       <c r="D637">
-        <v>62.75</v>
+        <v>62.25</v>
       </c>
       <c r="E637" t="s">
         <v>2053</v>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="D638">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E638" t="s">
         <v>2052</v>
@@ -17436,7 +17436,7 @@
         <v>2</v>
       </c>
       <c r="D641">
-        <v>236.5</v>
+        <v>236.75</v>
       </c>
       <c r="E641" t="s">
         <v>2052</v>
@@ -17453,7 +17453,7 @@
         <v>2</v>
       </c>
       <c r="D642">
-        <v>273.75</v>
+        <v>272.5</v>
       </c>
       <c r="E642" t="s">
         <v>2052</v>
@@ -17470,7 +17470,7 @@
         <v>2</v>
       </c>
       <c r="D643">
-        <v>312</v>
+        <v>310.5</v>
       </c>
       <c r="E643" t="s">
         <v>2052</v>
@@ -17487,7 +17487,7 @@
         <v>2</v>
       </c>
       <c r="D644">
-        <v>324</v>
+        <v>322.5</v>
       </c>
       <c r="E644" t="s">
         <v>2052</v>
@@ -17504,7 +17504,7 @@
         <v>2</v>
       </c>
       <c r="D645">
-        <v>309.8432338830805</v>
+        <v>306.9453020960921</v>
       </c>
       <c r="E645" t="s">
         <v>2052</v>
@@ -17521,7 +17521,7 @@
         <v>2</v>
       </c>
       <c r="D646">
-        <v>309.131273372079</v>
+        <v>306.3464341758022</v>
       </c>
       <c r="E646" t="s">
         <v>2052</v>
@@ -17538,7 +17538,7 @@
         <v>2</v>
       </c>
       <c r="D647">
-        <v>309.84188988782</v>
+        <v>306.9199844393999</v>
       </c>
       <c r="E647" t="s">
         <v>2052</v>
@@ -17555,7 +17555,7 @@
         <v>2</v>
       </c>
       <c r="D648">
-        <v>312.25</v>
+        <v>309.25</v>
       </c>
       <c r="E648" t="s">
         <v>2052</v>
@@ -17572,7 +17572,7 @@
         <v>332</v>
       </c>
       <c r="D649">
-        <v>70.5</v>
+        <v>69.75</v>
       </c>
       <c r="E649" t="s">
         <v>2053</v>
@@ -17589,7 +17589,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="E650" t="s">
         <v>2052</v>
@@ -17606,7 +17606,7 @@
         <v>332</v>
       </c>
       <c r="D651">
-        <v>52.75</v>
+        <v>52</v>
       </c>
       <c r="E651" t="s">
         <v>2053</v>
@@ -17623,7 +17623,7 @@
         <v>1</v>
       </c>
       <c r="D652">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="E652" t="s">
         <v>2052</v>
@@ -18184,7 +18184,7 @@
         <v>2</v>
       </c>
       <c r="D685">
-        <v>208.1521758848884</v>
+        <v>208.1507709379801</v>
       </c>
       <c r="E685" t="s">
         <v>2052</v>
@@ -18405,7 +18405,7 @@
         <v>431</v>
       </c>
       <c r="D698">
-        <v>69.5</v>
+        <v>69.25</v>
       </c>
       <c r="E698" t="s">
         <v>2053</v>
@@ -18422,7 +18422,7 @@
         <v>2</v>
       </c>
       <c r="D699">
-        <v>347.5</v>
+        <v>346.25</v>
       </c>
       <c r="E699" t="s">
         <v>2052</v>
@@ -18439,7 +18439,7 @@
         <v>431</v>
       </c>
       <c r="D700">
-        <v>70.25</v>
+        <v>69.5</v>
       </c>
       <c r="E700" t="s">
         <v>2053</v>
@@ -18456,7 +18456,7 @@
         <v>2</v>
       </c>
       <c r="D701">
-        <v>351.25</v>
+        <v>347.5</v>
       </c>
       <c r="E701" t="s">
         <v>2052</v>
@@ -18507,7 +18507,7 @@
         <v>1</v>
       </c>
       <c r="D704">
-        <v>677.75</v>
+        <v>671.25</v>
       </c>
       <c r="E704" t="s">
         <v>2052</v>
@@ -18524,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="D705">
-        <v>224.5</v>
+        <v>224</v>
       </c>
       <c r="E705" t="s">
         <v>2052</v>
@@ -18541,7 +18541,7 @@
         <v>1</v>
       </c>
       <c r="D706">
-        <v>412.25</v>
+        <v>409.75</v>
       </c>
       <c r="E706" t="s">
         <v>2052</v>
@@ -18558,7 +18558,7 @@
         <v>1</v>
       </c>
       <c r="D707">
-        <v>411.75</v>
+        <v>409.5</v>
       </c>
       <c r="E707" t="s">
         <v>2052</v>
@@ -18575,7 +18575,7 @@
         <v>1</v>
       </c>
       <c r="D708">
-        <v>774</v>
+        <v>769.5</v>
       </c>
       <c r="E708" t="s">
         <v>2052</v>
@@ -18592,7 +18592,7 @@
         <v>1</v>
       </c>
       <c r="D709">
-        <v>776.25</v>
+        <v>771.75</v>
       </c>
       <c r="E709" t="s">
         <v>2052</v>
@@ -18983,7 +18983,7 @@
         <v>3</v>
       </c>
       <c r="D732">
-        <v>187.5</v>
+        <v>187</v>
       </c>
       <c r="E732" t="s">
         <v>2053</v>
@@ -19000,7 +19000,7 @@
         <v>1</v>
       </c>
       <c r="D733">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E733" t="s">
         <v>2052</v>
@@ -19425,7 +19425,7 @@
         <v>68</v>
       </c>
       <c r="D758">
-        <v>256.25</v>
+        <v>253</v>
       </c>
       <c r="E758" t="s">
         <v>2053</v>
@@ -19442,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="D759">
-        <v>3075</v>
+        <v>3036</v>
       </c>
       <c r="E759" t="s">
         <v>2052</v>
@@ -19459,7 +19459,7 @@
         <v>68</v>
       </c>
       <c r="D760">
-        <v>423.5</v>
+        <v>418</v>
       </c>
       <c r="E760" t="s">
         <v>2053</v>
@@ -19476,7 +19476,7 @@
         <v>1</v>
       </c>
       <c r="D761">
-        <v>5082</v>
+        <v>5016</v>
       </c>
       <c r="E761" t="s">
         <v>2052</v>
@@ -19493,7 +19493,7 @@
         <v>1</v>
       </c>
       <c r="D762">
-        <v>590.5</v>
+        <v>583.25</v>
       </c>
       <c r="E762" t="s">
         <v>2052</v>
@@ -19510,7 +19510,7 @@
         <v>1</v>
       </c>
       <c r="D763">
-        <v>559.25</v>
+        <v>552</v>
       </c>
       <c r="E763" t="s">
         <v>2052</v>
@@ -19527,7 +19527,7 @@
         <v>1</v>
       </c>
       <c r="D764">
-        <v>697.5</v>
+        <v>687</v>
       </c>
       <c r="E764" t="s">
         <v>2052</v>
@@ -19544,7 +19544,7 @@
         <v>1</v>
       </c>
       <c r="D765">
-        <v>778</v>
+        <v>766.5</v>
       </c>
       <c r="E765" t="s">
         <v>2052</v>
@@ -19561,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="D766">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="E766" t="s">
         <v>2052</v>
@@ -19680,7 +19680,7 @@
         <v>68</v>
       </c>
       <c r="D773">
-        <v>419</v>
+        <v>414.25</v>
       </c>
       <c r="E773" t="s">
         <v>2053</v>
@@ -19697,7 +19697,7 @@
         <v>3</v>
       </c>
       <c r="D774">
-        <v>1676</v>
+        <v>1657</v>
       </c>
       <c r="E774" t="s">
         <v>2052</v>
@@ -19714,7 +19714,7 @@
         <v>1</v>
       </c>
       <c r="D775">
-        <v>10056</v>
+        <v>9942</v>
       </c>
       <c r="E775" t="s">
         <v>2052</v>
@@ -20802,7 +20802,7 @@
         <v>3</v>
       </c>
       <c r="D839">
-        <v>45.75</v>
+        <v>47.5</v>
       </c>
       <c r="E839" t="s">
         <v>2053</v>
@@ -20819,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="D840">
-        <v>1098</v>
+        <v>1140</v>
       </c>
       <c r="E840" t="s">
         <v>2052</v>
@@ -20836,7 +20836,7 @@
         <v>3</v>
       </c>
       <c r="D841">
-        <v>27.36992876468868</v>
+        <v>27.63965195858772</v>
       </c>
       <c r="E841" t="s">
         <v>2053</v>
@@ -20853,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="D842">
-        <v>656.8782903525282</v>
+        <v>663.3516470061054</v>
       </c>
       <c r="E842" t="s">
         <v>2052</v>
@@ -20870,7 +20870,7 @@
         <v>3</v>
       </c>
       <c r="D843">
-        <v>27.38781361466582</v>
+        <v>27.66140118566845</v>
       </c>
       <c r="E843" t="s">
         <v>2053</v>
@@ -20887,7 +20887,7 @@
         <v>1</v>
       </c>
       <c r="D844">
-        <v>657.3075267519796</v>
+        <v>663.8736284560428</v>
       </c>
       <c r="E844" t="s">
         <v>2052</v>
@@ -20904,7 +20904,7 @@
         <v>2</v>
       </c>
       <c r="D845">
-        <v>269.25</v>
+        <v>267.75</v>
       </c>
       <c r="E845" t="s">
         <v>2053</v>
@@ -20921,7 +20921,7 @@
         <v>1</v>
       </c>
       <c r="D846">
-        <v>1615.5</v>
+        <v>1606.5</v>
       </c>
       <c r="E846" t="s">
         <v>2052</v>
@@ -20989,7 +20989,7 @@
         <v>2</v>
       </c>
       <c r="D850">
-        <v>262.5</v>
+        <v>259.75</v>
       </c>
       <c r="E850" t="s">
         <v>2052</v>
@@ -21006,7 +21006,7 @@
         <v>2</v>
       </c>
       <c r="D851">
-        <v>225.25</v>
+        <v>222.75</v>
       </c>
       <c r="E851" t="s">
         <v>2052</v>
@@ -21108,7 +21108,7 @@
         <v>3</v>
       </c>
       <c r="D857">
-        <v>177.3653672560392</v>
+        <v>177.365367286921</v>
       </c>
       <c r="E857" t="s">
         <v>2053</v>
@@ -21125,7 +21125,7 @@
         <v>1</v>
       </c>
       <c r="D858">
-        <v>709.4614690241568</v>
+        <v>709.4614691476841</v>
       </c>
       <c r="E858" t="s">
         <v>2052</v>
@@ -21142,7 +21142,7 @@
         <v>3</v>
       </c>
       <c r="D859">
-        <v>177.3653146670544</v>
+        <v>177.3653165782281</v>
       </c>
       <c r="E859" t="s">
         <v>2053</v>
@@ -21159,7 +21159,7 @@
         <v>1</v>
       </c>
       <c r="D860">
-        <v>709.4612586682176</v>
+        <v>709.4612663129126</v>
       </c>
       <c r="E860" t="s">
         <v>2052</v>
@@ -21771,7 +21771,7 @@
         <v>3</v>
       </c>
       <c r="D896">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="E896" t="s">
         <v>2053</v>
@@ -21788,7 +21788,7 @@
         <v>1</v>
       </c>
       <c r="D897">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E897" t="s">
         <v>2052</v>
@@ -21805,7 +21805,7 @@
         <v>3</v>
       </c>
       <c r="D898">
-        <v>103</v>
+        <v>101.75</v>
       </c>
       <c r="E898" t="s">
         <v>2053</v>
@@ -21822,7 +21822,7 @@
         <v>1</v>
       </c>
       <c r="D899">
-        <v>618</v>
+        <v>610.5</v>
       </c>
       <c r="E899" t="s">
         <v>2052</v>
@@ -21839,7 +21839,7 @@
         <v>3</v>
       </c>
       <c r="D900">
-        <v>51.75</v>
+        <v>51</v>
       </c>
       <c r="E900" t="s">
         <v>2053</v>
@@ -21856,7 +21856,7 @@
         <v>1</v>
       </c>
       <c r="D901">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E901" t="s">
         <v>2052</v>
@@ -21873,7 +21873,7 @@
         <v>3</v>
       </c>
       <c r="D902">
-        <v>100.75</v>
+        <v>99.25</v>
       </c>
       <c r="E902" t="s">
         <v>2053</v>
@@ -21890,7 +21890,7 @@
         <v>1</v>
       </c>
       <c r="D903">
-        <v>604.5</v>
+        <v>595.5</v>
       </c>
       <c r="E903" t="s">
         <v>2052</v>
@@ -21907,7 +21907,7 @@
         <v>3</v>
       </c>
       <c r="D904">
-        <v>50.75</v>
+        <v>50.5</v>
       </c>
       <c r="E904" t="s">
         <v>2053</v>
@@ -21924,7 +21924,7 @@
         <v>1</v>
       </c>
       <c r="D905">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E905" t="s">
         <v>2052</v>
@@ -21941,7 +21941,7 @@
         <v>3</v>
       </c>
       <c r="D906">
-        <v>55</v>
+        <v>54.25</v>
       </c>
       <c r="E906" t="s">
         <v>2053</v>
@@ -21958,7 +21958,7 @@
         <v>1</v>
       </c>
       <c r="D907">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="E907" t="s">
         <v>2052</v>
@@ -21975,7 +21975,7 @@
         <v>3</v>
       </c>
       <c r="D908">
-        <v>99.75</v>
+        <v>97.25</v>
       </c>
       <c r="E908" t="s">
         <v>2053</v>
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="D909">
-        <v>598.5</v>
+        <v>583.5</v>
       </c>
       <c r="E909" t="s">
         <v>2052</v>
@@ -22689,7 +22689,7 @@
         <v>1</v>
       </c>
       <c r="D950">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E950" t="s">
         <v>2052</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="D951">
-        <v>262.5</v>
+        <v>258.25</v>
       </c>
       <c r="E951" t="s">
         <v>2052</v>
@@ -22723,7 +22723,7 @@
         <v>1</v>
       </c>
       <c r="D952">
-        <v>247.5</v>
+        <v>243.5</v>
       </c>
       <c r="E952" t="s">
         <v>2052</v>
@@ -22842,7 +22842,7 @@
         <v>12</v>
       </c>
       <c r="D959">
-        <v>54.75</v>
+        <v>54.5</v>
       </c>
       <c r="E959" t="s">
         <v>2053</v>
@@ -22859,7 +22859,7 @@
         <v>2</v>
       </c>
       <c r="D960">
-        <v>328.5</v>
+        <v>327</v>
       </c>
       <c r="E960" t="s">
         <v>2052</v>
@@ -23114,7 +23114,7 @@
         <v>2</v>
       </c>
       <c r="D975">
-        <v>95.24407513037423</v>
+        <v>95.22622946398627</v>
       </c>
       <c r="E975" t="s">
         <v>2053</v>
@@ -23131,7 +23131,7 @@
         <v>1</v>
       </c>
       <c r="D976">
-        <v>761.9526010429938</v>
+        <v>761.8098357118902</v>
       </c>
       <c r="E976" t="s">
         <v>2052</v>
@@ -23947,7 +23947,7 @@
         <v>1</v>
       </c>
       <c r="D1024">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E1024" t="s">
         <v>2052</v>
@@ -24967,7 +24967,7 @@
         <v>1</v>
       </c>
       <c r="D1084">
-        <v>244.25</v>
+        <v>240.25</v>
       </c>
       <c r="E1084" t="s">
         <v>2052</v>
@@ -25001,7 +25001,7 @@
         <v>1</v>
       </c>
       <c r="D1086">
-        <v>683.75</v>
+        <v>677.25</v>
       </c>
       <c r="E1086" t="s">
         <v>2052</v>
@@ -25018,7 +25018,7 @@
         <v>25</v>
       </c>
       <c r="D1087">
-        <v>42.25</v>
+        <v>41.75</v>
       </c>
       <c r="E1087" t="s">
         <v>2053</v>
@@ -25035,7 +25035,7 @@
         <v>15</v>
       </c>
       <c r="D1088">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E1088" t="s">
         <v>2052</v>
@@ -25052,7 +25052,7 @@
         <v>1</v>
       </c>
       <c r="D1089">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E1089" t="s">
         <v>2052</v>
@@ -25069,7 +25069,7 @@
         <v>25</v>
       </c>
       <c r="D1090">
-        <v>45</v>
+        <v>44.75</v>
       </c>
       <c r="E1090" t="s">
         <v>2053</v>
@@ -25086,7 +25086,7 @@
         <v>15</v>
       </c>
       <c r="D1091">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1091" t="s">
         <v>2052</v>
@@ -25103,7 +25103,7 @@
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E1092" t="s">
         <v>2052</v>
@@ -25120,7 +25120,7 @@
         <v>25</v>
       </c>
       <c r="D1093">
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="E1093" t="s">
         <v>2053</v>
@@ -25137,7 +25137,7 @@
         <v>15</v>
       </c>
       <c r="D1094">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1094" t="s">
         <v>2052</v>
@@ -25154,7 +25154,7 @@
         <v>1</v>
       </c>
       <c r="D1095">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E1095" t="s">
         <v>2052</v>
@@ -25171,7 +25171,7 @@
         <v>25</v>
       </c>
       <c r="D1096">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1096" t="s">
         <v>2053</v>
@@ -25188,7 +25188,7 @@
         <v>16</v>
       </c>
       <c r="D1097">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E1097" t="s">
         <v>2052</v>
@@ -25205,7 +25205,7 @@
         <v>1</v>
       </c>
       <c r="D1098">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E1098" t="s">
         <v>2052</v>
@@ -25222,7 +25222,7 @@
         <v>25</v>
       </c>
       <c r="D1099">
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="E1099" t="s">
         <v>2053</v>
@@ -25239,7 +25239,7 @@
         <v>16</v>
       </c>
       <c r="D1100">
-        <v>310.5</v>
+        <v>307.5</v>
       </c>
       <c r="E1100" t="s">
         <v>2052</v>
@@ -25256,7 +25256,7 @@
         <v>1</v>
       </c>
       <c r="D1101">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E1101" t="s">
         <v>2052</v>
@@ -25273,7 +25273,7 @@
         <v>25</v>
       </c>
       <c r="D1102">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1102" t="s">
         <v>2053</v>
@@ -25290,7 +25290,7 @@
         <v>15</v>
       </c>
       <c r="D1103">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E1103" t="s">
         <v>2052</v>
@@ -25307,7 +25307,7 @@
         <v>1</v>
       </c>
       <c r="D1104">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E1104" t="s">
         <v>2052</v>
@@ -25324,7 +25324,7 @@
         <v>25</v>
       </c>
       <c r="D1105">
-        <v>104</v>
+        <v>102.75</v>
       </c>
       <c r="E1105" t="s">
         <v>2053</v>
@@ -25341,7 +25341,7 @@
         <v>15</v>
       </c>
       <c r="D1106">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E1106" t="s">
         <v>2052</v>
@@ -25358,7 +25358,7 @@
         <v>1</v>
       </c>
       <c r="D1107">
-        <v>624</v>
+        <v>616.5</v>
       </c>
       <c r="E1107" t="s">
         <v>2052</v>
@@ -25375,7 +25375,7 @@
         <v>3</v>
       </c>
       <c r="D1108">
-        <v>45.85199367244973</v>
+        <v>45.3796164107691</v>
       </c>
       <c r="E1108" t="s">
         <v>2053</v>
@@ -25392,7 +25392,7 @@
         <v>1</v>
       </c>
       <c r="D1109">
-        <v>275.1119620346984</v>
+        <v>272.2776984646146</v>
       </c>
       <c r="E1109" t="s">
         <v>2052</v>
@@ -25409,7 +25409,7 @@
         <v>3</v>
       </c>
       <c r="D1110">
-        <v>46.85471328279117</v>
+        <v>46.43213845941297</v>
       </c>
       <c r="E1110" t="s">
         <v>2053</v>
@@ -25426,7 +25426,7 @@
         <v>1</v>
       </c>
       <c r="D1111">
-        <v>281.128279696747</v>
+        <v>278.5928307564778</v>
       </c>
       <c r="E1111" t="s">
         <v>2052</v>
@@ -25443,7 +25443,7 @@
         <v>3</v>
       </c>
       <c r="D1112">
-        <v>46.84659487878722</v>
+        <v>46.43997747047221</v>
       </c>
       <c r="E1112" t="s">
         <v>2053</v>
@@ -25460,7 +25460,7 @@
         <v>1</v>
       </c>
       <c r="D1113">
-        <v>281.0795692727233</v>
+        <v>278.6398648228333</v>
       </c>
       <c r="E1113" t="s">
         <v>2052</v>
@@ -25477,7 +25477,7 @@
         <v>3</v>
       </c>
       <c r="D1114">
-        <v>44</v>
+        <v>44.25</v>
       </c>
       <c r="E1114" t="s">
         <v>2053</v>
@@ -25494,7 +25494,7 @@
         <v>1</v>
       </c>
       <c r="D1115">
-        <v>264</v>
+        <v>265.5</v>
       </c>
       <c r="E1115" t="s">
         <v>2052</v>
@@ -25511,7 +25511,7 @@
         <v>3</v>
       </c>
       <c r="D1116">
-        <v>43.5</v>
+        <v>43.75</v>
       </c>
       <c r="E1116" t="s">
         <v>2053</v>
@@ -25528,7 +25528,7 @@
         <v>1</v>
       </c>
       <c r="D1117">
-        <v>261</v>
+        <v>262.5</v>
       </c>
       <c r="E1117" t="s">
         <v>2052</v>
@@ -25545,7 +25545,7 @@
         <v>3</v>
       </c>
       <c r="D1118">
-        <v>37.25</v>
+        <v>37</v>
       </c>
       <c r="E1118" t="s">
         <v>2053</v>
@@ -25562,7 +25562,7 @@
         <v>1</v>
       </c>
       <c r="D1119">
-        <v>260.75</v>
+        <v>259</v>
       </c>
       <c r="E1119" t="s">
         <v>2052</v>
@@ -25579,7 +25579,7 @@
         <v>3</v>
       </c>
       <c r="D1120">
-        <v>28.5</v>
+        <v>28.25</v>
       </c>
       <c r="E1120" t="s">
         <v>2053</v>
@@ -25596,7 +25596,7 @@
         <v>1</v>
       </c>
       <c r="D1121">
-        <v>199.5</v>
+        <v>197.75</v>
       </c>
       <c r="E1121" t="s">
         <v>2052</v>
@@ -25681,7 +25681,7 @@
         <v>2</v>
       </c>
       <c r="D1126">
-        <v>873.5</v>
+        <v>877.25</v>
       </c>
       <c r="E1126" t="s">
         <v>2052</v>
@@ -25783,7 +25783,7 @@
         <v>2</v>
       </c>
       <c r="D1132">
-        <v>220.75</v>
+        <v>219.5</v>
       </c>
       <c r="E1132" t="s">
         <v>2052</v>
@@ -25936,7 +25936,7 @@
         <v>3</v>
       </c>
       <c r="D1141">
-        <v>48.15616801391639</v>
+        <v>48.14646716864922</v>
       </c>
       <c r="E1141" t="s">
         <v>2053</v>
@@ -25953,7 +25953,7 @@
         <v>1</v>
       </c>
       <c r="D1142">
-        <v>481.5616801391639</v>
+        <v>481.4646716864922</v>
       </c>
       <c r="E1142" t="s">
         <v>2052</v>
@@ -26089,7 +26089,7 @@
         <v>1</v>
       </c>
       <c r="D1150">
-        <v>74.75</v>
+        <v>74</v>
       </c>
       <c r="E1150" t="s">
         <v>2052</v>
@@ -26106,7 +26106,7 @@
         <v>1</v>
       </c>
       <c r="D1151">
-        <v>342</v>
+        <v>338.25</v>
       </c>
       <c r="E1151" t="s">
         <v>2052</v>
@@ -26123,7 +26123,7 @@
         <v>1</v>
       </c>
       <c r="D1152">
-        <v>704.5</v>
+        <v>702.75</v>
       </c>
       <c r="E1152" t="s">
         <v>2052</v>
@@ -26140,7 +26140,7 @@
         <v>1</v>
       </c>
       <c r="D1153">
-        <v>345</v>
+        <v>341.5</v>
       </c>
       <c r="E1153" t="s">
         <v>2052</v>
@@ -27398,7 +27398,7 @@
         <v>2</v>
       </c>
       <c r="D1227">
-        <v>442.25</v>
+        <v>441</v>
       </c>
       <c r="E1227" t="s">
         <v>2052</v>
@@ -27415,7 +27415,7 @@
         <v>2</v>
       </c>
       <c r="D1228">
-        <v>531.25</v>
+        <v>528.75</v>
       </c>
       <c r="E1228" t="s">
         <v>2052</v>
@@ -27432,7 +27432,7 @@
         <v>2</v>
       </c>
       <c r="D1229">
-        <v>524.5</v>
+        <v>522</v>
       </c>
       <c r="E1229" t="s">
         <v>2052</v>
@@ -27449,7 +27449,7 @@
         <v>2</v>
       </c>
       <c r="D1230">
-        <v>691.25</v>
+        <v>688</v>
       </c>
       <c r="E1230" t="s">
         <v>2052</v>
@@ -27466,7 +27466,7 @@
         <v>2</v>
       </c>
       <c r="D1231">
-        <v>589.75</v>
+        <v>587</v>
       </c>
       <c r="E1231" t="s">
         <v>2052</v>
@@ -27585,7 +27585,7 @@
         <v>1</v>
       </c>
       <c r="D1238">
-        <v>459.75</v>
+        <v>460</v>
       </c>
       <c r="E1238" t="s">
         <v>2052</v>
@@ -27653,7 +27653,7 @@
         <v>1</v>
       </c>
       <c r="D1242">
-        <v>238.25</v>
+        <v>232.75</v>
       </c>
       <c r="E1242" t="s">
         <v>2052</v>
@@ -27687,7 +27687,7 @@
         <v>10</v>
       </c>
       <c r="D1244">
-        <v>46.91959400594724</v>
+        <v>46.5556953122576</v>
       </c>
       <c r="E1244" t="s">
         <v>2053</v>
@@ -27704,7 +27704,7 @@
         <v>1</v>
       </c>
       <c r="D1245">
-        <v>1126.070256142734</v>
+        <v>1117.336687494183</v>
       </c>
       <c r="E1245" t="s">
         <v>2052</v>
@@ -27721,7 +27721,7 @@
         <v>10</v>
       </c>
       <c r="D1246">
-        <v>48</v>
+        <v>47.75</v>
       </c>
       <c r="E1246" t="s">
         <v>2053</v>
@@ -27738,7 +27738,7 @@
         <v>1</v>
       </c>
       <c r="D1247">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E1247" t="s">
         <v>2052</v>
@@ -27755,7 +27755,7 @@
         <v>10</v>
       </c>
       <c r="D1248">
-        <v>46.90233338511811</v>
+        <v>46.53856856124353</v>
       </c>
       <c r="E1248" t="s">
         <v>2053</v>
@@ -27772,7 +27772,7 @@
         <v>1</v>
       </c>
       <c r="D1249">
-        <v>1125.656001242834</v>
+        <v>1116.925645469845</v>
       </c>
       <c r="E1249" t="s">
         <v>2052</v>
@@ -27789,7 +27789,7 @@
         <v>2</v>
       </c>
       <c r="D1250">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1250" t="s">
         <v>2053</v>
@@ -27806,7 +27806,7 @@
         <v>1</v>
       </c>
       <c r="D1251">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="E1251" t="s">
         <v>2052</v>
@@ -27908,7 +27908,7 @@
         <v>1</v>
       </c>
       <c r="D1257">
-        <v>371.75</v>
+        <v>367.25</v>
       </c>
       <c r="E1257" t="s">
         <v>2052</v>
@@ -27925,7 +27925,7 @@
         <v>1</v>
       </c>
       <c r="D1258">
-        <v>364.9347877108302</v>
+        <v>360.4520849030229</v>
       </c>
       <c r="E1258" t="s">
         <v>2052</v>
@@ -27942,7 +27942,7 @@
         <v>1</v>
       </c>
       <c r="D1259">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E1259" t="s">
         <v>2052</v>
@@ -27959,7 +27959,7 @@
         <v>1</v>
       </c>
       <c r="D1260">
-        <v>365.5741935593952</v>
+        <v>361.0836365636912</v>
       </c>
       <c r="E1260" t="s">
         <v>2052</v>
@@ -27976,7 +27976,7 @@
         <v>1</v>
       </c>
       <c r="D1261">
-        <v>94.75</v>
+        <v>93.5</v>
       </c>
       <c r="E1261" t="s">
         <v>2052</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="D1262">
-        <v>91.75</v>
+        <v>90.75</v>
       </c>
       <c r="E1262" t="s">
         <v>2052</v>
@@ -28010,7 +28010,7 @@
         <v>1</v>
       </c>
       <c r="D1263">
-        <v>199.5</v>
+        <v>197</v>
       </c>
       <c r="E1263" t="s">
         <v>2052</v>
@@ -28027,7 +28027,7 @@
         <v>1</v>
       </c>
       <c r="D1264">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="E1264" t="s">
         <v>2052</v>
@@ -28044,7 +28044,7 @@
         <v>1</v>
       </c>
       <c r="D1265">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="E1265" t="s">
         <v>2052</v>
@@ -28061,7 +28061,7 @@
         <v>1</v>
       </c>
       <c r="D1266">
-        <v>132.75</v>
+        <v>131.25</v>
       </c>
       <c r="E1266" t="s">
         <v>2052</v>
@@ -28078,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="D1267">
-        <v>127.5</v>
+        <v>126.25</v>
       </c>
       <c r="E1267" t="s">
         <v>2052</v>
@@ -28095,7 +28095,7 @@
         <v>1</v>
       </c>
       <c r="D1268">
-        <v>129.25</v>
+        <v>127.5</v>
       </c>
       <c r="E1268" t="s">
         <v>2052</v>
@@ -28112,7 +28112,7 @@
         <v>1</v>
       </c>
       <c r="D1269">
-        <v>132.75</v>
+        <v>131.25</v>
       </c>
       <c r="E1269" t="s">
         <v>2052</v>
@@ -28146,7 +28146,7 @@
         <v>1</v>
       </c>
       <c r="D1271">
-        <v>150.5</v>
+        <v>149.75</v>
       </c>
       <c r="E1271" t="s">
         <v>2052</v>
@@ -28605,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="D1298">
-        <v>43.25</v>
+        <v>42.75</v>
       </c>
       <c r="E1298" t="s">
         <v>2052</v>
@@ -28792,7 +28792,7 @@
         <v>3</v>
       </c>
       <c r="D1309">
-        <v>45.84217375162542</v>
+        <v>45.31790815062813</v>
       </c>
       <c r="E1309" t="s">
         <v>2053</v>
@@ -28809,7 +28809,7 @@
         <v>1</v>
       </c>
       <c r="D1310">
-        <v>275.0530425097525</v>
+        <v>271.9074489037688</v>
       </c>
       <c r="E1310" t="s">
         <v>2052</v>
@@ -28826,7 +28826,7 @@
         <v>3</v>
       </c>
       <c r="D1311">
-        <v>45.82782024057735</v>
+        <v>45.22796487251865</v>
       </c>
       <c r="E1311" t="s">
         <v>2053</v>
@@ -28843,7 +28843,7 @@
         <v>1</v>
       </c>
       <c r="D1312">
-        <v>274.9669214434641</v>
+        <v>271.3677892351119</v>
       </c>
       <c r="E1312" t="s">
         <v>2052</v>
@@ -28962,7 +28962,7 @@
         <v>2</v>
       </c>
       <c r="D1319">
-        <v>291.75</v>
+        <v>296</v>
       </c>
       <c r="E1319" t="s">
         <v>2052</v>
@@ -29268,7 +29268,7 @@
         <v>2</v>
       </c>
       <c r="D1337">
-        <v>45.05969401620161</v>
+        <v>44.46163189176423</v>
       </c>
       <c r="E1337" t="s">
         <v>2053</v>
@@ -29285,7 +29285,7 @@
         <v>1</v>
       </c>
       <c r="D1338">
-        <v>540.7163281944194</v>
+        <v>533.5395827011708</v>
       </c>
       <c r="E1338" t="s">
         <v>2052</v>
@@ -29302,7 +29302,7 @@
         <v>2</v>
       </c>
       <c r="D1339">
-        <v>46</v>
+        <v>45.75</v>
       </c>
       <c r="E1339" t="s">
         <v>2053</v>
@@ -29319,7 +29319,7 @@
         <v>1</v>
       </c>
       <c r="D1340">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E1340" t="s">
         <v>2052</v>
@@ -29336,7 +29336,7 @@
         <v>2</v>
       </c>
       <c r="D1341">
-        <v>44.75</v>
+        <v>44</v>
       </c>
       <c r="E1341" t="s">
         <v>2053</v>
@@ -29353,7 +29353,7 @@
         <v>1</v>
       </c>
       <c r="D1342">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E1342" t="s">
         <v>2052</v>
@@ -29370,7 +29370,7 @@
         <v>2</v>
       </c>
       <c r="D1343">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="E1343" t="s">
         <v>2053</v>
@@ -29387,7 +29387,7 @@
         <v>1</v>
       </c>
       <c r="D1344">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E1344" t="s">
         <v>2052</v>
@@ -29404,7 +29404,7 @@
         <v>2</v>
       </c>
       <c r="D1345">
-        <v>45.02775254702318</v>
+        <v>44.44447513995307</v>
       </c>
       <c r="E1345" t="s">
         <v>2053</v>
@@ -29421,7 +29421,7 @@
         <v>1</v>
       </c>
       <c r="D1346">
-        <v>540.3330305642781</v>
+        <v>533.3337016794369</v>
       </c>
       <c r="E1346" t="s">
         <v>2052</v>
@@ -29438,7 +29438,7 @@
         <v>2</v>
       </c>
       <c r="D1347">
-        <v>41</v>
+        <v>40.25</v>
       </c>
       <c r="E1347" t="s">
         <v>2053</v>
@@ -29455,7 +29455,7 @@
         <v>1</v>
       </c>
       <c r="D1348">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E1348" t="s">
         <v>2052</v>
@@ -29472,7 +29472,7 @@
         <v>2</v>
       </c>
       <c r="D1349">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E1349" t="s">
         <v>2053</v>
@@ -29489,7 +29489,7 @@
         <v>1</v>
       </c>
       <c r="D1350">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E1350" t="s">
         <v>2052</v>
@@ -29506,7 +29506,7 @@
         <v>2</v>
       </c>
       <c r="D1351">
-        <v>38.75</v>
+        <v>38.25</v>
       </c>
       <c r="E1351" t="s">
         <v>2053</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="D1352">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E1352" t="s">
         <v>2052</v>
@@ -29540,7 +29540,7 @@
         <v>2</v>
       </c>
       <c r="D1353">
-        <v>45</v>
+        <v>44.75</v>
       </c>
       <c r="E1353" t="s">
         <v>2053</v>
@@ -29557,7 +29557,7 @@
         <v>1</v>
       </c>
       <c r="D1354">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E1354" t="s">
         <v>2052</v>
@@ -29574,7 +29574,7 @@
         <v>2</v>
       </c>
       <c r="D1355">
-        <v>44.75</v>
+        <v>44.25</v>
       </c>
       <c r="E1355" t="s">
         <v>2053</v>
@@ -29591,7 +29591,7 @@
         <v>1</v>
       </c>
       <c r="D1356">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E1356" t="s">
         <v>2052</v>
@@ -29795,7 +29795,7 @@
         <v>2</v>
       </c>
       <c r="D1368">
-        <v>33.25</v>
+        <v>32.75</v>
       </c>
       <c r="E1368" t="s">
         <v>2053</v>
@@ -29812,7 +29812,7 @@
         <v>1</v>
       </c>
       <c r="D1369">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E1369" t="s">
         <v>2052</v>
@@ -29829,7 +29829,7 @@
         <v>2</v>
       </c>
       <c r="D1370">
-        <v>32.75</v>
+        <v>32.25</v>
       </c>
       <c r="E1370" t="s">
         <v>2053</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="D1371">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E1371" t="s">
         <v>2052</v>
@@ -29863,7 +29863,7 @@
         <v>2</v>
       </c>
       <c r="D1372">
-        <v>32.75</v>
+        <v>32.25</v>
       </c>
       <c r="E1372" t="s">
         <v>2053</v>
@@ -29880,7 +29880,7 @@
         <v>1</v>
       </c>
       <c r="D1373">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E1373" t="s">
         <v>2052</v>
@@ -29897,7 +29897,7 @@
         <v>2</v>
       </c>
       <c r="D1374">
-        <v>32</v>
+        <v>31.75</v>
       </c>
       <c r="E1374" t="s">
         <v>2053</v>
@@ -29914,7 +29914,7 @@
         <v>1</v>
       </c>
       <c r="D1375">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E1375" t="s">
         <v>2052</v>
@@ -29931,7 +29931,7 @@
         <v>2</v>
       </c>
       <c r="D1376">
-        <v>32.15998370972911</v>
+        <v>31.83818179719555</v>
       </c>
       <c r="E1376" t="s">
         <v>2053</v>
@@ -29948,7 +29948,7 @@
         <v>1</v>
       </c>
       <c r="D1377">
-        <v>385.9198045167493</v>
+        <v>382.0581815663467</v>
       </c>
       <c r="E1377" t="s">
         <v>2052</v>
@@ -29965,7 +29965,7 @@
         <v>2</v>
       </c>
       <c r="D1378">
-        <v>32.09780795637427</v>
+        <v>31.77662819205208</v>
       </c>
       <c r="E1378" t="s">
         <v>2053</v>
@@ -29982,7 +29982,7 @@
         <v>1</v>
       </c>
       <c r="D1379">
-        <v>385.1736954764912</v>
+        <v>381.319538304625</v>
       </c>
       <c r="E1379" t="s">
         <v>2052</v>
@@ -30169,7 +30169,7 @@
         <v>1</v>
       </c>
       <c r="D1390">
-        <v>63.65499051004797</v>
+        <v>62.9062340140393</v>
       </c>
       <c r="E1390" t="s">
         <v>2052</v>
@@ -30186,7 +30186,7 @@
         <v>1</v>
       </c>
       <c r="D1391">
-        <v>64.01784971603635</v>
+        <v>63.33862972392003</v>
       </c>
       <c r="E1391" t="s">
         <v>2052</v>
@@ -31070,7 +31070,7 @@
         <v>3</v>
       </c>
       <c r="D1443">
-        <v>108.25</v>
+        <v>107.5</v>
       </c>
       <c r="E1443" t="s">
         <v>2053</v>
@@ -31087,7 +31087,7 @@
         <v>1</v>
       </c>
       <c r="D1444">
-        <v>649.5</v>
+        <v>645</v>
       </c>
       <c r="E1444" t="s">
         <v>2052</v>
@@ -31104,7 +31104,7 @@
         <v>3</v>
       </c>
       <c r="D1445">
-        <v>53.59680589897188</v>
+        <v>52.96915692699482</v>
       </c>
       <c r="E1445" t="s">
         <v>2053</v>
@@ -31121,7 +31121,7 @@
         <v>1</v>
       </c>
       <c r="D1446">
-        <v>643.1616707876626</v>
+        <v>635.6298831239378</v>
       </c>
       <c r="E1446" t="s">
         <v>2052</v>
@@ -31138,7 +31138,7 @@
         <v>3</v>
       </c>
       <c r="D1447">
-        <v>53.25</v>
+        <v>52.5</v>
       </c>
       <c r="E1447" t="s">
         <v>2053</v>
@@ -31155,7 +31155,7 @@
         <v>1</v>
       </c>
       <c r="D1448">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E1448" t="s">
         <v>2052</v>
@@ -31172,7 +31172,7 @@
         <v>3</v>
       </c>
       <c r="D1449">
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="E1449" t="s">
         <v>2053</v>
@@ -31189,7 +31189,7 @@
         <v>1</v>
       </c>
       <c r="D1450">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E1450" t="s">
         <v>2052</v>
@@ -31206,7 +31206,7 @@
         <v>3</v>
       </c>
       <c r="D1451">
-        <v>53.59629718867183</v>
+        <v>52.99289709013525</v>
       </c>
       <c r="E1451" t="s">
         <v>2053</v>
@@ -31223,7 +31223,7 @@
         <v>1</v>
       </c>
       <c r="D1452">
-        <v>643.155566264062</v>
+        <v>635.914765081623</v>
       </c>
       <c r="E1452" t="s">
         <v>2052</v>
@@ -31240,7 +31240,7 @@
         <v>21</v>
       </c>
       <c r="D1453">
-        <v>151.75</v>
+        <v>146.75</v>
       </c>
       <c r="E1453" t="s">
         <v>2053</v>
@@ -31257,7 +31257,7 @@
         <v>1</v>
       </c>
       <c r="D1454">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="E1454" t="s">
         <v>2052</v>
@@ -31444,7 +31444,7 @@
         <v>2</v>
       </c>
       <c r="D1465">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E1465" t="s">
         <v>2053</v>
@@ -31461,7 +31461,7 @@
         <v>1</v>
       </c>
       <c r="D1466">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E1466" t="s">
         <v>2052</v>
@@ -31478,7 +31478,7 @@
         <v>3</v>
       </c>
       <c r="D1467">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1467" t="s">
         <v>2053</v>
@@ -31495,7 +31495,7 @@
         <v>1</v>
       </c>
       <c r="D1468">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E1468" t="s">
         <v>2052</v>
@@ -31716,7 +31716,7 @@
         <v>3</v>
       </c>
       <c r="D1481">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E1481" t="s">
         <v>2053</v>
@@ -31733,7 +31733,7 @@
         <v>1</v>
       </c>
       <c r="D1482">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E1482" t="s">
         <v>2052</v>
@@ -31886,7 +31886,7 @@
         <v>3</v>
       </c>
       <c r="D1491">
-        <v>176.0515374807029</v>
+        <v>175.6035691919479</v>
       </c>
       <c r="E1491" t="s">
         <v>2053</v>
@@ -31903,7 +31903,7 @@
         <v>1</v>
       </c>
       <c r="D1492">
-        <v>1056.309224884217</v>
+        <v>1053.621415151688</v>
       </c>
       <c r="E1492" t="s">
         <v>2052</v>
@@ -31920,7 +31920,7 @@
         <v>3</v>
       </c>
       <c r="D1493">
-        <v>169.75</v>
+        <v>169.5</v>
       </c>
       <c r="E1493" t="s">
         <v>2053</v>
@@ -31937,7 +31937,7 @@
         <v>1</v>
       </c>
       <c r="D1494">
-        <v>1018.5</v>
+        <v>1017</v>
       </c>
       <c r="E1494" t="s">
         <v>2052</v>
@@ -31954,7 +31954,7 @@
         <v>3</v>
       </c>
       <c r="D1495">
-        <v>176.3347812937511</v>
+        <v>175.8860922828255</v>
       </c>
       <c r="E1495" t="s">
         <v>2053</v>
@@ -31971,7 +31971,7 @@
         <v>1</v>
       </c>
       <c r="D1496">
-        <v>1058.008687762506</v>
+        <v>1055.316553696953</v>
       </c>
       <c r="E1496" t="s">
         <v>2052</v>
@@ -31988,7 +31988,7 @@
         <v>3</v>
       </c>
       <c r="D1497">
-        <v>176.0018225553137</v>
+        <v>175.5539807676411</v>
       </c>
       <c r="E1497" t="s">
         <v>2053</v>
@@ -32005,7 +32005,7 @@
         <v>1</v>
       </c>
       <c r="D1498">
-        <v>1056.010935331882</v>
+        <v>1053.323884605847</v>
       </c>
       <c r="E1498" t="s">
         <v>2052</v>
@@ -32022,7 +32022,7 @@
         <v>3</v>
       </c>
       <c r="D1499">
-        <v>177.7474397125861</v>
+        <v>175.7481813151402</v>
       </c>
       <c r="E1499" t="s">
         <v>2053</v>
@@ -32039,7 +32039,7 @@
         <v>1</v>
       </c>
       <c r="D1500">
-        <v>1066.484638275516</v>
+        <v>1054.489087890841</v>
       </c>
       <c r="E1500" t="s">
         <v>2052</v>
@@ -32056,7 +32056,7 @@
         <v>3</v>
       </c>
       <c r="D1501">
-        <v>238.5</v>
+        <v>235.75</v>
       </c>
       <c r="E1501" t="s">
         <v>2053</v>
@@ -32073,7 +32073,7 @@
         <v>1</v>
       </c>
       <c r="D1502">
-        <v>1431</v>
+        <v>1414.5</v>
       </c>
       <c r="E1502" t="s">
         <v>2052</v>
@@ -32090,7 +32090,7 @@
         <v>3</v>
       </c>
       <c r="D1503">
-        <v>177.25</v>
+        <v>175.25</v>
       </c>
       <c r="E1503" t="s">
         <v>2053</v>
@@ -32107,7 +32107,7 @@
         <v>1</v>
       </c>
       <c r="D1504">
-        <v>1063.5</v>
+        <v>1051.5</v>
       </c>
       <c r="E1504" t="s">
         <v>2052</v>
@@ -32124,7 +32124,7 @@
         <v>3</v>
       </c>
       <c r="D1505">
-        <v>222.5</v>
+        <v>220</v>
       </c>
       <c r="E1505" t="s">
         <v>2053</v>
@@ -32141,7 +32141,7 @@
         <v>1</v>
       </c>
       <c r="D1506">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="E1506" t="s">
         <v>2052</v>
@@ -32158,7 +32158,7 @@
         <v>3</v>
       </c>
       <c r="D1507">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1507" t="s">
         <v>2053</v>
@@ -32175,7 +32175,7 @@
         <v>1</v>
       </c>
       <c r="D1508">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="E1508" t="s">
         <v>2052</v>
@@ -32192,7 +32192,7 @@
         <v>3</v>
       </c>
       <c r="D1509">
-        <v>177.906540350334</v>
+        <v>175.9054924290189</v>
       </c>
       <c r="E1509" t="s">
         <v>2053</v>
@@ -32209,7 +32209,7 @@
         <v>1</v>
       </c>
       <c r="D1510">
-        <v>1067.439242102004</v>
+        <v>1055.432954574113</v>
       </c>
       <c r="E1510" t="s">
         <v>2052</v>
@@ -32226,7 +32226,7 @@
         <v>3</v>
       </c>
       <c r="D1511">
-        <v>178.4995036801861</v>
+        <v>176.4917862568039</v>
       </c>
       <c r="E1511" t="s">
         <v>2053</v>
@@ -32243,7 +32243,7 @@
         <v>1</v>
       </c>
       <c r="D1512">
-        <v>1070.997022081116</v>
+        <v>1058.950717540823</v>
       </c>
       <c r="E1512" t="s">
         <v>2052</v>
@@ -32260,7 +32260,7 @@
         <v>3</v>
       </c>
       <c r="D1513">
-        <v>176.2284309090901</v>
+        <v>175.7800125098304</v>
       </c>
       <c r="E1513" t="s">
         <v>2053</v>
@@ -32277,7 +32277,7 @@
         <v>1</v>
       </c>
       <c r="D1514">
-        <v>1057.370585454541</v>
+        <v>1054.680075058982</v>
       </c>
       <c r="E1514" t="s">
         <v>2052</v>
@@ -32498,7 +32498,7 @@
         <v>3</v>
       </c>
       <c r="D1527">
-        <v>23.75</v>
+        <v>23.25</v>
       </c>
       <c r="E1527" t="s">
         <v>2053</v>
@@ -32515,7 +32515,7 @@
         <v>1</v>
       </c>
       <c r="D1528">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E1528" t="s">
         <v>2052</v>
@@ -32532,7 +32532,7 @@
         <v>3</v>
       </c>
       <c r="D1529">
-        <v>166</v>
+        <v>162.25</v>
       </c>
       <c r="E1529" t="s">
         <v>2053</v>
@@ -32549,7 +32549,7 @@
         <v>1</v>
       </c>
       <c r="D1530">
-        <v>996</v>
+        <v>973.5</v>
       </c>
       <c r="E1530" t="s">
         <v>2052</v>
@@ -32566,7 +32566,7 @@
         <v>3</v>
       </c>
       <c r="D1531">
-        <v>46.67666911380793</v>
+        <v>45.67147270137204</v>
       </c>
       <c r="E1531" t="s">
         <v>2053</v>
@@ -32583,7 +32583,7 @@
         <v>1</v>
       </c>
       <c r="D1532">
-        <v>560.1200293656951</v>
+        <v>548.0576724164645</v>
       </c>
       <c r="E1532" t="s">
         <v>2052</v>
@@ -32600,7 +32600,7 @@
         <v>3</v>
       </c>
       <c r="D1533">
-        <v>189.5</v>
+        <v>184.75</v>
       </c>
       <c r="E1533" t="s">
         <v>2052</v>
@@ -32617,7 +32617,7 @@
         <v>3</v>
       </c>
       <c r="D1534">
-        <v>95.75</v>
+        <v>93.75</v>
       </c>
       <c r="E1534" t="s">
         <v>2053</v>
@@ -32634,7 +32634,7 @@
         <v>1</v>
       </c>
       <c r="D1535">
-        <v>1149</v>
+        <v>1125</v>
       </c>
       <c r="E1535" t="s">
         <v>2052</v>
@@ -32651,7 +32651,7 @@
         <v>3</v>
       </c>
       <c r="D1536">
-        <v>48.19704996132777</v>
+        <v>46.8022021559764</v>
       </c>
       <c r="E1536" t="s">
         <v>2053</v>
@@ -32668,7 +32668,7 @@
         <v>1</v>
       </c>
       <c r="D1537">
-        <v>578.3645995359333</v>
+        <v>561.6264258717168</v>
       </c>
       <c r="E1537" t="s">
         <v>2052</v>
@@ -32685,7 +32685,7 @@
         <v>3</v>
       </c>
       <c r="D1538">
-        <v>48.18580615148978</v>
+        <v>46.7912837478692</v>
       </c>
       <c r="E1538" t="s">
         <v>2053</v>
@@ -32702,7 +32702,7 @@
         <v>1</v>
       </c>
       <c r="D1539">
-        <v>578.2296738178774</v>
+        <v>561.4954049744304</v>
       </c>
       <c r="E1539" t="s">
         <v>2052</v>
@@ -32719,7 +32719,7 @@
         <v>3</v>
       </c>
       <c r="D1540">
-        <v>46</v>
+        <v>45.25</v>
       </c>
       <c r="E1540" t="s">
         <v>2053</v>
@@ -32736,7 +32736,7 @@
         <v>1</v>
       </c>
       <c r="D1541">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E1541" t="s">
         <v>2052</v>
@@ -33195,7 +33195,7 @@
         <v>7</v>
       </c>
       <c r="D1568">
-        <v>158.25</v>
+        <v>156.25</v>
       </c>
       <c r="E1568" t="s">
         <v>2053</v>
@@ -33212,7 +33212,7 @@
         <v>1</v>
       </c>
       <c r="D1569">
-        <v>1899</v>
+        <v>1875</v>
       </c>
       <c r="E1569" t="s">
         <v>2052</v>
@@ -33841,7 +33841,7 @@
         <v>3</v>
       </c>
       <c r="D1606">
-        <v>23.48671314592761</v>
+        <v>23.06771497207332</v>
       </c>
       <c r="E1606" t="s">
         <v>2053</v>
@@ -33858,7 +33858,7 @@
         <v>1</v>
       </c>
       <c r="D1607">
-        <v>281.8405577511313</v>
+        <v>276.8125796648798</v>
       </c>
       <c r="E1607" t="s">
         <v>2052</v>
@@ -33977,7 +33977,7 @@
         <v>1</v>
       </c>
       <c r="D1614">
-        <v>763.7348519212482</v>
+        <v>763.9938993286071</v>
       </c>
       <c r="E1614" t="s">
         <v>2052</v>
@@ -34011,7 +34011,7 @@
         <v>431</v>
       </c>
       <c r="D1616">
-        <v>31.5</v>
+        <v>31.25</v>
       </c>
       <c r="E1616" t="s">
         <v>2053</v>
@@ -34028,7 +34028,7 @@
         <v>2</v>
       </c>
       <c r="D1617">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E1617" t="s">
         <v>2052</v>
@@ -34708,7 +34708,7 @@
         <v>2</v>
       </c>
       <c r="D1657">
-        <v>197.2379282358366</v>
+        <v>196.3086271932694</v>
       </c>
       <c r="E1657" t="s">
         <v>2053</v>
@@ -34725,7 +34725,7 @@
         <v>1</v>
       </c>
       <c r="D1658">
-        <v>1577.903425886693</v>
+        <v>1570.469017546155</v>
       </c>
       <c r="E1658" t="s">
         <v>2052</v>
@@ -34742,7 +34742,7 @@
         <v>2</v>
       </c>
       <c r="D1659">
-        <v>196.2951211637325</v>
+        <v>195.3139371570563</v>
       </c>
       <c r="E1659" t="s">
         <v>2053</v>
@@ -34759,7 +34759,7 @@
         <v>1</v>
       </c>
       <c r="D1660">
-        <v>1570.36096930986</v>
+        <v>1562.51149725645</v>
       </c>
       <c r="E1660" t="s">
         <v>2052</v>
@@ -34776,7 +34776,7 @@
         <v>2</v>
       </c>
       <c r="D1661">
-        <v>196.7315127471337</v>
+        <v>195.7481474308062</v>
       </c>
       <c r="E1661" t="s">
         <v>2053</v>
@@ -34793,7 +34793,7 @@
         <v>1</v>
       </c>
       <c r="D1662">
-        <v>1573.852101977069</v>
+        <v>1565.98517944645</v>
       </c>
       <c r="E1662" t="s">
         <v>2052</v>
@@ -34810,7 +34810,7 @@
         <v>2</v>
       </c>
       <c r="D1663">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E1663" t="s">
         <v>2053</v>
@@ -34827,7 +34827,7 @@
         <v>1</v>
       </c>
       <c r="D1664">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="E1664" t="s">
         <v>2052</v>
@@ -34861,7 +34861,7 @@
         <v>29</v>
       </c>
       <c r="D1666">
-        <v>461.5</v>
+        <v>461.25</v>
       </c>
       <c r="E1666" t="s">
         <v>2052</v>
@@ -34878,7 +34878,7 @@
         <v>23</v>
       </c>
       <c r="D1667">
-        <v>127</v>
+        <v>124.5</v>
       </c>
       <c r="E1667" t="s">
         <v>2053</v>
@@ -34895,7 +34895,7 @@
         <v>1</v>
       </c>
       <c r="D1668">
-        <v>3048</v>
+        <v>2988</v>
       </c>
       <c r="E1668" t="s">
         <v>2052</v>
@@ -34912,7 +34912,7 @@
         <v>10</v>
       </c>
       <c r="D1669">
-        <v>127</v>
+        <v>124.5</v>
       </c>
       <c r="E1669" t="s">
         <v>2053</v>
@@ -34929,7 +34929,7 @@
         <v>1</v>
       </c>
       <c r="D1670">
-        <v>3048</v>
+        <v>2988</v>
       </c>
       <c r="E1670" t="s">
         <v>2052</v>
@@ -36272,7 +36272,7 @@
         <v>3</v>
       </c>
       <c r="D1749">
-        <v>48.26046799058368</v>
+        <v>48.25229849411053</v>
       </c>
       <c r="E1749" t="s">
         <v>2053</v>
@@ -36289,7 +36289,7 @@
         <v>1</v>
       </c>
       <c r="D1750">
-        <v>482.6046799058367</v>
+        <v>482.5229849411053</v>
       </c>
       <c r="E1750" t="s">
         <v>2052</v>
@@ -36442,7 +36442,7 @@
         <v>2</v>
       </c>
       <c r="D1759">
-        <v>305.25</v>
+        <v>303.75</v>
       </c>
       <c r="E1759" t="s">
         <v>2052</v>
@@ -36459,7 +36459,7 @@
         <v>2</v>
       </c>
       <c r="D1760">
-        <v>305</v>
+        <v>303.5</v>
       </c>
       <c r="E1760" t="s">
         <v>2052</v>
@@ -36510,7 +36510,7 @@
         <v>2</v>
       </c>
       <c r="D1763">
-        <v>250</v>
+        <v>249.5</v>
       </c>
       <c r="E1763" t="s">
         <v>2052</v>
@@ -36697,7 +36697,7 @@
         <v>23</v>
       </c>
       <c r="D1774">
-        <v>39.52085666282065</v>
+        <v>39.16782824789829</v>
       </c>
       <c r="E1774" t="s">
         <v>2053</v>
@@ -36714,7 +36714,7 @@
         <v>1</v>
       </c>
       <c r="D1775">
-        <v>474.2502799538478</v>
+        <v>470.0139389747794</v>
       </c>
       <c r="E1775" t="s">
         <v>2052</v>
@@ -36731,7 +36731,7 @@
         <v>23</v>
       </c>
       <c r="D1776">
-        <v>39.68689761009554</v>
+        <v>39.32517318162176</v>
       </c>
       <c r="E1776" t="s">
         <v>2053</v>
@@ -36748,7 +36748,7 @@
         <v>1</v>
       </c>
       <c r="D1777">
-        <v>476.2427713211465</v>
+        <v>471.9020781794612</v>
       </c>
       <c r="E1777" t="s">
         <v>2052</v>
@@ -36765,7 +36765,7 @@
         <v>23</v>
       </c>
       <c r="D1778">
-        <v>39.56240772463072</v>
+        <v>39.25556985027944</v>
       </c>
       <c r="E1778" t="s">
         <v>2053</v>
@@ -36782,7 +36782,7 @@
         <v>1</v>
       </c>
       <c r="D1779">
-        <v>474.7488926955687</v>
+        <v>471.0668382033533</v>
       </c>
       <c r="E1779" t="s">
         <v>2052</v>
@@ -36867,7 +36867,7 @@
         <v>2</v>
       </c>
       <c r="D1784">
-        <v>406.75</v>
+        <v>402.75</v>
       </c>
       <c r="E1784" t="s">
         <v>2052</v>
@@ -36884,7 +36884,7 @@
         <v>2</v>
       </c>
       <c r="D1785">
-        <v>406.75</v>
+        <v>402.75</v>
       </c>
       <c r="E1785" t="s">
         <v>2052</v>
@@ -36901,7 +36901,7 @@
         <v>2</v>
       </c>
       <c r="D1786">
-        <v>321.25</v>
+        <v>320.5</v>
       </c>
       <c r="E1786" t="s">
         <v>2052</v>
@@ -36918,7 +36918,7 @@
         <v>2</v>
       </c>
       <c r="D1787">
-        <v>287.75</v>
+        <v>287</v>
       </c>
       <c r="E1787" t="s">
         <v>2052</v>
@@ -38040,7 +38040,7 @@
         <v>1</v>
       </c>
       <c r="D1853">
-        <v>659.5</v>
+        <v>658</v>
       </c>
       <c r="E1853" t="s">
         <v>2052</v>
@@ -38244,7 +38244,7 @@
         <v>2</v>
       </c>
       <c r="D1865">
-        <v>99.25</v>
+        <v>98.75</v>
       </c>
       <c r="E1865" t="s">
         <v>2052</v>
@@ -39094,7 +39094,7 @@
         <v>7</v>
       </c>
       <c r="D1915">
-        <v>70</v>
+        <v>68.75</v>
       </c>
       <c r="E1915" t="s">
         <v>2053</v>
@@ -39111,7 +39111,7 @@
         <v>1</v>
       </c>
       <c r="D1916">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E1916" t="s">
         <v>2052</v>
@@ -39128,7 +39128,7 @@
         <v>3</v>
       </c>
       <c r="D1917">
-        <v>47.25</v>
+        <v>46.25</v>
       </c>
       <c r="E1917" t="s">
         <v>2053</v>
@@ -39145,7 +39145,7 @@
         <v>1</v>
       </c>
       <c r="D1918">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E1918" t="s">
         <v>2052</v>
@@ -39162,7 +39162,7 @@
         <v>3</v>
       </c>
       <c r="D1919">
-        <v>47.5</v>
+        <v>46.25</v>
       </c>
       <c r="E1919" t="s">
         <v>2053</v>
@@ -39179,7 +39179,7 @@
         <v>1</v>
       </c>
       <c r="D1920">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E1920" t="s">
         <v>2052</v>
@@ -39196,7 +39196,7 @@
         <v>3</v>
       </c>
       <c r="D1921">
-        <v>47.75</v>
+        <v>46.5</v>
       </c>
       <c r="E1921" t="s">
         <v>2053</v>
@@ -39213,7 +39213,7 @@
         <v>1</v>
       </c>
       <c r="D1922">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="E1922" t="s">
         <v>2052</v>
@@ -39349,7 +39349,7 @@
         <v>1</v>
       </c>
       <c r="D1930">
-        <v>459.25</v>
+        <v>458.25</v>
       </c>
       <c r="E1930" t="s">
         <v>2052</v>
@@ -39536,7 +39536,7 @@
         <v>137</v>
       </c>
       <c r="D1941">
-        <v>541</v>
+        <v>544.75</v>
       </c>
       <c r="E1941" t="s">
         <v>2052</v>
@@ -40556,7 +40556,7 @@
         <v>1</v>
       </c>
       <c r="D2001">
-        <v>275.75</v>
+        <v>273</v>
       </c>
       <c r="E2001" t="s">
         <v>2052</v>
@@ -40573,7 +40573,7 @@
         <v>1</v>
       </c>
       <c r="D2002">
-        <v>274</v>
+        <v>271.25</v>
       </c>
       <c r="E2002" t="s">
         <v>2052</v>
@@ -40590,7 +40590,7 @@
         <v>1</v>
       </c>
       <c r="D2003">
-        <v>289.5</v>
+        <v>286.75</v>
       </c>
       <c r="E2003" t="s">
         <v>2052</v>
@@ -41236,7 +41236,7 @@
         <v>10</v>
       </c>
       <c r="D2041">
-        <v>465.5</v>
+        <v>462</v>
       </c>
       <c r="E2041" t="s">
         <v>2053</v>
@@ -41253,7 +41253,7 @@
         <v>1</v>
       </c>
       <c r="D2042">
-        <v>12568.5</v>
+        <v>12474</v>
       </c>
       <c r="E2042" t="s">
         <v>2052</v>
@@ -41270,7 +41270,7 @@
         <v>3</v>
       </c>
       <c r="D2043">
-        <v>361.75</v>
+        <v>359</v>
       </c>
       <c r="E2043" t="s">
         <v>2053</v>
@@ -41287,7 +41287,7 @@
         <v>1</v>
       </c>
       <c r="D2044">
-        <v>14470</v>
+        <v>14360</v>
       </c>
       <c r="E2044" t="s">
         <v>2052</v>
@@ -41304,7 +41304,7 @@
         <v>332</v>
       </c>
       <c r="D2045">
-        <v>801.75</v>
+        <v>792.75</v>
       </c>
       <c r="E2045" t="s">
         <v>2053</v>
@@ -41321,7 +41321,7 @@
         <v>1</v>
       </c>
       <c r="D2046">
-        <v>3207</v>
+        <v>3171</v>
       </c>
       <c r="E2046" t="s">
         <v>2052</v>
@@ -41661,7 +41661,7 @@
         <v>332</v>
       </c>
       <c r="D2066">
-        <v>801.75</v>
+        <v>792.75</v>
       </c>
       <c r="E2066" t="s">
         <v>2053</v>
@@ -41678,7 +41678,7 @@
         <v>1</v>
       </c>
       <c r="D2067">
-        <v>3207</v>
+        <v>3171</v>
       </c>
       <c r="E2067" t="s">
         <v>2052</v>
@@ -41814,7 +41814,7 @@
         <v>2</v>
       </c>
       <c r="D2075">
-        <v>95.59107234525096</v>
+        <v>95.56482461179218</v>
       </c>
       <c r="E2075" t="s">
         <v>2053</v>
@@ -41831,7 +41831,7 @@
         <v>1</v>
       </c>
       <c r="D2076">
-        <v>764.7285787620077</v>
+        <v>764.5185968943374</v>
       </c>
       <c r="E2076" t="s">
         <v>2052</v>
@@ -41882,7 +41882,7 @@
         <v>2</v>
       </c>
       <c r="D2079">
-        <v>43.21106894241315</v>
+        <v>43.2095388219377</v>
       </c>
       <c r="E2079" t="s">
         <v>2053</v>
@@ -41899,7 +41899,7 @@
         <v>1</v>
       </c>
       <c r="D2080">
-        <v>691.3771030786104</v>
+        <v>691.3526211510032</v>
       </c>
       <c r="E2080" t="s">
         <v>2052</v>
@@ -41916,7 +41916,7 @@
         <v>2</v>
       </c>
       <c r="D2081">
-        <v>172.053840343929</v>
+        <v>172.0410125967575</v>
       </c>
       <c r="E2081" t="s">
         <v>2053</v>
@@ -41933,7 +41933,7 @@
         <v>1</v>
       </c>
       <c r="D2082">
-        <v>1032.323042063574</v>
+        <v>1032.246075580545</v>
       </c>
       <c r="E2082" t="s">
         <v>2052</v>
@@ -42086,7 +42086,7 @@
         <v>2</v>
       </c>
       <c r="D2091">
-        <v>171.9908549420628</v>
+        <v>171.9772503014068</v>
       </c>
       <c r="E2091" t="s">
         <v>2053</v>
@@ -42103,7 +42103,7 @@
         <v>1</v>
       </c>
       <c r="D2092">
-        <v>1031.945129652377</v>
+        <v>1031.863501808441</v>
       </c>
       <c r="E2092" t="s">
         <v>2052</v>
@@ -42188,7 +42188,7 @@
         <v>2</v>
       </c>
       <c r="D2097">
-        <v>171.736899642649</v>
+        <v>171.7272771417703</v>
       </c>
       <c r="E2097" t="s">
         <v>2053</v>
@@ -42205,7 +42205,7 @@
         <v>1</v>
       </c>
       <c r="D2098">
-        <v>1030.421397855894</v>
+        <v>1030.363662850622</v>
       </c>
       <c r="E2098" t="s">
         <v>2052</v>
@@ -42222,7 +42222,7 @@
         <v>2</v>
       </c>
       <c r="D2099">
-        <v>249.3935050400342</v>
+        <v>249.4640820772835</v>
       </c>
       <c r="E2099" t="s">
         <v>2053</v>
@@ -42239,7 +42239,7 @@
         <v>1</v>
       </c>
       <c r="D2100">
-        <v>1995.148040320273</v>
+        <v>1995.712656618268</v>
       </c>
       <c r="E2100" t="s">
         <v>2052</v>
@@ -42256,7 +42256,7 @@
         <v>2</v>
       </c>
       <c r="D2101">
-        <v>336.7903435058466</v>
+        <v>336.8890043805038</v>
       </c>
       <c r="E2101" t="s">
         <v>2053</v>
@@ -42273,7 +42273,7 @@
         <v>1</v>
       </c>
       <c r="D2102">
-        <v>2020.74206103508</v>
+        <v>2021.334026283022</v>
       </c>
       <c r="E2102" t="s">
         <v>2052</v>
@@ -42290,7 +42290,7 @@
         <v>2</v>
       </c>
       <c r="D2103">
-        <v>249.4342354040012</v>
+        <v>249.5028612860905</v>
       </c>
       <c r="E2103" t="s">
         <v>2053</v>
@@ -42307,7 +42307,7 @@
         <v>1</v>
       </c>
       <c r="D2104">
-        <v>1995.473883232009</v>
+        <v>1996.022890288724</v>
       </c>
       <c r="E2104" t="s">
         <v>2052</v>
@@ -42426,7 +42426,7 @@
         <v>2</v>
       </c>
       <c r="D2111">
-        <v>249.4164972388723</v>
+        <v>249.6052357848139</v>
       </c>
       <c r="E2111" t="s">
         <v>2053</v>
@@ -42443,7 +42443,7 @@
         <v>1</v>
       </c>
       <c r="D2112">
-        <v>1995.331977910978</v>
+        <v>1996.841886278511</v>
       </c>
       <c r="E2112" t="s">
         <v>2052</v>
@@ -42494,7 +42494,7 @@
         <v>2</v>
       </c>
       <c r="D2115">
-        <v>246</v>
+        <v>246.5</v>
       </c>
       <c r="E2115" t="s">
         <v>2053</v>
@@ -42511,7 +42511,7 @@
         <v>1</v>
       </c>
       <c r="D2116">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="E2116" t="s">
         <v>2052</v>
@@ -42698,7 +42698,7 @@
         <v>23</v>
       </c>
       <c r="D2127">
-        <v>33.2336866097328</v>
+        <v>33.30786321413805</v>
       </c>
       <c r="E2127" t="s">
         <v>2053</v>
@@ -42715,7 +42715,7 @@
         <v>1</v>
       </c>
       <c r="D2128">
-        <v>1595.216957267174</v>
+        <v>1598.777434278626</v>
       </c>
       <c r="E2128" t="s">
         <v>2052</v>
@@ -42800,7 +42800,7 @@
         <v>23</v>
       </c>
       <c r="D2133">
-        <v>58.67675054231892</v>
+        <v>58.67737086469306</v>
       </c>
       <c r="E2133" t="s">
         <v>2053</v>
@@ -42817,7 +42817,7 @@
         <v>1</v>
       </c>
       <c r="D2134">
-        <v>1408.242013015654</v>
+        <v>1408.256900752634</v>
       </c>
       <c r="E2134" t="s">
         <v>2052</v>
@@ -42868,7 +42868,7 @@
         <v>23</v>
       </c>
       <c r="D2137">
-        <v>99.02365134362053</v>
+        <v>99.02462169451101</v>
       </c>
       <c r="E2137" t="s">
         <v>2053</v>
@@ -42885,7 +42885,7 @@
         <v>1</v>
       </c>
       <c r="D2138">
-        <v>1188.283816123446</v>
+        <v>1188.295460334132</v>
       </c>
       <c r="E2138" t="s">
         <v>2052</v>
@@ -42936,7 +42936,7 @@
         <v>2</v>
       </c>
       <c r="D2141">
-        <v>315.2940558243794</v>
+        <v>315.2941818762885</v>
       </c>
       <c r="E2141" t="s">
         <v>2053</v>
@@ -42953,7 +42953,7 @@
         <v>1</v>
       </c>
       <c r="D2142">
-        <v>630.5881116487587</v>
+        <v>630.588363752577</v>
       </c>
       <c r="E2142" t="s">
         <v>2052</v>
@@ -43038,7 +43038,7 @@
         <v>2</v>
       </c>
       <c r="D2147">
-        <v>192.6251389274683</v>
+        <v>192.6287596324437</v>
       </c>
       <c r="E2147" t="s">
         <v>2053</v>
@@ -43055,7 +43055,7 @@
         <v>1</v>
       </c>
       <c r="D2148">
-        <v>770.5005557098732</v>
+        <v>770.5150385297749</v>
       </c>
       <c r="E2148" t="s">
         <v>2052</v>
@@ -43072,7 +43072,7 @@
         <v>2</v>
       </c>
       <c r="D2149">
-        <v>315.294878220186</v>
+        <v>315.2951804872189</v>
       </c>
       <c r="E2149" t="s">
         <v>2053</v>
@@ -43089,7 +43089,7 @@
         <v>1</v>
       </c>
       <c r="D2150">
-        <v>630.5897564403721</v>
+        <v>630.5903609744378</v>
       </c>
       <c r="E2150" t="s">
         <v>2052</v>
@@ -43140,7 +43140,7 @@
         <v>2</v>
       </c>
       <c r="D2153">
-        <v>315.2954471973015</v>
+        <v>315.2955644960938</v>
       </c>
       <c r="E2153" t="s">
         <v>2053</v>
@@ -43157,7 +43157,7 @@
         <v>1</v>
       </c>
       <c r="D2154">
-        <v>630.590894394603</v>
+        <v>630.5911289921876</v>
       </c>
       <c r="E2154" t="s">
         <v>2052</v>
@@ -43208,7 +43208,7 @@
         <v>2</v>
       </c>
       <c r="D2157">
-        <v>315.2260646332044</v>
+        <v>315.2304262601922</v>
       </c>
       <c r="E2157" t="s">
         <v>2053</v>
@@ -43225,7 +43225,7 @@
         <v>1</v>
       </c>
       <c r="D2158">
-        <v>630.4521292664089</v>
+        <v>630.4608525203844</v>
       </c>
       <c r="E2158" t="s">
         <v>2052</v>
@@ -43242,7 +43242,7 @@
         <v>3</v>
       </c>
       <c r="D2159">
-        <v>152.7018518390336</v>
+        <v>152.7018405247654</v>
       </c>
       <c r="E2159" t="s">
         <v>2053</v>
@@ -43259,7 +43259,7 @@
         <v>1</v>
       </c>
       <c r="D2160">
-        <v>1527.018518390336</v>
+        <v>1527.018405247654</v>
       </c>
       <c r="E2160" t="s">
         <v>2052</v>
@@ -43276,7 +43276,7 @@
         <v>3</v>
       </c>
       <c r="D2161">
-        <v>152.6457514902603</v>
+        <v>152.6494359384038</v>
       </c>
       <c r="E2161" t="s">
         <v>2053</v>
@@ -43293,7 +43293,7 @@
         <v>1</v>
       </c>
       <c r="D2162">
-        <v>1526.457514902603</v>
+        <v>1526.494359384038</v>
       </c>
       <c r="E2162" t="s">
         <v>2052</v>
@@ -43633,7 +43633,7 @@
         <v>2</v>
       </c>
       <c r="D2182">
-        <v>227.75</v>
+        <v>226.5</v>
       </c>
       <c r="E2182" t="s">
         <v>2052</v>
@@ -43837,7 +43837,7 @@
         <v>1</v>
       </c>
       <c r="D2194">
-        <v>811.75</v>
+        <v>808.25</v>
       </c>
       <c r="E2194" t="s">
         <v>2052</v>
@@ -43854,7 +43854,7 @@
         <v>1</v>
       </c>
       <c r="D2195">
-        <v>940.5</v>
+        <v>929.5</v>
       </c>
       <c r="E2195" t="s">
         <v>2052</v>
@@ -44313,7 +44313,7 @@
         <v>10</v>
       </c>
       <c r="D2222">
-        <v>209.75</v>
+        <v>207.25</v>
       </c>
       <c r="E2222" t="s">
         <v>2053</v>
@@ -44330,7 +44330,7 @@
         <v>1</v>
       </c>
       <c r="D2223">
-        <v>1678</v>
+        <v>1658</v>
       </c>
       <c r="E2223" t="s">
         <v>2052</v>
@@ -44551,7 +44551,7 @@
         <v>7</v>
       </c>
       <c r="D2236">
-        <v>132.75</v>
+        <v>130.75</v>
       </c>
       <c r="E2236" t="s">
         <v>2053</v>
@@ -44568,7 +44568,7 @@
         <v>1</v>
       </c>
       <c r="D2237">
-        <v>1593</v>
+        <v>1569</v>
       </c>
       <c r="E2237" t="s">
         <v>2052</v>
@@ -45010,7 +45010,7 @@
         <v>10</v>
       </c>
       <c r="D2263">
-        <v>106.25</v>
+        <v>105</v>
       </c>
       <c r="E2263" t="s">
         <v>2053</v>
@@ -45027,7 +45027,7 @@
         <v>1</v>
       </c>
       <c r="D2264">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="E2264" t="s">
         <v>2052</v>
@@ -45044,7 +45044,7 @@
         <v>10</v>
       </c>
       <c r="D2265">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E2265" t="s">
         <v>2053</v>
@@ -45061,7 +45061,7 @@
         <v>1</v>
       </c>
       <c r="D2266">
-        <v>3000</v>
+        <v>2964</v>
       </c>
       <c r="E2266" t="s">
         <v>2052</v>
@@ -45418,7 +45418,7 @@
         <v>3</v>
       </c>
       <c r="D2287">
-        <v>125</v>
+        <v>123.75</v>
       </c>
       <c r="E2287" t="s">
         <v>2053</v>
@@ -45435,7 +45435,7 @@
         <v>1</v>
       </c>
       <c r="D2288">
-        <v>1750</v>
+        <v>1732.5</v>
       </c>
       <c r="E2288" t="s">
         <v>2052</v>
@@ -45452,7 +45452,7 @@
         <v>3</v>
       </c>
       <c r="D2289">
-        <v>213</v>
+        <v>210.5</v>
       </c>
       <c r="E2289" t="s">
         <v>2053</v>
@@ -45469,7 +45469,7 @@
         <v>1</v>
       </c>
       <c r="D2290">
-        <v>2130</v>
+        <v>2105</v>
       </c>
       <c r="E2290" t="s">
         <v>2052</v>
@@ -45486,7 +45486,7 @@
         <v>3</v>
       </c>
       <c r="D2291">
-        <v>61.42732301560195</v>
+        <v>60.67301104476056</v>
       </c>
       <c r="E2291" t="s">
         <v>2053</v>
@@ -45503,7 +45503,7 @@
         <v>1</v>
       </c>
       <c r="D2292">
-        <v>1228.546460312039</v>
+        <v>1213.460220895211</v>
       </c>
       <c r="E2292" t="s">
         <v>2052</v>
@@ -45520,7 +45520,7 @@
         <v>3</v>
       </c>
       <c r="D2293">
-        <v>61.21266429923658</v>
+        <v>60.4609882830722</v>
       </c>
       <c r="E2293" t="s">
         <v>2053</v>
@@ -45537,7 +45537,7 @@
         <v>1</v>
       </c>
       <c r="D2294">
-        <v>1224.253285984732</v>
+        <v>1209.219765661444</v>
       </c>
       <c r="E2294" t="s">
         <v>2052</v>
@@ -45690,7 +45690,7 @@
         <v>3</v>
       </c>
       <c r="D2303">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E2303" t="s">
         <v>2053</v>
@@ -45707,7 +45707,7 @@
         <v>1</v>
       </c>
       <c r="D2304">
-        <v>4680</v>
+        <v>4620</v>
       </c>
       <c r="E2304" t="s">
         <v>2052</v>
@@ -45724,7 +45724,7 @@
         <v>3</v>
       </c>
       <c r="D2305">
-        <v>877.5</v>
+        <v>866.25</v>
       </c>
       <c r="E2305" t="s">
         <v>2053</v>
@@ -45741,7 +45741,7 @@
         <v>1</v>
       </c>
       <c r="D2306">
-        <v>7020</v>
+        <v>6930</v>
       </c>
       <c r="E2306" t="s">
         <v>2052</v>
@@ -45792,7 +45792,7 @@
         <v>2</v>
       </c>
       <c r="D2309">
-        <v>309.25</v>
+        <v>311.75</v>
       </c>
       <c r="E2309" t="s">
         <v>2052</v>
@@ -45809,7 +45809,7 @@
         <v>1</v>
       </c>
       <c r="D2310">
-        <v>487.25</v>
+        <v>479.25</v>
       </c>
       <c r="E2310" t="s">
         <v>2052</v>
@@ -45826,7 +45826,7 @@
         <v>10</v>
       </c>
       <c r="D2311">
-        <v>110.75</v>
+        <v>109.75</v>
       </c>
       <c r="E2311" t="s">
         <v>2053</v>
@@ -45843,7 +45843,7 @@
         <v>1</v>
       </c>
       <c r="D2312">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="E2312" t="s">
         <v>2052</v>
@@ -45962,7 +45962,7 @@
         <v>23</v>
       </c>
       <c r="D2319">
-        <v>20.15794565160818</v>
+        <v>20.15803563386393</v>
       </c>
       <c r="E2319" t="s">
         <v>2053</v>
@@ -45979,7 +45979,7 @@
         <v>1</v>
       </c>
       <c r="D2320">
-        <v>362.8430217289472</v>
+        <v>362.8446414095508</v>
       </c>
       <c r="E2320" t="s">
         <v>2052</v>
@@ -45996,7 +45996,7 @@
         <v>23</v>
       </c>
       <c r="D2321">
-        <v>20.15488305497141</v>
+        <v>20.15535066094816</v>
       </c>
       <c r="E2321" t="s">
         <v>2053</v>
@@ -46013,7 +46013,7 @@
         <v>1</v>
       </c>
       <c r="D2322">
-        <v>362.7878949894853</v>
+        <v>362.7963118970669</v>
       </c>
       <c r="E2322" t="s">
         <v>2052</v>
@@ -46030,7 +46030,7 @@
         <v>3</v>
       </c>
       <c r="D2323">
-        <v>105.7224360332974</v>
+        <v>105.7224217257113</v>
       </c>
       <c r="E2323" t="s">
         <v>2053</v>
@@ -46047,7 +46047,7 @@
         <v>1</v>
       </c>
       <c r="D2324">
-        <v>845.7794882663795</v>
+        <v>845.7793738056905</v>
       </c>
       <c r="E2324" t="s">
         <v>2052</v>
@@ -46132,7 +46132,7 @@
         <v>3</v>
       </c>
       <c r="D2329">
-        <v>105.7225666524405</v>
+        <v>105.7225376687299</v>
       </c>
       <c r="E2329" t="s">
         <v>2053</v>
@@ -46149,7 +46149,7 @@
         <v>1</v>
       </c>
       <c r="D2330">
-        <v>845.7805332195244</v>
+        <v>845.7803013498395</v>
       </c>
       <c r="E2330" t="s">
         <v>2052</v>
@@ -46200,7 +46200,7 @@
         <v>3</v>
       </c>
       <c r="D2333">
-        <v>47.45748921207786</v>
+        <v>46.55546488502505</v>
       </c>
       <c r="E2333" t="s">
         <v>2053</v>
@@ -46217,7 +46217,7 @@
         <v>1</v>
       </c>
       <c r="D2334">
-        <v>284.7449352724672</v>
+        <v>279.3327893101503</v>
       </c>
       <c r="E2334" t="s">
         <v>2052</v>
@@ -46234,7 +46234,7 @@
         <v>3</v>
       </c>
       <c r="D2335">
-        <v>48.25</v>
+        <v>47.75</v>
       </c>
       <c r="E2335" t="s">
         <v>2053</v>
@@ -46251,7 +46251,7 @@
         <v>1</v>
       </c>
       <c r="D2336">
-        <v>289.5</v>
+        <v>286.5</v>
       </c>
       <c r="E2336" t="s">
         <v>2052</v>
@@ -46370,7 +46370,7 @@
         <v>1</v>
       </c>
       <c r="D2343">
-        <v>272.75</v>
+        <v>271</v>
       </c>
       <c r="E2343" t="s">
         <v>2052</v>
@@ -46557,7 +46557,7 @@
         <v>1</v>
       </c>
       <c r="D2354">
-        <v>23.74072511160544</v>
+        <v>23.4372975708502</v>
       </c>
       <c r="E2354" t="s">
         <v>2052</v>
@@ -46574,7 +46574,7 @@
         <v>1</v>
       </c>
       <c r="D2355">
-        <v>23.74072511160544</v>
+        <v>23.4372975708502</v>
       </c>
       <c r="E2355" t="s">
         <v>2052</v>
@@ -46591,7 +46591,7 @@
         <v>1</v>
       </c>
       <c r="D2356">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="E2356" t="s">
         <v>2052</v>
@@ -46744,7 +46744,7 @@
         <v>3</v>
       </c>
       <c r="D2365">
-        <v>103.75</v>
+        <v>102.25</v>
       </c>
       <c r="E2365" t="s">
         <v>2053</v>
@@ -46761,7 +46761,7 @@
         <v>1</v>
       </c>
       <c r="D2366">
-        <v>622.5</v>
+        <v>613.5</v>
       </c>
       <c r="E2366" t="s">
         <v>2052</v>
@@ -46778,7 +46778,7 @@
         <v>3</v>
       </c>
       <c r="D2367">
-        <v>108.75</v>
+        <v>107.25</v>
       </c>
       <c r="E2367" t="s">
         <v>2053</v>
@@ -46795,7 +46795,7 @@
         <v>1</v>
       </c>
       <c r="D2368">
-        <v>652.5</v>
+        <v>643.5</v>
       </c>
       <c r="E2368" t="s">
         <v>2052</v>
@@ -46812,7 +46812,7 @@
         <v>3</v>
       </c>
       <c r="D2369">
-        <v>109.75</v>
+        <v>108</v>
       </c>
       <c r="E2369" t="s">
         <v>2053</v>
@@ -46829,7 +46829,7 @@
         <v>1</v>
       </c>
       <c r="D2370">
-        <v>658.5</v>
+        <v>648</v>
       </c>
       <c r="E2370" t="s">
         <v>2052</v>
@@ -46846,7 +46846,7 @@
         <v>3</v>
       </c>
       <c r="D2371">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2371" t="s">
         <v>2053</v>
@@ -46863,7 +46863,7 @@
         <v>1</v>
       </c>
       <c r="D2372">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E2372" t="s">
         <v>2052</v>
@@ -46880,7 +46880,7 @@
         <v>3</v>
       </c>
       <c r="D2373">
-        <v>108.5</v>
+        <v>108</v>
       </c>
       <c r="E2373" t="s">
         <v>2053</v>
@@ -46897,7 +46897,7 @@
         <v>1</v>
       </c>
       <c r="D2374">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E2374" t="s">
         <v>2052</v>
@@ -46914,7 +46914,7 @@
         <v>3</v>
       </c>
       <c r="D2375">
-        <v>108</v>
+        <v>107.5</v>
       </c>
       <c r="E2375" t="s">
         <v>2053</v>
@@ -46931,7 +46931,7 @@
         <v>1</v>
       </c>
       <c r="D2376">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E2376" t="s">
         <v>2052</v>
@@ -46982,7 +46982,7 @@
         <v>3</v>
       </c>
       <c r="D2379">
-        <v>272.25</v>
+        <v>270.75</v>
       </c>
       <c r="E2379" t="s">
         <v>2053</v>
@@ -46999,7 +46999,7 @@
         <v>1</v>
       </c>
       <c r="D2380">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E2380" t="s">
         <v>2052</v>
@@ -47016,7 +47016,7 @@
         <v>1</v>
       </c>
       <c r="D2381">
-        <v>588.75</v>
+        <v>585.75</v>
       </c>
       <c r="E2381" t="s">
         <v>2052</v>
@@ -47033,7 +47033,7 @@
         <v>3</v>
       </c>
       <c r="D2382">
-        <v>47.25</v>
+        <v>46.5</v>
       </c>
       <c r="E2382" t="s">
         <v>2053</v>
@@ -47050,7 +47050,7 @@
         <v>1</v>
       </c>
       <c r="D2383">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E2383" t="s">
         <v>2052</v>
@@ -47067,7 +47067,7 @@
         <v>3</v>
       </c>
       <c r="D2384">
-        <v>46.67666911380793</v>
+        <v>45.67147270137204</v>
       </c>
       <c r="E2384" t="s">
         <v>2053</v>
@@ -47084,7 +47084,7 @@
         <v>1</v>
       </c>
       <c r="D2385">
-        <v>560.1200293656951</v>
+        <v>548.0576724164645</v>
       </c>
       <c r="E2385" t="s">
         <v>2052</v>
@@ -47101,7 +47101,7 @@
         <v>3</v>
       </c>
       <c r="D2386">
-        <v>46.67666911380793</v>
+        <v>45.67147270137205</v>
       </c>
       <c r="E2386" t="s">
         <v>2053</v>
@@ -47118,7 +47118,7 @@
         <v>1</v>
       </c>
       <c r="D2387">
-        <v>560.1200293656952</v>
+        <v>548.0576724164646</v>
       </c>
       <c r="E2387" t="s">
         <v>2052</v>
@@ -47135,7 +47135,7 @@
         <v>1</v>
       </c>
       <c r="D2388">
-        <v>700.25</v>
+        <v>688.5</v>
       </c>
       <c r="E2388" t="s">
         <v>2052</v>
@@ -47458,7 +47458,7 @@
         <v>68</v>
       </c>
       <c r="D2407">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E2407" t="s">
         <v>2053</v>
@@ -47475,7 +47475,7 @@
         <v>1</v>
       </c>
       <c r="D2408">
-        <v>6636</v>
+        <v>6552</v>
       </c>
       <c r="E2408" t="s">
         <v>2052</v>
@@ -47492,7 +47492,7 @@
         <v>7</v>
       </c>
       <c r="D2409">
-        <v>139.25</v>
+        <v>137.5</v>
       </c>
       <c r="E2409" t="s">
         <v>2053</v>
@@ -47509,7 +47509,7 @@
         <v>1</v>
       </c>
       <c r="D2410">
-        <v>2088.75</v>
+        <v>2062.5</v>
       </c>
       <c r="E2410" t="s">
         <v>2052</v>
@@ -47526,7 +47526,7 @@
         <v>7</v>
       </c>
       <c r="D2411">
-        <v>229.5</v>
+        <v>226.75</v>
       </c>
       <c r="E2411" t="s">
         <v>2053</v>
@@ -47543,7 +47543,7 @@
         <v>1</v>
       </c>
       <c r="D2412">
-        <v>4590</v>
+        <v>4535</v>
       </c>
       <c r="E2412" t="s">
         <v>2052</v>
@@ -47611,7 +47611,7 @@
         <v>1</v>
       </c>
       <c r="D2416">
-        <v>238.5</v>
+        <v>239</v>
       </c>
       <c r="E2416" t="s">
         <v>2052</v>
@@ -47696,7 +47696,7 @@
         <v>1</v>
       </c>
       <c r="D2421">
-        <v>402.642763715795</v>
+        <v>402.692327240024</v>
       </c>
       <c r="E2421" t="s">
         <v>2052</v>
@@ -47815,7 +47815,7 @@
         <v>10</v>
       </c>
       <c r="D2428">
-        <v>34.75892206612441</v>
+        <v>34.75909242537445</v>
       </c>
       <c r="E2428" t="s">
         <v>2053</v>
@@ -47832,7 +47832,7 @@
         <v>1</v>
       </c>
       <c r="D2429">
-        <v>417.107064793493</v>
+        <v>417.1091091044934</v>
       </c>
       <c r="E2429" t="s">
         <v>2052</v>
@@ -47849,7 +47849,7 @@
         <v>10</v>
       </c>
       <c r="D2430">
-        <v>34.75879129535438</v>
+        <v>34.75911834574335</v>
       </c>
       <c r="E2430" t="s">
         <v>2053</v>
@@ -47866,7 +47866,7 @@
         <v>1</v>
       </c>
       <c r="D2431">
-        <v>417.1054955442526</v>
+        <v>417.1094201489202</v>
       </c>
       <c r="E2431" t="s">
         <v>2052</v>
@@ -47883,7 +47883,7 @@
         <v>10</v>
       </c>
       <c r="D2432">
-        <v>34.75858931500468</v>
+        <v>34.75899708602044</v>
       </c>
       <c r="E2432" t="s">
         <v>2053</v>
@@ -47900,7 +47900,7 @@
         <v>1</v>
       </c>
       <c r="D2433">
-        <v>417.1030717800561</v>
+        <v>417.1079650322453</v>
       </c>
       <c r="E2433" t="s">
         <v>2052</v>
@@ -47917,7 +47917,7 @@
         <v>10</v>
       </c>
       <c r="D2434">
-        <v>34.75923763610547</v>
+        <v>34.75924157398442</v>
       </c>
       <c r="E2434" t="s">
         <v>2053</v>
@@ -47934,7 +47934,7 @@
         <v>1</v>
       </c>
       <c r="D2435">
-        <v>417.1108516332657</v>
+        <v>417.1108988878131</v>
       </c>
       <c r="E2435" t="s">
         <v>2052</v>
@@ -47985,7 +47985,7 @@
         <v>10</v>
       </c>
       <c r="D2438">
-        <v>31.75750453648334</v>
+        <v>31.78587463399255</v>
       </c>
       <c r="E2438" t="s">
         <v>2053</v>
@@ -48002,7 +48002,7 @@
         <v>1</v>
       </c>
       <c r="D2439">
-        <v>381.0900544378</v>
+        <v>381.4304956079106</v>
       </c>
       <c r="E2439" t="s">
         <v>2052</v>
@@ -48019,7 +48019,7 @@
         <v>10</v>
       </c>
       <c r="D2440">
-        <v>31.85835525407504</v>
+        <v>31.85835943697632</v>
       </c>
       <c r="E2440" t="s">
         <v>2053</v>
@@ -48036,7 +48036,7 @@
         <v>1</v>
       </c>
       <c r="D2441">
-        <v>382.3002630489004</v>
+        <v>382.3003132437158</v>
       </c>
       <c r="E2441" t="s">
         <v>2052</v>
@@ -48053,7 +48053,7 @@
         <v>10</v>
       </c>
       <c r="D2442">
-        <v>31.85837554464571</v>
+        <v>31.85837573232496</v>
       </c>
       <c r="E2442" t="s">
         <v>2053</v>
@@ -48070,7 +48070,7 @@
         <v>1</v>
       </c>
       <c r="D2443">
-        <v>382.3005065357486</v>
+        <v>382.3005087878994</v>
       </c>
       <c r="E2443" t="s">
         <v>2052</v>
@@ -48087,7 +48087,7 @@
         <v>3</v>
       </c>
       <c r="D2444">
-        <v>53.11725772301302</v>
+        <v>52.87172427145315</v>
       </c>
       <c r="E2444" t="s">
         <v>2053</v>
@@ -48104,7 +48104,7 @@
         <v>1</v>
       </c>
       <c r="D2445">
-        <v>637.4070926761563</v>
+        <v>634.4606912574377</v>
       </c>
       <c r="E2445" t="s">
         <v>2052</v>
@@ -48121,7 +48121,7 @@
         <v>3</v>
       </c>
       <c r="D2446">
-        <v>53.11727515594357</v>
+        <v>52.87174021400109</v>
       </c>
       <c r="E2446" t="s">
         <v>2053</v>
@@ -48138,7 +48138,7 @@
         <v>1</v>
       </c>
       <c r="D2447">
-        <v>637.4073018713228</v>
+        <v>634.4608825680132</v>
       </c>
       <c r="E2447" t="s">
         <v>2052</v>
@@ -48155,7 +48155,7 @@
         <v>3</v>
       </c>
       <c r="D2448">
-        <v>53.11724945552047</v>
+        <v>52.87171380877578</v>
       </c>
       <c r="E2448" t="s">
         <v>2053</v>
@@ -48172,7 +48172,7 @@
         <v>1</v>
       </c>
       <c r="D2449">
-        <v>637.4069934662457</v>
+        <v>634.4605657053094</v>
       </c>
       <c r="E2449" t="s">
         <v>2052</v>
@@ -48189,7 +48189,7 @@
         <v>7</v>
       </c>
       <c r="D2450">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="E2450" t="s">
         <v>2053</v>
@@ -48206,7 +48206,7 @@
         <v>1</v>
       </c>
       <c r="D2451">
-        <v>352.5</v>
+        <v>345</v>
       </c>
       <c r="E2451" t="s">
         <v>2052</v>
@@ -48291,7 +48291,7 @@
         <v>7</v>
       </c>
       <c r="D2456">
-        <v>11.51824914058304</v>
+        <v>11.34963593078054</v>
       </c>
       <c r="E2456" t="s">
         <v>2053</v>
@@ -48308,7 +48308,7 @@
         <v>1</v>
       </c>
       <c r="D2457">
-        <v>345.5474742174912</v>
+        <v>340.4890779234162</v>
       </c>
       <c r="E2457" t="s">
         <v>2052</v>
@@ -48325,7 +48325,7 @@
         <v>7</v>
       </c>
       <c r="D2458">
-        <v>11.51601044484032</v>
+        <v>11.34743000683068</v>
       </c>
       <c r="E2458" t="s">
         <v>2053</v>
@@ -48342,7 +48342,7 @@
         <v>1</v>
       </c>
       <c r="D2459">
-        <v>345.4803133452095</v>
+        <v>340.4229002049204</v>
       </c>
       <c r="E2459" t="s">
         <v>2052</v>
@@ -48359,7 +48359,7 @@
         <v>7</v>
       </c>
       <c r="D2460">
-        <v>38.95602420484457</v>
+        <v>38.38575521672384</v>
       </c>
       <c r="E2460" t="s">
         <v>2053</v>
@@ -48376,7 +48376,7 @@
         <v>1</v>
       </c>
       <c r="D2461">
-        <v>467.4722904581348</v>
+        <v>460.629062600686</v>
       </c>
       <c r="E2461" t="s">
         <v>2052</v>
@@ -48393,7 +48393,7 @@
         <v>7</v>
       </c>
       <c r="D2462">
-        <v>38.97137933666447</v>
+        <v>38.40088556802098</v>
       </c>
       <c r="E2462" t="s">
         <v>2053</v>
@@ -48410,7 +48410,7 @@
         <v>1</v>
       </c>
       <c r="D2463">
-        <v>467.6565520399736</v>
+        <v>460.8106268162518</v>
       </c>
       <c r="E2463" t="s">
         <v>2052</v>
@@ -48427,7 +48427,7 @@
         <v>7</v>
       </c>
       <c r="D2464">
-        <v>80.25</v>
+        <v>79</v>
       </c>
       <c r="E2464" t="s">
         <v>2053</v>
@@ -48444,7 +48444,7 @@
         <v>1</v>
       </c>
       <c r="D2465">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="E2465" t="s">
         <v>2052</v>
@@ -48461,7 +48461,7 @@
         <v>7</v>
       </c>
       <c r="D2466">
-        <v>80</v>
+        <v>78.75</v>
       </c>
       <c r="E2466" t="s">
         <v>2053</v>
@@ -48478,7 +48478,7 @@
         <v>1</v>
       </c>
       <c r="D2467">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="E2467" t="s">
         <v>2052</v>
@@ -48495,7 +48495,7 @@
         <v>7</v>
       </c>
       <c r="D2468">
-        <v>80.25</v>
+        <v>79</v>
       </c>
       <c r="E2468" t="s">
         <v>2053</v>
@@ -48512,7 +48512,7 @@
         <v>1</v>
       </c>
       <c r="D2469">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="E2469" t="s">
         <v>2052</v>
@@ -48529,7 +48529,7 @@
         <v>7</v>
       </c>
       <c r="D2470">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E2470" t="s">
         <v>2053</v>
@@ -48546,7 +48546,7 @@
         <v>1</v>
       </c>
       <c r="D2471">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E2471" t="s">
         <v>2052</v>
@@ -48597,7 +48597,7 @@
         <v>7</v>
       </c>
       <c r="D2474">
-        <v>38.97203337208035</v>
+        <v>38.41022675001836</v>
       </c>
       <c r="E2474" t="s">
         <v>2053</v>
@@ -48614,7 +48614,7 @@
         <v>1</v>
       </c>
       <c r="D2475">
-        <v>467.6644004649642</v>
+        <v>460.9227210002203</v>
       </c>
       <c r="E2475" t="s">
         <v>2052</v>
@@ -48631,7 +48631,7 @@
         <v>7</v>
       </c>
       <c r="D2476">
-        <v>38.97626381210277</v>
+        <v>38.41346809739985</v>
       </c>
       <c r="E2476" t="s">
         <v>2053</v>
@@ -48648,7 +48648,7 @@
         <v>1</v>
       </c>
       <c r="D2477">
-        <v>467.7151657452333</v>
+        <v>460.9616171687982</v>
       </c>
       <c r="E2477" t="s">
         <v>2052</v>
@@ -48665,7 +48665,7 @@
         <v>3</v>
       </c>
       <c r="D2478">
-        <v>75.20453978338888</v>
+        <v>74.50112572978485</v>
       </c>
       <c r="E2478" t="s">
         <v>2053</v>
@@ -48682,7 +48682,7 @@
         <v>1</v>
       </c>
       <c r="D2479">
-        <v>451.2272387003333</v>
+        <v>447.006754378709</v>
       </c>
       <c r="E2479" t="s">
         <v>2052</v>
@@ -48699,7 +48699,7 @@
         <v>3</v>
       </c>
       <c r="D2480">
-        <v>75.20433341322914</v>
+        <v>74.50096544274125</v>
       </c>
       <c r="E2480" t="s">
         <v>2053</v>
@@ -48716,7 +48716,7 @@
         <v>1</v>
       </c>
       <c r="D2481">
-        <v>451.2260004793748</v>
+        <v>447.0057926564475</v>
       </c>
       <c r="E2481" t="s">
         <v>2052</v>
@@ -48801,7 +48801,7 @@
         <v>1</v>
       </c>
       <c r="D2486">
-        <v>439.3925518050301</v>
+        <v>439.523300727467</v>
       </c>
       <c r="E2486" t="s">
         <v>2052</v>
@@ -48818,7 +48818,7 @@
         <v>1</v>
       </c>
       <c r="D2487">
-        <v>296.0361584031736</v>
+        <v>296.0410953415592</v>
       </c>
       <c r="E2487" t="s">
         <v>2052</v>
@@ -48835,7 +48835,7 @@
         <v>3</v>
       </c>
       <c r="D2488">
-        <v>106.5</v>
+        <v>104.75</v>
       </c>
       <c r="E2488" t="s">
         <v>2053</v>
@@ -48852,7 +48852,7 @@
         <v>1</v>
       </c>
       <c r="D2489">
-        <v>639</v>
+        <v>628.5</v>
       </c>
       <c r="E2489" t="s">
         <v>2052</v>
@@ -48869,7 +48869,7 @@
         <v>3</v>
       </c>
       <c r="D2490">
-        <v>108.3812630106613</v>
+        <v>108.1872022018695</v>
       </c>
       <c r="E2490" t="s">
         <v>2053</v>
@@ -48886,7 +48886,7 @@
         <v>1</v>
       </c>
       <c r="D2491">
-        <v>650.2875780639679</v>
+        <v>649.123213211217</v>
       </c>
       <c r="E2491" t="s">
         <v>2052</v>
@@ -48903,7 +48903,7 @@
         <v>3</v>
       </c>
       <c r="D2492">
-        <v>108.3533839533895</v>
+        <v>106.8184550895206</v>
       </c>
       <c r="E2492" t="s">
         <v>2053</v>
@@ -48920,7 +48920,7 @@
         <v>1</v>
       </c>
       <c r="D2493">
-        <v>650.1203037203368</v>
+        <v>640.9107305371239</v>
       </c>
       <c r="E2493" t="s">
         <v>2052</v>
@@ -48937,7 +48937,7 @@
         <v>3</v>
       </c>
       <c r="D2494">
-        <v>47.39810415891262</v>
+        <v>46.49848492751964</v>
       </c>
       <c r="E2494" t="s">
         <v>2053</v>
@@ -48954,7 +48954,7 @@
         <v>1</v>
       </c>
       <c r="D2495">
-        <v>284.3886249534757</v>
+        <v>278.9909095651178</v>
       </c>
       <c r="E2495" t="s">
         <v>2052</v>
@@ -48971,7 +48971,7 @@
         <v>3</v>
       </c>
       <c r="D2496">
-        <v>47.22927004445609</v>
+        <v>46.33285529600554</v>
       </c>
       <c r="E2496" t="s">
         <v>2053</v>
@@ -48988,7 +48988,7 @@
         <v>1</v>
       </c>
       <c r="D2497">
-        <v>283.3756202667365</v>
+        <v>277.9971317760333</v>
       </c>
       <c r="E2497" t="s">
         <v>2052</v>
@@ -49073,7 +49073,7 @@
         <v>3</v>
       </c>
       <c r="D2502">
-        <v>23.48722772351383</v>
+        <v>23.06821135331569</v>
       </c>
       <c r="E2502" t="s">
         <v>2053</v>
@@ -49090,7 +49090,7 @@
         <v>1</v>
       </c>
       <c r="D2503">
-        <v>281.846732682166</v>
+        <v>276.8185362397882</v>
       </c>
       <c r="E2503" t="s">
         <v>2052</v>
@@ -49107,7 +49107,7 @@
         <v>3</v>
       </c>
       <c r="D2504">
-        <v>23.48709141616986</v>
+        <v>23.06807986607039</v>
       </c>
       <c r="E2504" t="s">
         <v>2053</v>
@@ -49124,7 +49124,7 @@
         <v>1</v>
       </c>
       <c r="D2505">
-        <v>281.8450969940384</v>
+        <v>276.8169583928448</v>
       </c>
       <c r="E2505" t="s">
         <v>2052</v>
@@ -49311,7 +49311,7 @@
         <v>3</v>
       </c>
       <c r="D2516">
-        <v>23.47617105776309</v>
+        <v>23.0575455847775</v>
       </c>
       <c r="E2516" t="s">
         <v>2053</v>
@@ -49328,7 +49328,7 @@
         <v>1</v>
       </c>
       <c r="D2517">
-        <v>281.7140526931571</v>
+        <v>276.69054701733</v>
       </c>
       <c r="E2517" t="s">
         <v>2052</v>
@@ -49379,7 +49379,7 @@
         <v>3</v>
       </c>
       <c r="D2520">
-        <v>159.2432565262347</v>
+        <v>156.9418456739954</v>
       </c>
       <c r="E2520" t="s">
         <v>2053</v>
@@ -49396,7 +49396,7 @@
         <v>1</v>
       </c>
       <c r="D2521">
-        <v>1910.919078314816</v>
+        <v>1883.302148087945</v>
       </c>
       <c r="E2521" t="s">
         <v>2052</v>
@@ -49413,7 +49413,7 @@
         <v>3</v>
       </c>
       <c r="D2522">
-        <v>159.2423149862736</v>
+        <v>156.9359224715816</v>
       </c>
       <c r="E2522" t="s">
         <v>2053</v>
@@ -49430,7 +49430,7 @@
         <v>1</v>
       </c>
       <c r="D2523">
-        <v>1910.907779835283</v>
+        <v>1883.231069658979</v>
       </c>
       <c r="E2523" t="s">
         <v>2052</v>
@@ -49447,7 +49447,7 @@
         <v>3</v>
       </c>
       <c r="D2524">
-        <v>159.25</v>
+        <v>157</v>
       </c>
       <c r="E2524" t="s">
         <v>2053</v>
@@ -49464,7 +49464,7 @@
         <v>1</v>
       </c>
       <c r="D2525">
-        <v>1911</v>
+        <v>1884</v>
       </c>
       <c r="E2525" t="s">
         <v>2052</v>
@@ -49481,7 +49481,7 @@
         <v>3</v>
       </c>
       <c r="D2526">
-        <v>93.59956757499761</v>
+        <v>92.22938332804118</v>
       </c>
       <c r="E2526" t="s">
         <v>2053</v>
@@ -49498,7 +49498,7 @@
         <v>1</v>
       </c>
       <c r="D2527">
-        <v>1123.194810899971</v>
+        <v>1106.752599936494</v>
       </c>
       <c r="E2527" t="s">
         <v>2052</v>
@@ -49515,7 +49515,7 @@
         <v>3</v>
       </c>
       <c r="D2528">
-        <v>93.62346623280339</v>
+        <v>92.25293213845667</v>
       </c>
       <c r="E2528" t="s">
         <v>2053</v>
@@ -49532,7 +49532,7 @@
         <v>1</v>
       </c>
       <c r="D2529">
-        <v>1123.481594793641</v>
+        <v>1107.03518566148</v>
       </c>
       <c r="E2529" t="s">
         <v>2052</v>
@@ -49583,7 +49583,7 @@
         <v>3</v>
       </c>
       <c r="D2532">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="E2532" t="s">
         <v>2053</v>
@@ -49600,7 +49600,7 @@
         <v>1</v>
       </c>
       <c r="D2533">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E2533" t="s">
         <v>2052</v>
@@ -49617,7 +49617,7 @@
         <v>3</v>
       </c>
       <c r="D2534">
-        <v>35.5</v>
+        <v>35.25</v>
       </c>
       <c r="E2534" t="s">
         <v>2053</v>
@@ -49634,7 +49634,7 @@
         <v>1</v>
       </c>
       <c r="D2535">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E2535" t="s">
         <v>2052</v>
@@ -49651,7 +49651,7 @@
         <v>3</v>
       </c>
       <c r="D2536">
-        <v>26.5</v>
+        <v>26.25</v>
       </c>
       <c r="E2536" t="s">
         <v>2053</v>
@@ -49668,7 +49668,7 @@
         <v>1</v>
       </c>
       <c r="D2537">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="E2537" t="s">
         <v>2052</v>
@@ -49685,7 +49685,7 @@
         <v>3</v>
       </c>
       <c r="D2538">
-        <v>52.25</v>
+        <v>51.75</v>
       </c>
       <c r="E2538" t="s">
         <v>2053</v>
@@ -49702,7 +49702,7 @@
         <v>1</v>
       </c>
       <c r="D2539">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="E2539" t="s">
         <v>2052</v>
@@ -49719,7 +49719,7 @@
         <v>3</v>
       </c>
       <c r="D2540">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="E2540" t="s">
         <v>2053</v>
@@ -49736,7 +49736,7 @@
         <v>1</v>
       </c>
       <c r="D2541">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E2541" t="s">
         <v>2052</v>
@@ -49753,7 +49753,7 @@
         <v>3</v>
       </c>
       <c r="D2542">
-        <v>36.75</v>
+        <v>36.5</v>
       </c>
       <c r="E2542" t="s">
         <v>2053</v>
@@ -49770,7 +49770,7 @@
         <v>1</v>
       </c>
       <c r="D2543">
-        <v>1102.5</v>
+        <v>1095</v>
       </c>
       <c r="E2543" t="s">
         <v>2052</v>
@@ -49787,7 +49787,7 @@
         <v>3</v>
       </c>
       <c r="D2544">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="E2544" t="s">
         <v>2053</v>
@@ -49804,7 +49804,7 @@
         <v>1</v>
       </c>
       <c r="D2545">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="E2545" t="s">
         <v>2052</v>
@@ -49889,7 +49889,7 @@
         <v>2</v>
       </c>
       <c r="D2550">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E2550" t="s">
         <v>2052</v>
@@ -49906,7 +49906,7 @@
         <v>2</v>
       </c>
       <c r="D2551">
-        <v>465.5</v>
+        <v>462</v>
       </c>
       <c r="E2551" t="s">
         <v>2052</v>
@@ -49923,7 +49923,7 @@
         <v>2</v>
       </c>
       <c r="D2552">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E2552" t="s">
         <v>2052</v>
@@ -49940,7 +49940,7 @@
         <v>2</v>
       </c>
       <c r="D2553">
-        <v>304.75</v>
+        <v>302.75</v>
       </c>
       <c r="E2553" t="s">
         <v>2052</v>
@@ -49957,7 +49957,7 @@
         <v>1</v>
       </c>
       <c r="D2554">
-        <v>118</v>
+        <v>116.5</v>
       </c>
       <c r="E2554" t="s">
         <v>2052</v>
@@ -49974,7 +49974,7 @@
         <v>1</v>
       </c>
       <c r="D2555">
-        <v>120</v>
+        <v>118.5</v>
       </c>
       <c r="E2555" t="s">
         <v>2052</v>
@@ -49991,7 +49991,7 @@
         <v>1</v>
       </c>
       <c r="D2556">
-        <v>212</v>
+        <v>209.25</v>
       </c>
       <c r="E2556" t="s">
         <v>2052</v>
@@ -50008,7 +50008,7 @@
         <v>1</v>
       </c>
       <c r="D2557">
-        <v>209</v>
+        <v>207.5</v>
       </c>
       <c r="E2557" t="s">
         <v>2052</v>
@@ -50025,7 +50025,7 @@
         <v>2</v>
       </c>
       <c r="D2558">
-        <v>302</v>
+        <v>296.75</v>
       </c>
       <c r="E2558" t="s">
         <v>2053</v>
@@ -50042,7 +50042,7 @@
         <v>1</v>
       </c>
       <c r="D2559">
-        <v>1812</v>
+        <v>1780.5</v>
       </c>
       <c r="E2559" t="s">
         <v>2052</v>
@@ -50059,7 +50059,7 @@
         <v>1</v>
       </c>
       <c r="D2560">
-        <v>310</v>
+        <v>307.5</v>
       </c>
       <c r="E2560" t="s">
         <v>2052</v>
@@ -50076,7 +50076,7 @@
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>310</v>
+        <v>307.5</v>
       </c>
       <c r="E2561" t="s">
         <v>2052</v>
@@ -50161,7 +50161,7 @@
         <v>2</v>
       </c>
       <c r="D2566">
-        <v>168</v>
+        <v>166.75</v>
       </c>
       <c r="E2566" t="s">
         <v>2053</v>
@@ -50178,7 +50178,7 @@
         <v>1</v>
       </c>
       <c r="D2567">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E2567" t="s">
         <v>2052</v>
@@ -50195,7 +50195,7 @@
         <v>2</v>
       </c>
       <c r="D2568">
-        <v>178.25</v>
+        <v>176.75</v>
       </c>
       <c r="E2568" t="s">
         <v>2053</v>
@@ -50212,7 +50212,7 @@
         <v>1</v>
       </c>
       <c r="D2569">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E2569" t="s">
         <v>2052</v>
@@ -50229,7 +50229,7 @@
         <v>2</v>
       </c>
       <c r="D2570">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="E2570" t="s">
         <v>2053</v>
@@ -50246,7 +50246,7 @@
         <v>1</v>
       </c>
       <c r="D2571">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E2571" t="s">
         <v>2052</v>
@@ -50297,7 +50297,7 @@
         <v>10</v>
       </c>
       <c r="D2574">
-        <v>34.75923034802662</v>
+        <v>34.7592422744079</v>
       </c>
       <c r="E2574" t="s">
         <v>2053</v>
@@ -50314,7 +50314,7 @@
         <v>1</v>
       </c>
       <c r="D2575">
-        <v>417.1107641763194</v>
+        <v>417.1109072928948</v>
       </c>
       <c r="E2575" t="s">
         <v>2052</v>
@@ -50331,7 +50331,7 @@
         <v>10</v>
       </c>
       <c r="D2576">
-        <v>34.75924103894154</v>
+        <v>34.75924225120624</v>
       </c>
       <c r="E2576" t="s">
         <v>2053</v>
@@ -50348,7 +50348,7 @@
         <v>1</v>
       </c>
       <c r="D2577">
-        <v>417.1108924672985</v>
+        <v>417.1109070144748</v>
       </c>
       <c r="E2577" t="s">
         <v>2052</v>
@@ -50365,7 +50365,7 @@
         <v>10</v>
       </c>
       <c r="D2578">
-        <v>34.75874879429566</v>
+        <v>34.75914860809613</v>
       </c>
       <c r="E2578" t="s">
         <v>2053</v>
@@ -50382,7 +50382,7 @@
         <v>1</v>
       </c>
       <c r="D2579">
-        <v>417.1049855315479</v>
+        <v>417.1097832971535</v>
       </c>
       <c r="E2579" t="s">
         <v>2052</v>
@@ -50399,7 +50399,7 @@
         <v>1</v>
       </c>
       <c r="D2580">
-        <v>211.75</v>
+        <v>209.25</v>
       </c>
       <c r="E2580" t="s">
         <v>2052</v>
@@ -50467,7 +50467,7 @@
         <v>7</v>
       </c>
       <c r="D2584">
-        <v>11.515957665981</v>
+        <v>11.3473780005899</v>
       </c>
       <c r="E2584" t="s">
         <v>2053</v>
@@ -50484,7 +50484,7 @@
         <v>1</v>
       </c>
       <c r="D2585">
-        <v>345.4787299794299</v>
+        <v>340.421340017697</v>
       </c>
       <c r="E2585" t="s">
         <v>2052</v>
@@ -50501,7 +50501,7 @@
         <v>7</v>
       </c>
       <c r="D2586">
-        <v>11.51826230127231</v>
+        <v>11.34964889881327</v>
       </c>
       <c r="E2586" t="s">
         <v>2053</v>
@@ -50518,7 +50518,7 @@
         <v>1</v>
       </c>
       <c r="D2587">
-        <v>345.5478690381694</v>
+        <v>340.4894669643982</v>
       </c>
       <c r="E2587" t="s">
         <v>2052</v>
@@ -50535,7 +50535,7 @@
         <v>10</v>
       </c>
       <c r="D2588">
-        <v>146.75</v>
+        <v>150</v>
       </c>
       <c r="E2588" t="s">
         <v>2053</v>
@@ -50552,7 +50552,7 @@
         <v>1</v>
       </c>
       <c r="D2589">
-        <v>1761</v>
+        <v>1800</v>
       </c>
       <c r="E2589" t="s">
         <v>2052</v>
@@ -50773,7 +50773,7 @@
         <v>2</v>
       </c>
       <c r="D2602">
-        <v>361.75</v>
+        <v>359</v>
       </c>
       <c r="E2602" t="s">
         <v>2052</v>
@@ -50858,7 +50858,7 @@
         <v>1</v>
       </c>
       <c r="D2607">
-        <v>239.7309005732714</v>
+        <v>237.9767570469149</v>
       </c>
       <c r="E2607" t="s">
         <v>2052</v>
@@ -50875,7 +50875,7 @@
         <v>1</v>
       </c>
       <c r="D2608">
-        <v>240.5124662537289</v>
+        <v>238.7526039052451</v>
       </c>
       <c r="E2608" t="s">
         <v>2052</v>
@@ -50892,7 +50892,7 @@
         <v>1</v>
       </c>
       <c r="D2609">
-        <v>240.3142147692864</v>
+        <v>238.5558030538132</v>
       </c>
       <c r="E2609" t="s">
         <v>2052</v>
@@ -50909,7 +50909,7 @@
         <v>1</v>
       </c>
       <c r="D2610">
-        <v>239.378804683704</v>
+        <v>237.75</v>
       </c>
       <c r="E2610" t="s">
         <v>2052</v>
@@ -50926,7 +50926,7 @@
         <v>1</v>
       </c>
       <c r="D2611">
-        <v>240.7392049090656</v>
+        <v>238.9776834830766</v>
       </c>
       <c r="E2611" t="s">
         <v>2052</v>
@@ -51028,7 +51028,7 @@
         <v>1</v>
       </c>
       <c r="D2617">
-        <v>132</v>
+        <v>130.5</v>
       </c>
       <c r="E2617" t="s">
         <v>2052</v>
@@ -51045,7 +51045,7 @@
         <v>1</v>
       </c>
       <c r="D2618">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2618" t="s">
         <v>2052</v>
@@ -51062,7 +51062,7 @@
         <v>1</v>
       </c>
       <c r="D2619">
-        <v>314.5</v>
+        <v>310.5</v>
       </c>
       <c r="E2619" t="s">
         <v>2052</v>
@@ -51079,7 +51079,7 @@
         <v>1</v>
       </c>
       <c r="D2620">
-        <v>707.75</v>
+        <v>699.25</v>
       </c>
       <c r="E2620" t="s">
         <v>2052</v>
@@ -51130,7 +51130,7 @@
         <v>1</v>
       </c>
       <c r="D2623">
-        <v>609.5</v>
+        <v>601.5</v>
       </c>
       <c r="E2623" t="s">
         <v>2052</v>
@@ -51181,7 +51181,7 @@
         <v>1</v>
       </c>
       <c r="D2626">
-        <v>537.25</v>
+        <v>538</v>
       </c>
       <c r="E2626" t="s">
         <v>2052</v>
@@ -51232,7 +51232,7 @@
         <v>3</v>
       </c>
       <c r="D2629">
-        <v>29.5</v>
+        <v>30.75</v>
       </c>
       <c r="E2629" t="s">
         <v>2053</v>
@@ -51249,7 +51249,7 @@
         <v>1</v>
       </c>
       <c r="D2630">
-        <v>885</v>
+        <v>922.5</v>
       </c>
       <c r="E2630" t="s">
         <v>2052</v>
@@ -51266,7 +51266,7 @@
         <v>3</v>
       </c>
       <c r="D2631">
-        <v>51.5</v>
+        <v>52.5</v>
       </c>
       <c r="E2631" t="s">
         <v>2053</v>
@@ -51283,7 +51283,7 @@
         <v>1</v>
       </c>
       <c r="D2632">
-        <v>1236</v>
+        <v>1260</v>
       </c>
       <c r="E2632" t="s">
         <v>2052</v>
@@ -51334,7 +51334,7 @@
         <v>3</v>
       </c>
       <c r="D2635">
-        <v>100.2999837427038</v>
+        <v>101.5866829997505</v>
       </c>
       <c r="E2635" t="s">
         <v>2053</v>
@@ -51351,7 +51351,7 @@
         <v>1</v>
       </c>
       <c r="D2636">
-        <v>1203.599804912446</v>
+        <v>1219.040195997006</v>
       </c>
       <c r="E2636" t="s">
         <v>2052</v>
@@ -51368,7 +51368,7 @@
         <v>3</v>
       </c>
       <c r="D2637">
-        <v>100.2606521460087</v>
+        <v>100.8192988092621</v>
       </c>
       <c r="E2637" t="s">
         <v>2053</v>
@@ -51385,7 +51385,7 @@
         <v>1</v>
       </c>
       <c r="D2638">
-        <v>1203.127825752104</v>
+        <v>1209.831585711145</v>
       </c>
       <c r="E2638" t="s">
         <v>2052</v>
@@ -51538,7 +51538,7 @@
         <v>2</v>
       </c>
       <c r="D2647">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2647" t="s">
         <v>2053</v>
@@ -51555,7 +51555,7 @@
         <v>1</v>
       </c>
       <c r="D2648">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="E2648" t="s">
         <v>2052</v>
@@ -51572,7 +51572,7 @@
         <v>1</v>
       </c>
       <c r="D2649">
-        <v>645.75</v>
+        <v>640.75</v>
       </c>
       <c r="E2649" t="s">
         <v>2052</v>
@@ -51589,7 +51589,7 @@
         <v>1</v>
       </c>
       <c r="D2650">
-        <v>683.75</v>
+        <v>678.5</v>
       </c>
       <c r="E2650" t="s">
         <v>2052</v>
@@ -51623,7 +51623,7 @@
         <v>2</v>
       </c>
       <c r="D2652">
-        <v>399.75</v>
+        <v>395.75</v>
       </c>
       <c r="E2652" t="s">
         <v>2052</v>
@@ -51844,7 +51844,7 @@
         <v>3</v>
       </c>
       <c r="D2665">
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="E2665" t="s">
         <v>2053</v>
@@ -51861,7 +51861,7 @@
         <v>1</v>
       </c>
       <c r="D2666">
-        <v>1920</v>
+        <v>1908</v>
       </c>
       <c r="E2666" t="s">
         <v>2052</v>
@@ -51878,7 +51878,7 @@
         <v>2</v>
       </c>
       <c r="D2667">
-        <v>189.25</v>
+        <v>187.5</v>
       </c>
       <c r="E2667" t="s">
         <v>2053</v>
@@ -51895,7 +51895,7 @@
         <v>1</v>
       </c>
       <c r="D2668">
-        <v>2271</v>
+        <v>2250</v>
       </c>
       <c r="E2668" t="s">
         <v>2052</v>
@@ -51946,7 +51946,7 @@
         <v>2</v>
       </c>
       <c r="D2671">
-        <v>1066.75</v>
+        <v>1061.5</v>
       </c>
       <c r="E2671" t="s">
         <v>2053</v>
@@ -51963,7 +51963,7 @@
         <v>1</v>
       </c>
       <c r="D2672">
-        <v>3200.25</v>
+        <v>3184.5</v>
       </c>
       <c r="E2672" t="s">
         <v>2052</v>
@@ -52337,7 +52337,7 @@
         <v>1</v>
       </c>
       <c r="D2694">
-        <v>525.75</v>
+        <v>527.25</v>
       </c>
       <c r="E2694" t="s">
         <v>2052</v>
@@ -52592,7 +52592,7 @@
         <v>7</v>
       </c>
       <c r="D2709">
-        <v>12.5</v>
+        <v>12.25</v>
       </c>
       <c r="E2709" t="s">
         <v>2053</v>
@@ -52609,7 +52609,7 @@
         <v>1</v>
       </c>
       <c r="D2710">
-        <v>375</v>
+        <v>367.5</v>
       </c>
       <c r="E2710" t="s">
         <v>2052</v>
@@ -52626,7 +52626,7 @@
         <v>7</v>
       </c>
       <c r="D2711">
-        <v>40.5</v>
+        <v>39.75</v>
       </c>
       <c r="E2711" t="s">
         <v>2053</v>
@@ -52643,7 +52643,7 @@
         <v>1</v>
       </c>
       <c r="D2712">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E2712" t="s">
         <v>2052</v>
@@ -52660,7 +52660,7 @@
         <v>7</v>
       </c>
       <c r="D2713">
-        <v>40.3863827697858</v>
+        <v>39.79517506555818</v>
       </c>
       <c r="E2713" t="s">
         <v>2053</v>
@@ -52677,7 +52677,7 @@
         <v>1</v>
       </c>
       <c r="D2714">
-        <v>484.6365932374297</v>
+        <v>477.5421007866981</v>
       </c>
       <c r="E2714" t="s">
         <v>2052</v>
@@ -52694,7 +52694,7 @@
         <v>7</v>
       </c>
       <c r="D2715">
-        <v>40.38629095513468</v>
+        <v>39.79508459496229</v>
       </c>
       <c r="E2715" t="s">
         <v>2053</v>
@@ -52711,7 +52711,7 @@
         <v>1</v>
       </c>
       <c r="D2716">
-        <v>484.6354914616162</v>
+        <v>477.5410151395475</v>
       </c>
       <c r="E2716" t="s">
         <v>2052</v>
@@ -52728,7 +52728,7 @@
         <v>7</v>
       </c>
       <c r="D2717">
-        <v>77.75</v>
+        <v>76.75</v>
       </c>
       <c r="E2717" t="s">
         <v>2053</v>
@@ -52745,7 +52745,7 @@
         <v>1</v>
       </c>
       <c r="D2718">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="E2718" t="s">
         <v>2052</v>
@@ -52762,7 +52762,7 @@
         <v>3</v>
       </c>
       <c r="D2719">
-        <v>155.75</v>
+        <v>153.25</v>
       </c>
       <c r="E2719" t="s">
         <v>2053</v>
@@ -52779,7 +52779,7 @@
         <v>1</v>
       </c>
       <c r="D2720">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="E2720" t="s">
         <v>2052</v>
@@ -52796,7 +52796,7 @@
         <v>3</v>
       </c>
       <c r="D2721">
-        <v>116.75</v>
+        <v>115</v>
       </c>
       <c r="E2721" t="s">
         <v>2053</v>
@@ -52813,7 +52813,7 @@
         <v>1</v>
       </c>
       <c r="D2722">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="E2722" t="s">
         <v>2052</v>
@@ -52830,7 +52830,7 @@
         <v>7</v>
       </c>
       <c r="D2723">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E2723" t="s">
         <v>2053</v>
@@ -52847,7 +52847,7 @@
         <v>1</v>
       </c>
       <c r="D2724">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E2724" t="s">
         <v>2052</v>
@@ -52864,7 +52864,7 @@
         <v>7</v>
       </c>
       <c r="D2725">
-        <v>77.75</v>
+        <v>76.75</v>
       </c>
       <c r="E2725" t="s">
         <v>2053</v>
@@ -52881,7 +52881,7 @@
         <v>1</v>
       </c>
       <c r="D2726">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="E2726" t="s">
         <v>2052</v>
@@ -52898,7 +52898,7 @@
         <v>3</v>
       </c>
       <c r="D2727">
-        <v>119.75</v>
+        <v>118</v>
       </c>
       <c r="E2727" t="s">
         <v>2053</v>
@@ -52915,7 +52915,7 @@
         <v>1</v>
       </c>
       <c r="D2728">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="E2728" t="s">
         <v>2052</v>
@@ -54275,7 +54275,7 @@
         <v>1</v>
       </c>
       <c r="D2808">
-        <v>874.5</v>
+        <v>877.5</v>
       </c>
       <c r="E2808" t="s">
         <v>2052</v>
@@ -54309,7 +54309,7 @@
         <v>1</v>
       </c>
       <c r="D2810">
-        <v>402.7558651734451</v>
+        <v>402.7651130131816</v>
       </c>
       <c r="E2810" t="s">
         <v>2052</v>
@@ -54377,7 +54377,7 @@
         <v>1</v>
       </c>
       <c r="D2814">
-        <v>296.0473311379482</v>
+        <v>296.0475637948571</v>
       </c>
       <c r="E2814" t="s">
         <v>2052</v>
@@ -54394,7 +54394,7 @@
         <v>1</v>
       </c>
       <c r="D2815">
-        <v>296.0469104308899</v>
+        <v>296.047175404177</v>
       </c>
       <c r="E2815" t="s">
         <v>2052</v>
@@ -54411,7 +54411,7 @@
         <v>22</v>
       </c>
       <c r="D2816">
-        <v>128</v>
+        <v>126.75</v>
       </c>
       <c r="E2816" t="s">
         <v>2052</v>
@@ -55040,7 +55040,7 @@
         <v>1</v>
       </c>
       <c r="D2853">
-        <v>146.5</v>
+        <v>144.75</v>
       </c>
       <c r="E2853" t="s">
         <v>2052</v>
@@ -55057,7 +55057,7 @@
         <v>1</v>
       </c>
       <c r="D2854">
-        <v>147.5</v>
+        <v>146</v>
       </c>
       <c r="E2854" t="s">
         <v>2052</v>
@@ -55074,7 +55074,7 @@
         <v>2</v>
       </c>
       <c r="D2855">
-        <v>402.5</v>
+        <v>398.25</v>
       </c>
       <c r="E2855" t="s">
         <v>2053</v>
@@ -55091,7 +55091,7 @@
         <v>1</v>
       </c>
       <c r="D2856">
-        <v>805</v>
+        <v>796.5</v>
       </c>
       <c r="E2856" t="s">
         <v>2052</v>
@@ -55108,7 +55108,7 @@
         <v>2</v>
       </c>
       <c r="D2857">
-        <v>394.25</v>
+        <v>390.25</v>
       </c>
       <c r="E2857" t="s">
         <v>2053</v>
@@ -55125,7 +55125,7 @@
         <v>1</v>
       </c>
       <c r="D2858">
-        <v>788.5</v>
+        <v>780.5</v>
       </c>
       <c r="E2858" t="s">
         <v>2052</v>
@@ -55142,7 +55142,7 @@
         <v>2</v>
       </c>
       <c r="D2859">
-        <v>228.8852133914473</v>
+        <v>226.4334193433791</v>
       </c>
       <c r="E2859" t="s">
         <v>2053</v>
@@ -55159,7 +55159,7 @@
         <v>1</v>
       </c>
       <c r="D2860">
-        <v>915.540853565789</v>
+        <v>905.7336773735163</v>
       </c>
       <c r="E2860" t="s">
         <v>2052</v>
@@ -55176,7 +55176,7 @@
         <v>2</v>
       </c>
       <c r="D2861">
-        <v>227.8024560503133</v>
+        <v>225.3622603836572</v>
       </c>
       <c r="E2861" t="s">
         <v>2053</v>
@@ -55193,7 +55193,7 @@
         <v>1</v>
       </c>
       <c r="D2862">
-        <v>911.2098242012534</v>
+        <v>901.4490415346289</v>
       </c>
       <c r="E2862" t="s">
         <v>2052</v>
@@ -55839,7 +55839,7 @@
         <v>1</v>
       </c>
       <c r="D2900">
-        <v>763.0001667604553</v>
+        <v>763.1800212916593</v>
       </c>
       <c r="E2900" t="s">
         <v>2052</v>
@@ -55856,7 +55856,7 @@
         <v>1</v>
       </c>
       <c r="D2901">
-        <v>596.75</v>
+        <v>597</v>
       </c>
       <c r="E2901" t="s">
         <v>2052</v>
@@ -56009,7 +56009,7 @@
         <v>3</v>
       </c>
       <c r="D2910">
-        <v>85.25</v>
+        <v>84</v>
       </c>
       <c r="E2910" t="s">
         <v>2053</v>
@@ -56026,7 +56026,7 @@
         <v>1</v>
       </c>
       <c r="D2911">
-        <v>511.5</v>
+        <v>504</v>
       </c>
       <c r="E2911" t="s">
         <v>2052</v>
@@ -56043,7 +56043,7 @@
         <v>3</v>
       </c>
       <c r="D2912">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="E2912" t="s">
         <v>2053</v>
@@ -56060,7 +56060,7 @@
         <v>1</v>
       </c>
       <c r="D2913">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E2913" t="s">
         <v>2052</v>
@@ -56077,7 +56077,7 @@
         <v>3</v>
       </c>
       <c r="D2914">
-        <v>64.25</v>
+        <v>63.5</v>
       </c>
       <c r="E2914" t="s">
         <v>2053</v>
@@ -56094,7 +56094,7 @@
         <v>1</v>
       </c>
       <c r="D2915">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E2915" t="s">
         <v>2052</v>
@@ -56111,7 +56111,7 @@
         <v>10</v>
       </c>
       <c r="D2916">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="E2916" t="s">
         <v>2053</v>
@@ -56128,7 +56128,7 @@
         <v>1</v>
       </c>
       <c r="D2917">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E2917" t="s">
         <v>2052</v>
@@ -56145,7 +56145,7 @@
         <v>10</v>
       </c>
       <c r="D2918">
-        <v>42.75</v>
+        <v>42.25</v>
       </c>
       <c r="E2918" t="s">
         <v>2053</v>
@@ -56162,7 +56162,7 @@
         <v>1</v>
       </c>
       <c r="D2919">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E2919" t="s">
         <v>2052</v>
@@ -56179,7 +56179,7 @@
         <v>10</v>
       </c>
       <c r="D2920">
-        <v>62</v>
+        <v>61.5</v>
       </c>
       <c r="E2920" t="s">
         <v>2053</v>
@@ -56196,7 +56196,7 @@
         <v>1</v>
       </c>
       <c r="D2921">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E2921" t="s">
         <v>2052</v>
@@ -56213,7 +56213,7 @@
         <v>10</v>
       </c>
       <c r="D2922">
-        <v>63.5</v>
+        <v>62.75</v>
       </c>
       <c r="E2922" t="s">
         <v>2053</v>
@@ -56230,7 +56230,7 @@
         <v>1</v>
       </c>
       <c r="D2923">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E2923" t="s">
         <v>2052</v>
@@ -56247,7 +56247,7 @@
         <v>2</v>
       </c>
       <c r="D2924">
-        <v>89.99335889997018</v>
+        <v>89.10054491858482</v>
       </c>
       <c r="E2924" t="s">
         <v>2053</v>
@@ -56264,7 +56264,7 @@
         <v>1</v>
       </c>
       <c r="D2925">
-        <v>719.9468711997614</v>
+        <v>712.8043593486785</v>
       </c>
       <c r="E2925" t="s">
         <v>2052</v>
@@ -56281,7 +56281,7 @@
         <v>2</v>
       </c>
       <c r="D2926">
-        <v>90.28451782241059</v>
+        <v>89.38881528613699</v>
       </c>
       <c r="E2926" t="s">
         <v>2053</v>
@@ -56298,7 +56298,7 @@
         <v>1</v>
       </c>
       <c r="D2927">
-        <v>722.2761425792847</v>
+        <v>715.1105222890959</v>
       </c>
       <c r="E2927" t="s">
         <v>2052</v>
@@ -57216,7 +57216,7 @@
         <v>3</v>
       </c>
       <c r="D2981">
-        <v>57.37781554752108</v>
+        <v>57.37781554752107</v>
       </c>
       <c r="E2981" t="s">
         <v>2053</v>
@@ -57964,7 +57964,7 @@
         <v>68</v>
       </c>
       <c r="D3025">
-        <v>567.5</v>
+        <v>560.5</v>
       </c>
       <c r="E3025" t="s">
         <v>2053</v>
@@ -57981,7 +57981,7 @@
         <v>1</v>
       </c>
       <c r="D3026">
-        <v>6810</v>
+        <v>6726</v>
       </c>
       <c r="E3026" t="s">
         <v>2052</v>
@@ -57998,7 +57998,7 @@
         <v>1</v>
       </c>
       <c r="D3027">
-        <v>296.0362718838503</v>
+        <v>296.0361615045288</v>
       </c>
       <c r="E3027" t="s">
         <v>2052</v>
@@ -58015,7 +58015,7 @@
         <v>1</v>
       </c>
       <c r="D3028">
-        <v>296.0360313083959</v>
+        <v>296.0360329290943</v>
       </c>
       <c r="E3028" t="s">
         <v>2052</v>
@@ -58032,7 +58032,7 @@
         <v>1</v>
       </c>
       <c r="D3029">
-        <v>296.0362274653584</v>
+        <v>296.036280480908</v>
       </c>
       <c r="E3029" t="s">
         <v>2052</v>
@@ -58134,7 +58134,7 @@
         <v>2</v>
       </c>
       <c r="D3035">
-        <v>311.5</v>
+        <v>309.25</v>
       </c>
       <c r="E3035" t="s">
         <v>2052</v>
@@ -58151,7 +58151,7 @@
         <v>2</v>
       </c>
       <c r="D3036">
-        <v>450.5</v>
+        <v>447.25</v>
       </c>
       <c r="E3036" t="s">
         <v>2052</v>
@@ -58168,7 +58168,7 @@
         <v>10</v>
       </c>
       <c r="D3037">
-        <v>72.7699570202267</v>
+        <v>72.76989311415366</v>
       </c>
       <c r="E3037" t="s">
         <v>2053</v>
@@ -58185,7 +58185,7 @@
         <v>1</v>
       </c>
       <c r="D3038">
-        <v>873.2394842427204</v>
+        <v>873.2387173698439</v>
       </c>
       <c r="E3038" t="s">
         <v>2052</v>
@@ -58202,7 +58202,7 @@
         <v>10</v>
       </c>
       <c r="D3039">
-        <v>72.76985188143652</v>
+        <v>72.769842164284</v>
       </c>
       <c r="E3039" t="s">
         <v>2053</v>
@@ -58219,7 +58219,7 @@
         <v>1</v>
       </c>
       <c r="D3040">
-        <v>873.2382225772383</v>
+        <v>873.238105971408</v>
       </c>
       <c r="E3040" t="s">
         <v>2052</v>
@@ -58304,7 +58304,7 @@
         <v>10</v>
       </c>
       <c r="D3045">
-        <v>35</v>
+        <v>35.25</v>
       </c>
       <c r="E3045" t="s">
         <v>2053</v>
@@ -58321,7 +58321,7 @@
         <v>1</v>
       </c>
       <c r="D3046">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E3046" t="s">
         <v>2052</v>
@@ -58474,7 +58474,7 @@
         <v>431</v>
       </c>
       <c r="D3055">
-        <v>122.1562857635238</v>
+        <v>122.1561982893596</v>
       </c>
       <c r="E3055" t="s">
         <v>2053</v>
@@ -58491,7 +58491,7 @@
         <v>1</v>
       </c>
       <c r="D3056">
-        <v>1465.875429162285</v>
+        <v>1465.874379472315</v>
       </c>
       <c r="E3056" t="s">
         <v>2052</v>
@@ -58576,7 +58576,7 @@
         <v>431</v>
       </c>
       <c r="D3061">
-        <v>63.747693460689</v>
+        <v>63.74769346068899</v>
       </c>
       <c r="E3061" t="s">
         <v>2053</v>
@@ -58678,7 +58678,7 @@
         <v>431</v>
       </c>
       <c r="D3067">
-        <v>63.747693460689</v>
+        <v>63.74769346068899</v>
       </c>
       <c r="E3067" t="s">
         <v>2053</v>
@@ -58865,7 +58865,7 @@
         <v>1</v>
       </c>
       <c r="D3078">
-        <v>302.1540324121909</v>
+        <v>296.8208398992086</v>
       </c>
       <c r="E3078" t="s">
         <v>2052</v>
@@ -58882,7 +58882,7 @@
         <v>1</v>
       </c>
       <c r="D3079">
-        <v>302.1540324121909</v>
+        <v>296.8208398992086</v>
       </c>
       <c r="E3079" t="s">
         <v>2052</v>
@@ -58899,7 +58899,7 @@
         <v>1</v>
       </c>
       <c r="D3080">
-        <v>302.1540324121909</v>
+        <v>296.8208398992086</v>
       </c>
       <c r="E3080" t="s">
         <v>2052</v>
@@ -58916,7 +58916,7 @@
         <v>1</v>
       </c>
       <c r="D3081">
-        <v>322.5</v>
+        <v>317.75</v>
       </c>
       <c r="E3081" t="s">
         <v>2052</v>
@@ -58933,7 +58933,7 @@
         <v>1</v>
       </c>
       <c r="D3082">
-        <v>208.25</v>
+        <v>207.75</v>
       </c>
       <c r="E3082" t="s">
         <v>2052</v>
@@ -59426,7 +59426,7 @@
         <v>7</v>
       </c>
       <c r="D3111">
-        <v>45</v>
+        <v>44.75</v>
       </c>
       <c r="E3111" t="s">
         <v>2053</v>
@@ -59443,7 +59443,7 @@
         <v>1</v>
       </c>
       <c r="D3112">
-        <v>450</v>
+        <v>447.5</v>
       </c>
       <c r="E3112" t="s">
         <v>2052</v>
@@ -59460,7 +59460,7 @@
         <v>7</v>
       </c>
       <c r="D3113">
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="E3113" t="s">
         <v>2053</v>
@@ -59477,7 +59477,7 @@
         <v>1</v>
       </c>
       <c r="D3114">
-        <v>442.5</v>
+        <v>437.5</v>
       </c>
       <c r="E3114" t="s">
         <v>2052</v>
@@ -59494,7 +59494,7 @@
         <v>1</v>
       </c>
       <c r="D3115">
-        <v>742.6290077838381</v>
+        <v>731.5429832432307</v>
       </c>
       <c r="E3115" t="s">
         <v>2053</v>
@@ -59511,7 +59511,7 @@
         <v>16</v>
       </c>
       <c r="D3116">
-        <v>6683.661070054543</v>
+        <v>6583.886849189076</v>
       </c>
       <c r="E3116" t="s">
         <v>2052</v>
@@ -59528,7 +59528,7 @@
         <v>1</v>
       </c>
       <c r="D3117">
-        <v>742.6290077838381</v>
+        <v>731.5429832432307</v>
       </c>
       <c r="E3117" t="s">
         <v>2053</v>
@@ -59545,7 +59545,7 @@
         <v>16</v>
       </c>
       <c r="D3118">
-        <v>6683.661070054543</v>
+        <v>6583.886849189076</v>
       </c>
       <c r="E3118" t="s">
         <v>2052</v>
@@ -59562,7 +59562,7 @@
         <v>1</v>
       </c>
       <c r="D3119">
-        <v>152</v>
+        <v>150.5</v>
       </c>
       <c r="E3119" t="s">
         <v>2052</v>
@@ -59579,7 +59579,7 @@
         <v>1</v>
       </c>
       <c r="D3120">
-        <v>153.75</v>
+        <v>152.25</v>
       </c>
       <c r="E3120" t="s">
         <v>2052</v>
@@ -59596,7 +59596,7 @@
         <v>1</v>
       </c>
       <c r="D3121">
-        <v>830.25</v>
+        <v>819.5</v>
       </c>
       <c r="E3121" t="s">
         <v>2053</v>
@@ -59613,7 +59613,7 @@
         <v>16</v>
       </c>
       <c r="D3122">
-        <v>7472.25</v>
+        <v>7375.5</v>
       </c>
       <c r="E3122" t="s">
         <v>2052</v>
@@ -59681,7 +59681,7 @@
         <v>1</v>
       </c>
       <c r="D3126">
-        <v>151.5</v>
+        <v>149</v>
       </c>
       <c r="E3126" t="s">
         <v>2052</v>
@@ -59698,7 +59698,7 @@
         <v>1</v>
       </c>
       <c r="D3127">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3127" t="s">
         <v>2052</v>
@@ -59715,7 +59715,7 @@
         <v>1</v>
       </c>
       <c r="D3128">
-        <v>94.5</v>
+        <v>93.5</v>
       </c>
       <c r="E3128" t="s">
         <v>2052</v>
@@ -59732,7 +59732,7 @@
         <v>2</v>
       </c>
       <c r="D3129">
-        <v>101.5</v>
+        <v>101.25</v>
       </c>
       <c r="E3129" t="s">
         <v>2052</v>
@@ -59749,7 +59749,7 @@
         <v>1</v>
       </c>
       <c r="D3130">
-        <v>97</v>
+        <v>95.75</v>
       </c>
       <c r="E3130" t="s">
         <v>2052</v>
@@ -59766,7 +59766,7 @@
         <v>1</v>
       </c>
       <c r="D3131">
-        <v>1004.314107830214</v>
+        <v>992.483411205263</v>
       </c>
       <c r="E3131" t="s">
         <v>2052</v>
@@ -59783,7 +59783,7 @@
         <v>1</v>
       </c>
       <c r="D3132">
-        <v>1004.314107830214</v>
+        <v>992.483411205263</v>
       </c>
       <c r="E3132" t="s">
         <v>2052</v>
@@ -59800,7 +59800,7 @@
         <v>1</v>
       </c>
       <c r="D3133">
-        <v>959.5</v>
+        <v>948</v>
       </c>
       <c r="E3133" t="s">
         <v>2052</v>
@@ -59817,7 +59817,7 @@
         <v>2</v>
       </c>
       <c r="D3134">
-        <v>447.75</v>
+        <v>445.5</v>
       </c>
       <c r="E3134" t="s">
         <v>2052</v>
@@ -59834,7 +59834,7 @@
         <v>2</v>
       </c>
       <c r="D3135">
-        <v>447.75</v>
+        <v>445.5</v>
       </c>
       <c r="E3135" t="s">
         <v>2052</v>
@@ -59851,7 +59851,7 @@
         <v>2</v>
       </c>
       <c r="D3136">
-        <v>498.25</v>
+        <v>497.25</v>
       </c>
       <c r="E3136" t="s">
         <v>2052</v>
@@ -59868,7 +59868,7 @@
         <v>2</v>
       </c>
       <c r="D3137">
-        <v>447.75</v>
+        <v>445.5</v>
       </c>
       <c r="E3137" t="s">
         <v>2052</v>
@@ -59885,7 +59885,7 @@
         <v>2</v>
       </c>
       <c r="D3138">
-        <v>398.4754547915829</v>
+        <v>394.6894341860418</v>
       </c>
       <c r="E3138" t="s">
         <v>2052</v>
@@ -59902,7 +59902,7 @@
         <v>2</v>
       </c>
       <c r="D3139">
-        <v>398.4754547915829</v>
+        <v>394.6894341860418</v>
       </c>
       <c r="E3139" t="s">
         <v>2052</v>
